--- a/diferenca_altimetria_clean.xlsx
+++ b/diferenca_altimetria_clean.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOOKULTRA\Documents\GitHub\Artigo-RTX-Moto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobat\Documents\GitHub\Artigo-RTX-Moto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D0AA18F-356A-4BBA-8175-901EE29FE197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A09053-B12D-404F-ABA4-4DAE26DFDA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="G_V1IDA" sheetId="1" r:id="rId1"/>
+    <sheet name="G_V2IDA" sheetId="2" r:id="rId2"/>
+    <sheet name="G_V3IDA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>NIV</t>
   </si>
@@ -54,10 +47,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -86,6 +80,12 @@
       <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,16 +105,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -122,12 +122,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,15 +147,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,11 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F4EE44-6091-4A63-88C2-C87744478CAA}">
-  <dimension ref="A1:F990"/>
+  <dimension ref="A1:G990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F85" sqref="F85"/>
+      <selection pane="topRight" sqref="A1:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -376,1807 +408,1608 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>685.35749999999996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>686.851</v>
+      </c>
+      <c r="D2" s="2">
+        <v>686.75199999999995</v>
+      </c>
+      <c r="E2" s="2">
+        <v>686.83199999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>686.82</v>
+      </c>
+      <c r="G2" s="2">
+        <v>686.80799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>685.3605</v>
+      </c>
+      <c r="C3" s="2">
+        <v>686.86699999999996</v>
+      </c>
+      <c r="D3" s="2">
+        <v>686.76099999999997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>686.84199999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>686.83100000000002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>686.84100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>804.95399999999995</v>
-      </c>
-      <c r="C2" s="6">
-        <v>804.81170999999995</v>
-      </c>
-      <c r="D2" s="6">
-        <v>804.81899999999996</v>
-      </c>
-      <c r="E2" s="6">
-        <v>804.78697999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>804.93600000000004</v>
-      </c>
-      <c r="C3" s="6">
-        <v>804.81282999999996</v>
-      </c>
-      <c r="D3" s="6">
-        <v>804.82079999999996</v>
-      </c>
-      <c r="E3" s="6">
-        <v>804.78687000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>804.9375</v>
-      </c>
-      <c r="C4" s="6">
-        <v>804.79094999999995</v>
-      </c>
-      <c r="D4" s="6">
-        <v>804.81290000000001</v>
-      </c>
-      <c r="E4" s="6">
-        <v>804.78312000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="B4" s="10">
+        <v>685.37350000000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>686.88099999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>686.77800000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>686.86</v>
+      </c>
+      <c r="F4" s="2">
+        <v>686.846</v>
+      </c>
+      <c r="G4" s="2">
+        <v>686.85799999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>804.9375</v>
-      </c>
-      <c r="C5" s="6">
-        <v>804.78144999999995</v>
-      </c>
-      <c r="D5" s="6">
-        <v>804.80650000000003</v>
-      </c>
-      <c r="E5" s="6">
-        <v>804.77103999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="B5" s="10">
+        <v>685.38149999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>686.88099999999997</v>
+      </c>
+      <c r="D5" s="2">
+        <v>686.78099999999995</v>
+      </c>
+      <c r="E5" s="2">
+        <v>686.85799999999995</v>
+      </c>
+      <c r="F5" s="2">
+        <v>686.84299999999996</v>
+      </c>
+      <c r="G5" s="2">
+        <v>686.85400000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>804.90899999999999</v>
-      </c>
-      <c r="C6" s="6">
-        <v>804.76936000000001</v>
-      </c>
-      <c r="D6" s="6">
-        <v>804.79089999999997</v>
-      </c>
-      <c r="E6" s="6">
-        <v>804.74438999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="B6" s="10">
+        <v>685.37800000000004</v>
+      </c>
+      <c r="C6" s="2">
+        <v>686.88800000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>686.79399999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>686.87099999999998</v>
+      </c>
+      <c r="F6" s="2">
+        <v>686.87</v>
+      </c>
+      <c r="G6" s="2">
+        <v>686.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>804.89149999999995</v>
-      </c>
-      <c r="C7" s="6">
-        <v>804.75887999999998</v>
-      </c>
-      <c r="D7" s="6">
-        <v>804.77539999999999</v>
-      </c>
-      <c r="E7" s="6">
-        <v>804.71932000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="B7" s="10">
+        <v>685.37099999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>686.88900000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>686.78399999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>686.86199999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>686.86199999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>686.84900000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>804.89549999999997</v>
-      </c>
-      <c r="C8" s="6">
-        <v>804.71793000000002</v>
-      </c>
-      <c r="D8" s="6">
-        <v>804.75779999999997</v>
-      </c>
-      <c r="E8" s="6">
-        <v>804.70407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="B8" s="10">
+        <v>685.37199999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <v>686.89200000000005</v>
+      </c>
+      <c r="D8" s="2">
+        <v>686.79100000000005</v>
+      </c>
+      <c r="E8" s="2">
+        <v>686.86900000000003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>686.86500000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>686.86400000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>804.88149999999996</v>
-      </c>
-      <c r="C9" s="6">
-        <v>804.70775000000003</v>
-      </c>
-      <c r="D9" s="6">
-        <v>804.74919999999997</v>
-      </c>
-      <c r="E9" s="6">
-        <v>804.70149000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="B9" s="10">
+        <v>685.39350000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>686.90700000000004</v>
+      </c>
+      <c r="D9" s="2">
+        <v>686.80100000000004</v>
+      </c>
+      <c r="E9" s="2">
+        <v>686.88</v>
+      </c>
+      <c r="F9" s="2">
+        <v>686.87599999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>686.88300000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>804.86850000000004</v>
-      </c>
-      <c r="C10" s="6">
-        <v>804.71352999999999</v>
-      </c>
-      <c r="D10" s="6">
-        <v>804.76089999999999</v>
-      </c>
-      <c r="E10" s="6">
-        <v>804.71702000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="B10" s="10">
+        <v>685.41750000000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>686.91600000000005</v>
+      </c>
+      <c r="D10" s="2">
+        <v>686.81700000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>686.89</v>
+      </c>
+      <c r="F10" s="2">
+        <v>686.89200000000005</v>
+      </c>
+      <c r="G10" s="2">
+        <v>686.904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>804.86599999999999</v>
-      </c>
-      <c r="C11" s="6">
-        <v>804.69335000000001</v>
-      </c>
-      <c r="D11" s="6">
-        <v>804.74220000000003</v>
-      </c>
-      <c r="E11" s="6">
-        <v>804.71371999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="B11" s="10">
+        <v>685.42700000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>686.94299999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>686.83</v>
+      </c>
+      <c r="E11" s="2">
+        <v>686.9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>686.90300000000002</v>
+      </c>
+      <c r="G11" s="2">
+        <v>686.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>804.86350000000004</v>
-      </c>
-      <c r="C12" s="6">
-        <v>804.67864999999995</v>
-      </c>
-      <c r="D12" s="6">
-        <v>804.7337</v>
-      </c>
-      <c r="E12" s="6">
-        <v>804.69686000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="B12" s="10">
+        <v>685.43349999999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>686.95</v>
+      </c>
+      <c r="D12" s="2">
+        <v>686.83500000000004</v>
+      </c>
+      <c r="E12" s="2">
+        <v>686.91099999999994</v>
+      </c>
+      <c r="F12" s="2">
+        <v>686.92899999999997</v>
+      </c>
+      <c r="G12" s="2">
+        <v>686.91499999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>804.83450000000005</v>
-      </c>
-      <c r="C13" s="6">
-        <v>804.66880000000003</v>
-      </c>
-      <c r="D13" s="6">
-        <v>804.72400000000005</v>
-      </c>
-      <c r="E13" s="6">
-        <v>804.67566999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="B13" s="10">
+        <v>685.45050000000003</v>
+      </c>
+      <c r="C13" s="2">
+        <v>686.95899999999995</v>
+      </c>
+      <c r="D13" s="2">
+        <v>686.84400000000005</v>
+      </c>
+      <c r="E13" s="2">
+        <v>686.93600000000004</v>
+      </c>
+      <c r="F13" s="2">
+        <v>686.94200000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>686.92899999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>804.82399999999996</v>
-      </c>
-      <c r="C14" s="6">
-        <v>804.64948000000004</v>
-      </c>
-      <c r="D14" s="6">
-        <v>804.7002</v>
-      </c>
-      <c r="E14" s="6">
-        <v>804.65152999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="B14" s="10">
+        <v>685.45849999999996</v>
+      </c>
+      <c r="C14" s="2">
+        <v>686.95799999999997</v>
+      </c>
+      <c r="D14" s="2">
+        <v>686.86199999999997</v>
+      </c>
+      <c r="E14" s="2">
+        <v>686.93600000000004</v>
+      </c>
+      <c r="F14" s="2">
+        <v>686.94100000000003</v>
+      </c>
+      <c r="G14" s="2">
+        <v>686.928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>804.81700000000001</v>
-      </c>
-      <c r="C15" s="6">
-        <v>804.64171999999996</v>
-      </c>
-      <c r="D15" s="6">
-        <v>804.69590000000005</v>
-      </c>
-      <c r="E15" s="6">
-        <v>804.64485000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="B15" s="10">
+        <v>685.45749999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>686.96100000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>686.87</v>
+      </c>
+      <c r="E15" s="2">
+        <v>686.94</v>
+      </c>
+      <c r="F15" s="2">
+        <v>686.94799999999998</v>
+      </c>
+      <c r="G15" s="2">
+        <v>686.93299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>804.82050000000004</v>
-      </c>
-      <c r="C16" s="6">
-        <v>804.63196000000005</v>
-      </c>
-      <c r="D16" s="6">
-        <v>804.68880000000001</v>
-      </c>
-      <c r="E16" s="6">
-        <v>804.63265000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="B16" s="10">
+        <v>685.44550000000004</v>
+      </c>
+      <c r="C16" s="2">
+        <v>686.95500000000004</v>
+      </c>
+      <c r="D16" s="2">
+        <v>686.86300000000006</v>
+      </c>
+      <c r="E16" s="2">
+        <v>686.93399999999997</v>
+      </c>
+      <c r="F16" s="2">
+        <v>686.94200000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>686.92499999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>804.78599999999994</v>
-      </c>
-      <c r="C17" s="6">
-        <v>804.61324000000002</v>
-      </c>
-      <c r="D17" s="6">
-        <v>804.66639999999995</v>
-      </c>
-      <c r="E17" s="6">
-        <v>804.61614999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="B17" s="10">
+        <v>685.44299999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>686.94500000000005</v>
+      </c>
+      <c r="D17" s="2">
+        <v>686.85299999999995</v>
+      </c>
+      <c r="E17" s="2">
+        <v>686.93899999999996</v>
+      </c>
+      <c r="F17" s="2">
+        <v>686.928</v>
+      </c>
+      <c r="G17" s="2">
+        <v>686.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>804.76599999999996</v>
-      </c>
-      <c r="C18" s="6">
-        <v>804.61</v>
-      </c>
-      <c r="D18" s="6">
-        <v>804.65710000000001</v>
-      </c>
-      <c r="E18" s="6">
-        <v>804.60740999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="B18" s="10">
+        <v>685.428</v>
+      </c>
+      <c r="C18" s="2">
+        <v>686.94</v>
+      </c>
+      <c r="D18" s="2">
+        <v>686.851</v>
+      </c>
+      <c r="E18" s="2">
+        <v>686.93600000000004</v>
+      </c>
+      <c r="F18" s="2">
+        <v>686.92</v>
+      </c>
+      <c r="G18" s="2">
+        <v>686.92700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>804.75699999999995</v>
-      </c>
-      <c r="C19" s="6">
-        <v>804.59196999999995</v>
-      </c>
-      <c r="D19" s="6">
-        <v>804.64369999999997</v>
-      </c>
-      <c r="E19" s="6">
-        <v>804.59912999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="B19" s="10">
+        <v>685.447</v>
+      </c>
+      <c r="C19" s="2">
+        <v>686.94100000000003</v>
+      </c>
+      <c r="D19" s="2">
+        <v>686.84799999999996</v>
+      </c>
+      <c r="E19" s="2">
+        <v>686.93399999999997</v>
+      </c>
+      <c r="F19" s="2">
+        <v>686.95500000000004</v>
+      </c>
+      <c r="G19" s="2">
+        <v>686.928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>804.7355</v>
-      </c>
-      <c r="C20" s="6">
-        <v>804.57515999999998</v>
-      </c>
-      <c r="D20" s="6">
-        <v>804.62869999999998</v>
-      </c>
-      <c r="E20" s="6">
-        <v>804.58513000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="B20" s="10">
+        <v>685.45150000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>686.96</v>
+      </c>
+      <c r="D20" s="2">
+        <v>686.86599999999999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>686.952</v>
+      </c>
+      <c r="F20" s="2">
+        <v>686.96299999999997</v>
+      </c>
+      <c r="G20" s="2">
+        <v>686.94100000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>804.71050000000002</v>
-      </c>
-      <c r="C21" s="6">
-        <v>804.56857000000002</v>
-      </c>
-      <c r="D21" s="6">
-        <v>804.61090000000002</v>
-      </c>
-      <c r="E21" s="6">
-        <v>804.58199000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="B21" s="10">
+        <v>685.47749999999996</v>
+      </c>
+      <c r="C21" s="2">
+        <v>686.97</v>
+      </c>
+      <c r="D21" s="2">
+        <v>686.87699999999995</v>
+      </c>
+      <c r="E21" s="2">
+        <v>686.96199999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>686.98500000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>686.95399999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>804.71749999999997</v>
-      </c>
-      <c r="C22" s="6">
-        <v>804.56287999999995</v>
-      </c>
-      <c r="D22" s="6">
-        <v>804.5933</v>
-      </c>
-      <c r="E22" s="6">
-        <v>804.57668000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="B22" s="10">
+        <v>685.4905</v>
+      </c>
+      <c r="C22" s="2">
+        <v>686.97699999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>686.89200000000005</v>
+      </c>
+      <c r="E22" s="2">
+        <v>687.00300000000004</v>
+      </c>
+      <c r="F22" s="2">
+        <v>687.00099999999998</v>
+      </c>
+      <c r="G22" s="2">
+        <v>686.96299999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>804.71299999999997</v>
-      </c>
-      <c r="C23" s="6">
-        <v>804.55448000000001</v>
-      </c>
-      <c r="D23" s="6">
-        <v>804.5874</v>
-      </c>
-      <c r="E23" s="6">
-        <v>804.57512999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A24" s="4">
+      <c r="B23" s="10">
+        <v>685.49649999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>686.98500000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>686.90300000000002</v>
+      </c>
+      <c r="E23" s="2">
+        <v>687.00900000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>687.00699999999995</v>
+      </c>
+      <c r="G23" s="2">
+        <v>686.98900000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>804.72299999999996</v>
-      </c>
-      <c r="C24" s="6">
-        <v>804.55033000000003</v>
-      </c>
-      <c r="D24" s="6">
-        <v>804.59119999999996</v>
-      </c>
-      <c r="E24" s="6">
-        <v>804.57710999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="B24" s="10">
+        <v>685.51499999999999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>686.99699999999996</v>
+      </c>
+      <c r="D24" s="2">
+        <v>686.92399999999998</v>
+      </c>
+      <c r="E24" s="2">
+        <v>687.01900000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>687.01499999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>687.00300000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>804.73149999999998</v>
-      </c>
-      <c r="C25" s="6">
-        <v>804.54969000000006</v>
-      </c>
-      <c r="D25" s="6">
-        <v>804.60149999999999</v>
-      </c>
-      <c r="E25" s="6">
-        <v>804.58588999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" s="4">
+      <c r="B25" s="10">
+        <v>685.51400000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>687.02</v>
+      </c>
+      <c r="D25" s="2">
+        <v>686.92399999999998</v>
+      </c>
+      <c r="E25" s="2">
+        <v>687.01700000000005</v>
+      </c>
+      <c r="F25" s="2">
+        <v>687.01800000000003</v>
+      </c>
+      <c r="G25" s="2">
+        <v>687.00300000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>804.72149999999999</v>
-      </c>
-      <c r="C26" s="6">
-        <v>804.56982000000005</v>
-      </c>
-      <c r="D26" s="6">
-        <v>804.60810000000004</v>
-      </c>
-      <c r="E26" s="6">
-        <v>804.59218999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A27" s="4">
+      <c r="B26" s="10">
+        <v>685.505</v>
+      </c>
+      <c r="C26" s="2">
+        <v>687.01800000000003</v>
+      </c>
+      <c r="D26" s="2">
+        <v>686.91899999999998</v>
+      </c>
+      <c r="E26" s="2">
+        <v>687.02300000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>687.029</v>
+      </c>
+      <c r="G26" s="2">
+        <v>686.99800000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
-        <v>804.74649999999997</v>
-      </c>
-      <c r="C27" s="6">
-        <v>804.58397000000002</v>
-      </c>
-      <c r="D27" s="6">
-        <v>804.61869999999999</v>
-      </c>
-      <c r="E27" s="6">
-        <v>804.59220000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="4">
+      <c r="B27" s="10">
+        <v>685.48249999999996</v>
+      </c>
+      <c r="C27" s="2">
+        <v>687.00400000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <v>686.90200000000004</v>
+      </c>
+      <c r="E27" s="2">
+        <v>687.01800000000003</v>
+      </c>
+      <c r="F27" s="2">
+        <v>687.01499999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>686.98199999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>804.71749999999997</v>
-      </c>
-      <c r="C28" s="6">
-        <v>804.57033000000001</v>
-      </c>
-      <c r="D28" s="6">
-        <v>804.57550000000003</v>
-      </c>
-      <c r="E28" s="6">
-        <v>804.58308999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A29" s="4">
+      <c r="B28" s="10">
+        <v>685.47400000000005</v>
+      </c>
+      <c r="C28" s="2">
+        <v>686.99900000000002</v>
+      </c>
+      <c r="D28" s="2">
+        <v>686.88699999999994</v>
+      </c>
+      <c r="E28" s="2">
+        <v>687.00900000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>687.005</v>
+      </c>
+      <c r="G28" s="2">
+        <v>686.971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
-        <v>804.69550000000004</v>
-      </c>
-      <c r="C29" s="6">
-        <v>804.55003999999997</v>
-      </c>
-      <c r="D29" s="6">
-        <v>804.56209999999999</v>
-      </c>
-      <c r="E29" s="6">
-        <v>804.57164999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A30" s="4">
+      <c r="B29" s="10">
+        <v>685.46799999999996</v>
+      </c>
+      <c r="C29" s="2">
+        <v>686.99099999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>686.88900000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>687.01</v>
+      </c>
+      <c r="F29" s="2">
+        <v>686.99800000000005</v>
+      </c>
+      <c r="G29" s="2">
+        <v>686.96500000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
-        <v>804.6925</v>
-      </c>
-      <c r="C30" s="6">
-        <v>804.52413999999999</v>
-      </c>
-      <c r="D30" s="6">
-        <v>804.54750000000001</v>
-      </c>
-      <c r="E30" s="6">
-        <v>804.54953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A31" s="4">
+      <c r="B30" s="10">
+        <v>685.47950000000003</v>
+      </c>
+      <c r="C30" s="2">
+        <v>686.97699999999998</v>
+      </c>
+      <c r="D30" s="2">
+        <v>686.89099999999996</v>
+      </c>
+      <c r="E30" s="2">
+        <v>687.01</v>
+      </c>
+      <c r="F30" s="2">
+        <v>687.00300000000004</v>
+      </c>
+      <c r="G30" s="2">
+        <v>686.96900000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
-        <v>804.6635</v>
-      </c>
-      <c r="C31" s="6">
-        <v>804.50126999999998</v>
-      </c>
-      <c r="D31" s="6">
-        <v>804.51949999999999</v>
-      </c>
-      <c r="E31" s="6">
-        <v>804.52502000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A32" s="4">
+      <c r="B31" s="10">
+        <v>685.49350000000004</v>
+      </c>
+      <c r="C31" s="2">
+        <v>686.98800000000006</v>
+      </c>
+      <c r="D31" s="2">
+        <v>686.9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>687.01599999999996</v>
+      </c>
+      <c r="F31" s="2">
+        <v>687.01700000000005</v>
+      </c>
+      <c r="G31" s="2">
+        <v>686.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>804.64549999999997</v>
-      </c>
-      <c r="C32" s="6">
-        <v>804.48512000000005</v>
-      </c>
-      <c r="D32" s="6">
-        <v>804.50160000000005</v>
-      </c>
-      <c r="E32" s="6">
-        <v>804.50949000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" s="4">
+      <c r="B32" s="10">
+        <v>685.49249999999995</v>
+      </c>
+      <c r="C32" s="2">
+        <v>686.98900000000003</v>
+      </c>
+      <c r="D32" s="2">
+        <v>686.90099999999995</v>
+      </c>
+      <c r="E32" s="2">
+        <v>687.01400000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>687.01800000000003</v>
+      </c>
+      <c r="G32" s="2">
+        <v>686.98199999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
-        <v>804.62</v>
-      </c>
-      <c r="C33" s="6">
-        <v>804.46849999999995</v>
-      </c>
-      <c r="D33" s="6">
-        <v>804.48649999999998</v>
-      </c>
-      <c r="E33" s="6">
-        <v>804.49577999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" s="4">
+      <c r="B33" s="10">
+        <v>685.51250000000005</v>
+      </c>
+      <c r="C33" s="2">
+        <v>687.01099999999997</v>
+      </c>
+      <c r="D33" s="2">
+        <v>686.923</v>
+      </c>
+      <c r="E33" s="2">
+        <v>687.03099999999995</v>
+      </c>
+      <c r="F33" s="2">
+        <v>687.03700000000003</v>
+      </c>
+      <c r="G33" s="2">
+        <v>687.00300000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
-        <v>804.59900000000005</v>
-      </c>
-      <c r="C34" s="6">
-        <v>804.42665999999997</v>
-      </c>
-      <c r="D34" s="6">
-        <v>804.45180000000005</v>
-      </c>
-      <c r="E34" s="6">
-        <v>804.47617000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A35" s="4">
+      <c r="B34" s="10">
+        <v>685.52</v>
+      </c>
+      <c r="C34" s="2">
+        <v>687.03300000000002</v>
+      </c>
+      <c r="D34" s="2">
+        <v>686.93299999999999</v>
+      </c>
+      <c r="E34" s="2">
+        <v>687.04100000000005</v>
+      </c>
+      <c r="F34" s="2">
+        <v>687.04300000000001</v>
+      </c>
+      <c r="G34" s="2">
+        <v>687.00900000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
-        <v>804.58500000000004</v>
-      </c>
-      <c r="C35" s="6">
-        <v>804.42886999999996</v>
-      </c>
-      <c r="D35" s="6">
-        <v>804.44640000000004</v>
-      </c>
-      <c r="E35" s="6">
-        <v>804.47277999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="4">
+      <c r="B35" s="10">
+        <v>685.53599999999994</v>
+      </c>
+      <c r="C35" s="2">
+        <v>687.04499999999996</v>
+      </c>
+      <c r="D35" s="2">
+        <v>686.93899999999996</v>
+      </c>
+      <c r="E35" s="2">
+        <v>687.04700000000003</v>
+      </c>
+      <c r="F35" s="2">
+        <v>687.05600000000004</v>
+      </c>
+      <c r="G35" s="2">
+        <v>687.02599999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
-        <v>804.55150000000003</v>
-      </c>
-      <c r="C36" s="6">
-        <v>804.40980999999999</v>
-      </c>
-      <c r="D36" s="6">
-        <v>804.42809999999997</v>
-      </c>
-      <c r="E36" s="6">
-        <v>804.46352999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="4">
+      <c r="B36" s="10">
+        <v>685.55</v>
+      </c>
+      <c r="C36" s="2">
+        <v>687.05899999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <v>686.952</v>
+      </c>
+      <c r="E36" s="2">
+        <v>687.08299999999997</v>
+      </c>
+      <c r="F36" s="2">
+        <v>687.06899999999996</v>
+      </c>
+      <c r="G36" s="2">
+        <v>687.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
-        <v>804.54750000000001</v>
-      </c>
-      <c r="C37" s="6">
-        <v>804.40192000000002</v>
-      </c>
-      <c r="D37" s="6">
-        <v>804.41750000000002</v>
-      </c>
-      <c r="E37" s="6">
-        <v>804.44602999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="4">
+      <c r="B37" s="10">
+        <v>685.56399999999996</v>
+      </c>
+      <c r="C37" s="2">
+        <v>687.06200000000001</v>
+      </c>
+      <c r="D37" s="2">
+        <v>686.97199999999998</v>
+      </c>
+      <c r="E37" s="2">
+        <v>687.08699999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>687.077</v>
+      </c>
+      <c r="G37" s="2">
+        <v>687.04600000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
-        <v>804.52850000000001</v>
-      </c>
-      <c r="C38" s="6">
-        <v>804.37621999999999</v>
-      </c>
-      <c r="D38" s="6">
-        <v>804.3972</v>
-      </c>
-      <c r="E38" s="6">
-        <v>804.39734999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" s="4">
+      <c r="B38" s="10">
+        <v>685.57449999999994</v>
+      </c>
+      <c r="C38" s="2">
+        <v>687.08199999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>686.99400000000003</v>
+      </c>
+      <c r="E38" s="2">
+        <v>687.09199999999998</v>
+      </c>
+      <c r="F38" s="2">
+        <v>687.08100000000002</v>
+      </c>
+      <c r="G38" s="2">
+        <v>687.06500000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
-        <v>804.53150000000005</v>
-      </c>
-      <c r="C39" s="6">
-        <v>804.36302000000001</v>
-      </c>
-      <c r="D39" s="6">
-        <v>804.4</v>
-      </c>
-      <c r="E39" s="6">
-        <v>804.39577999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="4">
+      <c r="B39" s="10">
+        <v>685.57749999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>687.09500000000003</v>
+      </c>
+      <c r="D39" s="2">
+        <v>686.99199999999996</v>
+      </c>
+      <c r="E39" s="2">
+        <v>687.08900000000006</v>
+      </c>
+      <c r="F39" s="2">
+        <v>687.08399999999995</v>
+      </c>
+      <c r="G39" s="2">
+        <v>687.06100000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
-        <v>804.54549999999995</v>
-      </c>
-      <c r="C40" s="6">
-        <v>804.36311000000001</v>
-      </c>
-      <c r="D40" s="6">
-        <v>804.39120000000003</v>
-      </c>
-      <c r="E40" s="6">
-        <v>804.39462000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A41" s="4">
+      <c r="B40" s="10">
+        <v>685.57899999999995</v>
+      </c>
+      <c r="C40" s="2">
+        <v>687.09799999999996</v>
+      </c>
+      <c r="D40" s="2">
+        <v>686.99900000000002</v>
+      </c>
+      <c r="E40" s="2">
+        <v>687.08</v>
+      </c>
+      <c r="F40" s="2">
+        <v>687.08199999999999</v>
+      </c>
+      <c r="G40" s="2">
+        <v>687.06600000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
-        <v>804.53599999999994</v>
-      </c>
-      <c r="C41" s="6">
-        <v>804.35514999999998</v>
-      </c>
-      <c r="D41" s="6">
-        <v>804.37310000000002</v>
-      </c>
-      <c r="E41" s="6">
-        <v>804.39239999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A42" s="4">
+      <c r="B41" s="10">
+        <v>685.57349999999997</v>
+      </c>
+      <c r="C41" s="2">
+        <v>687.08799999999997</v>
+      </c>
+      <c r="D41" s="2">
+        <v>686.98</v>
+      </c>
+      <c r="E41" s="2">
+        <v>687.06500000000005</v>
+      </c>
+      <c r="F41" s="2">
+        <v>687.07500000000005</v>
+      </c>
+      <c r="G41" s="2">
+        <v>687.05600000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
-        <v>804.52599999999995</v>
-      </c>
-      <c r="C42" s="6">
-        <v>804.36442999999997</v>
-      </c>
-      <c r="D42" s="6">
-        <v>804.37070000000006</v>
-      </c>
-      <c r="E42" s="6">
-        <v>804.38918000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A43" s="4">
+      <c r="B42" s="10">
+        <v>685.5625</v>
+      </c>
+      <c r="C42" s="2">
+        <v>687.08</v>
+      </c>
+      <c r="D42" s="2">
+        <v>686.96400000000006</v>
+      </c>
+      <c r="E42" s="2">
+        <v>687.05600000000004</v>
+      </c>
+      <c r="F42" s="2">
+        <v>687.06600000000003</v>
+      </c>
+      <c r="G42" s="2">
+        <v>687.04700000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
-        <v>804.529</v>
-      </c>
-      <c r="C43" s="6">
-        <v>804.37435000000005</v>
-      </c>
-      <c r="D43" s="6">
-        <v>804.3655</v>
-      </c>
-      <c r="E43" s="6">
-        <v>804.38598999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A44" s="4">
+      <c r="B43" s="10">
+        <v>685.54849999999999</v>
+      </c>
+      <c r="C43" s="2">
+        <v>687.06500000000005</v>
+      </c>
+      <c r="D43" s="2">
+        <v>686.95799999999997</v>
+      </c>
+      <c r="E43" s="2">
+        <v>687.05499999999995</v>
+      </c>
+      <c r="F43" s="2">
+        <v>687.06299999999999</v>
+      </c>
+      <c r="G43" s="2">
+        <v>687.04399999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
-        <v>804.50649999999996</v>
-      </c>
-      <c r="C44" s="6">
-        <v>804.35770000000002</v>
-      </c>
-      <c r="D44" s="6">
-        <v>804.36099999999999</v>
-      </c>
-      <c r="E44" s="6">
-        <v>804.37782000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A45" s="4">
+      <c r="B44" s="10">
+        <v>685.54750000000001</v>
+      </c>
+      <c r="C44" s="2">
+        <v>687.05700000000002</v>
+      </c>
+      <c r="D44" s="2">
+        <v>686.947</v>
+      </c>
+      <c r="E44" s="2">
+        <v>687.04700000000003</v>
+      </c>
+      <c r="F44" s="2">
+        <v>687.05700000000002</v>
+      </c>
+      <c r="G44" s="2">
+        <v>687.03800000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
-        <v>804.49900000000002</v>
-      </c>
-      <c r="C45" s="6">
-        <v>804.34844999999996</v>
-      </c>
-      <c r="D45" s="6">
-        <v>804.35050000000001</v>
-      </c>
-      <c r="E45" s="6">
-        <v>804.36328000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A46" s="4">
+      <c r="B45" s="10">
+        <v>685.54700000000003</v>
+      </c>
+      <c r="C45" s="2">
+        <v>687.06600000000003</v>
+      </c>
+      <c r="D45" s="2">
+        <v>686.95600000000002</v>
+      </c>
+      <c r="E45" s="2">
+        <v>687.05399999999997</v>
+      </c>
+      <c r="F45" s="2">
+        <v>687.05700000000002</v>
+      </c>
+      <c r="G45" s="2">
+        <v>687.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
-        <v>804.46900000000005</v>
-      </c>
-      <c r="C46" s="6">
-        <v>804.30533000000003</v>
-      </c>
-      <c r="D46" s="6">
-        <v>804.33360000000005</v>
-      </c>
-      <c r="E46" s="6">
-        <v>804.33207000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A47" s="4">
+      <c r="B46" s="10">
+        <v>685.55600000000004</v>
+      </c>
+      <c r="C46" s="2">
+        <v>687.072</v>
+      </c>
+      <c r="D46" s="2">
+        <v>686.95899999999995</v>
+      </c>
+      <c r="E46" s="2">
+        <v>687.05700000000002</v>
+      </c>
+      <c r="F46" s="2">
+        <v>687.06700000000001</v>
+      </c>
+      <c r="G46" s="2">
+        <v>687.04499999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
-        <v>804.44899999999996</v>
-      </c>
-      <c r="C47" s="6">
-        <v>804.29138999999998</v>
-      </c>
-      <c r="D47" s="6">
-        <v>804.30370000000005</v>
-      </c>
-      <c r="E47" s="6">
-        <v>804.30732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A48" s="4">
+      <c r="B47" s="10">
+        <v>685.56399999999996</v>
+      </c>
+      <c r="C47" s="2">
+        <v>687.08100000000002</v>
+      </c>
+      <c r="D47" s="2">
+        <v>686.97</v>
+      </c>
+      <c r="E47" s="2">
+        <v>687.06</v>
+      </c>
+      <c r="F47" s="2">
+        <v>687.07</v>
+      </c>
+      <c r="G47" s="2">
+        <v>687.05799999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
-        <v>804.43299999999999</v>
-      </c>
-      <c r="C48" s="6">
-        <v>804.25667999999996</v>
-      </c>
-      <c r="D48" s="6">
-        <v>804.28620000000001</v>
-      </c>
-      <c r="E48" s="6">
-        <v>804.28125999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A49" s="4">
+      <c r="B48" s="10">
+        <v>685.5675</v>
+      </c>
+      <c r="C48" s="2">
+        <v>687.08600000000001</v>
+      </c>
+      <c r="D48" s="2">
+        <v>686.97799999999995</v>
+      </c>
+      <c r="E48" s="2">
+        <v>687.06700000000001</v>
+      </c>
+      <c r="F48" s="2">
+        <v>687.07799999999997</v>
+      </c>
+      <c r="G48" s="2">
+        <v>687.06299999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
-        <v>804.41079999999999</v>
-      </c>
-      <c r="C49" s="6">
-        <v>804.24996999999996</v>
-      </c>
-      <c r="D49" s="6">
-        <v>804.26930000000004</v>
-      </c>
-      <c r="E49" s="6">
-        <v>804.26871000000006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A50" s="4">
+      <c r="B49" s="10">
+        <v>685.57500000000005</v>
+      </c>
+      <c r="C49" s="2">
+        <v>687.08799999999997</v>
+      </c>
+      <c r="D49" s="2">
+        <v>686.97699999999998</v>
+      </c>
+      <c r="E49" s="2">
+        <v>687.07</v>
+      </c>
+      <c r="F49" s="2">
+        <v>687.08</v>
+      </c>
+      <c r="G49" s="2">
+        <v>687.05700000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
-        <v>804.38850000000002</v>
-      </c>
-      <c r="C50" s="6">
-        <v>804.21663000000001</v>
-      </c>
-      <c r="D50" s="6">
-        <v>804.24480000000005</v>
-      </c>
-      <c r="E50" s="6">
-        <v>804.25145999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A51" s="4">
+      <c r="B50" s="10">
+        <v>685.57950000000005</v>
+      </c>
+      <c r="C50" s="2">
+        <v>687.101</v>
+      </c>
+      <c r="D50" s="2">
+        <v>686.99</v>
+      </c>
+      <c r="E50" s="2">
+        <v>687.09</v>
+      </c>
+      <c r="F50" s="2">
+        <v>687.08</v>
+      </c>
+      <c r="G50" s="2">
+        <v>687.06899999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
-        <v>804.35299999999995</v>
-      </c>
-      <c r="C51" s="6">
-        <v>804.21419000000003</v>
-      </c>
-      <c r="D51" s="6">
-        <v>804.23159999999996</v>
-      </c>
-      <c r="E51" s="6">
-        <v>804.23328000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A52" s="4">
+      <c r="B51" s="10">
+        <v>685.60050000000001</v>
+      </c>
+      <c r="C51" s="2">
+        <v>687.11500000000001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>687.01300000000003</v>
+      </c>
+      <c r="E51" s="2">
+        <v>687.09500000000003</v>
+      </c>
+      <c r="F51" s="2">
+        <v>687.09699999999998</v>
+      </c>
+      <c r="G51" s="2">
+        <v>687.07600000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
-        <v>804.34</v>
-      </c>
-      <c r="C52" s="6">
-        <v>804.20330999999999</v>
-      </c>
-      <c r="D52" s="6">
-        <v>804.20929999999998</v>
-      </c>
-      <c r="E52" s="6">
-        <v>804.22222999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5">
-        <v>804.95399999999995</v>
-      </c>
-      <c r="C53" s="6">
-        <v>804.76923999999997</v>
-      </c>
-      <c r="D53" s="6">
-        <v>804.79564000000005</v>
-      </c>
-      <c r="E53" s="6">
-        <v>804.80101000000002</v>
-      </c>
+      <c r="B52" s="10">
+        <v>685.62450000000001</v>
+      </c>
+      <c r="C52" s="2">
+        <v>687.13499999999999</v>
+      </c>
+      <c r="D52" s="2">
+        <v>687.02</v>
+      </c>
+      <c r="E52" s="2">
+        <v>687.10400000000004</v>
+      </c>
+      <c r="F52" s="2">
+        <v>687.10599999999999</v>
+      </c>
+      <c r="G52" s="2">
+        <v>687.09500000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>804.93600000000004</v>
-      </c>
-      <c r="C54" s="6">
-        <v>804.76954999999998</v>
-      </c>
-      <c r="D54" s="6">
-        <v>804.79274999999996</v>
-      </c>
-      <c r="E54" s="6">
-        <v>804.79576999999995</v>
-      </c>
+    <row r="54" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A55" s="4">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5">
-        <v>804.9375</v>
-      </c>
-      <c r="C55" s="6">
-        <v>804.77408000000003</v>
-      </c>
-      <c r="D55" s="6">
-        <v>804.78611000000001</v>
-      </c>
-      <c r="E55" s="6">
-        <v>804.78569000000005</v>
-      </c>
+    <row r="55" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5">
-        <v>804.9375</v>
-      </c>
-      <c r="C56" s="6">
-        <v>804.75723000000005</v>
-      </c>
-      <c r="D56" s="6">
-        <v>804.77283</v>
-      </c>
-      <c r="E56" s="6">
-        <v>804.77269999999999</v>
-      </c>
+    <row r="56" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5">
-        <v>804.90899999999999</v>
-      </c>
-      <c r="C57" s="6">
-        <v>804.74802</v>
-      </c>
-      <c r="D57" s="6">
-        <v>804.76793999999995</v>
-      </c>
-      <c r="E57" s="6">
-        <v>804.75197000000003</v>
-      </c>
+    <row r="57" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5">
-        <v>804.89149999999995</v>
-      </c>
-      <c r="C58" s="6">
-        <v>804.73536999999999</v>
-      </c>
-      <c r="D58" s="6">
-        <v>804.77165000000002</v>
-      </c>
-      <c r="E58" s="6">
-        <v>804.74503000000004</v>
-      </c>
+    <row r="58" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5">
-        <v>804.89549999999997</v>
-      </c>
-      <c r="C59" s="6">
-        <v>804.72554000000002</v>
-      </c>
-      <c r="D59" s="6">
-        <v>804.76391999999998</v>
-      </c>
-      <c r="E59" s="6">
-        <v>804.74279999999999</v>
-      </c>
+    <row r="59" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5">
-        <v>804.88149999999996</v>
-      </c>
-      <c r="C60" s="6">
-        <v>804.72931000000005</v>
-      </c>
-      <c r="D60" s="6">
-        <v>804.75248999999997</v>
-      </c>
-      <c r="E60" s="6">
-        <v>804.74595999999997</v>
-      </c>
+    <row r="60" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5">
-        <v>804.86850000000004</v>
-      </c>
-      <c r="C61" s="6">
-        <v>804.73504000000003</v>
-      </c>
-      <c r="D61" s="6">
-        <v>804.75349000000006</v>
-      </c>
-      <c r="E61" s="6">
-        <v>804.75649999999996</v>
-      </c>
+    <row r="61" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5">
-        <v>804.86599999999999</v>
-      </c>
-      <c r="C62" s="6">
-        <v>804.71128999999996</v>
-      </c>
-      <c r="D62" s="6">
-        <v>804.73693000000003</v>
-      </c>
-      <c r="E62" s="6">
-        <v>804.73675000000003</v>
-      </c>
+    <row r="62" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="5">
-        <v>804.86350000000004</v>
-      </c>
-      <c r="C63" s="6">
-        <v>804.69363999999996</v>
-      </c>
-      <c r="D63" s="6">
-        <v>804.71758</v>
-      </c>
-      <c r="E63" s="6">
-        <v>804.71664999999996</v>
-      </c>
+    <row r="63" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5">
-        <v>804.83450000000005</v>
-      </c>
-      <c r="C64" s="6">
-        <v>804.67336</v>
-      </c>
-      <c r="D64" s="6">
-        <v>804.73843999999997</v>
-      </c>
-      <c r="E64" s="6">
-        <v>804.70235000000002</v>
-      </c>
+    <row r="64" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A65" s="4">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5">
-        <v>804.82399999999996</v>
-      </c>
-      <c r="C65" s="6">
-        <v>804.65990999999997</v>
-      </c>
-      <c r="D65" s="6">
-        <v>804.73051999999996</v>
-      </c>
-      <c r="E65" s="6">
-        <v>804.67738999999995</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5">
-        <v>804.81700000000001</v>
-      </c>
-      <c r="C66" s="6">
-        <v>804.64391999999998</v>
-      </c>
-      <c r="D66" s="6">
-        <v>804.71205999999995</v>
-      </c>
-      <c r="E66" s="6">
-        <v>804.66342999999995</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A67" s="4">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5">
-        <v>804.82050000000004</v>
-      </c>
-      <c r="C67" s="6">
-        <v>804.61973</v>
-      </c>
-      <c r="D67" s="6">
-        <v>804.69530999999995</v>
-      </c>
-      <c r="E67" s="6">
-        <v>804.65193999999997</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A68" s="4">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5">
-        <v>804.78599999999994</v>
-      </c>
-      <c r="C68" s="6">
-        <v>804.60398999999995</v>
-      </c>
-      <c r="D68" s="6">
-        <v>804.67903000000001</v>
-      </c>
-      <c r="E68" s="6">
-        <v>804.63211000000001</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A69" s="4">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5">
-        <v>804.76599999999996</v>
-      </c>
-      <c r="C69" s="6">
-        <v>804.59162000000003</v>
-      </c>
-      <c r="D69" s="6">
-        <v>804.66983000000005</v>
-      </c>
-      <c r="E69" s="6">
-        <v>804.62323000000004</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A70" s="4">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5">
-        <v>804.75699999999995</v>
-      </c>
-      <c r="C70" s="6">
-        <v>804.58601999999996</v>
-      </c>
-      <c r="D70" s="6">
-        <v>804.64301999999998</v>
-      </c>
-      <c r="E70" s="6">
-        <v>804.61012000000005</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A71" s="4">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5">
-        <v>804.7355</v>
-      </c>
-      <c r="C71" s="6">
-        <v>804.57020999999997</v>
-      </c>
-      <c r="D71" s="6">
-        <v>804.62332000000004</v>
-      </c>
-      <c r="E71" s="6">
-        <v>804.59493999999995</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A72" s="4">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5">
-        <v>804.71050000000002</v>
-      </c>
-      <c r="C72" s="6">
-        <v>804.56299000000001</v>
-      </c>
-      <c r="D72" s="6">
-        <v>804.61573999999996</v>
-      </c>
-      <c r="E72" s="6">
-        <v>804.58280000000002</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A73" s="4">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5">
-        <v>804.71749999999997</v>
-      </c>
-      <c r="C73" s="6">
-        <v>804.55331000000001</v>
-      </c>
-      <c r="D73" s="6">
-        <v>804.60443999999995</v>
-      </c>
-      <c r="E73" s="6">
-        <v>804.58788000000004</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A74" s="4">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5">
-        <v>804.71299999999997</v>
-      </c>
-      <c r="C74" s="6">
-        <v>804.55120999999997</v>
-      </c>
-      <c r="D74" s="6">
-        <v>804.60699</v>
-      </c>
-      <c r="E74" s="6">
-        <v>804.58614999999998</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A75" s="4">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5">
-        <v>804.72299999999996</v>
-      </c>
-      <c r="C75" s="6">
-        <v>804.55650000000003</v>
-      </c>
-      <c r="D75" s="6">
-        <v>804.60766000000001</v>
-      </c>
-      <c r="E75" s="6">
-        <v>804.58986000000004</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A76" s="4">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5">
-        <v>804.73149999999998</v>
-      </c>
-      <c r="C76" s="6">
-        <v>804.55890999999997</v>
-      </c>
-      <c r="D76" s="6">
-        <v>804.61674000000005</v>
-      </c>
-      <c r="E76" s="6">
-        <v>804.60279000000003</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A77" s="4">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5">
-        <v>804.72149999999999</v>
-      </c>
-      <c r="C77" s="6">
-        <v>804.56714999999997</v>
-      </c>
-      <c r="D77" s="6">
-        <v>804.62920999999994</v>
-      </c>
-      <c r="E77" s="6">
-        <v>804.60500999999999</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A78" s="4">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5">
-        <v>804.74649999999997</v>
-      </c>
-      <c r="C78" s="6">
-        <v>804.55487000000005</v>
-      </c>
-      <c r="D78" s="6">
-        <v>804.61577999999997</v>
-      </c>
-      <c r="E78" s="6">
-        <v>804.59243000000004</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A79" s="4">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5">
-        <v>804.71749999999997</v>
-      </c>
-      <c r="C79" s="6">
-        <v>804.52774999999997</v>
-      </c>
-      <c r="D79" s="6">
-        <v>804.59757000000002</v>
-      </c>
-      <c r="E79" s="6">
-        <v>804.57137</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A80" s="4">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5">
-        <v>804.69550000000004</v>
-      </c>
-      <c r="C80" s="6">
-        <v>804.52022999999997</v>
-      </c>
-      <c r="D80" s="6">
-        <v>804.58668</v>
-      </c>
-      <c r="E80" s="6">
-        <v>804.56086000000005</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A81" s="4">
-        <v>80</v>
-      </c>
-      <c r="B81" s="5">
-        <v>804.6925</v>
-      </c>
-      <c r="C81" s="6">
-        <v>804.51779999999997</v>
-      </c>
-      <c r="D81" s="6">
-        <v>804.56713000000002</v>
-      </c>
-      <c r="E81" s="6">
-        <v>804.55530999999996</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A82" s="4">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5">
-        <v>804.6635</v>
-      </c>
-      <c r="C82" s="6">
-        <v>804.47990000000004</v>
-      </c>
-      <c r="D82" s="6">
-        <v>804.53993000000003</v>
-      </c>
-      <c r="E82" s="6">
-        <v>804.52748999999994</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A83" s="4">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5">
-        <v>804.64549999999997</v>
-      </c>
-      <c r="C83" s="6">
-        <v>804.45411999999999</v>
-      </c>
-      <c r="D83" s="6">
-        <v>804.51472000000001</v>
-      </c>
-      <c r="E83" s="6">
-        <v>804.49913000000004</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A84" s="4">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5">
-        <v>804.62</v>
-      </c>
-      <c r="C84" s="6">
-        <v>804.43038999999999</v>
-      </c>
-      <c r="D84" s="6">
-        <v>804.50220999999999</v>
-      </c>
-      <c r="E84" s="6">
-        <v>804.48260000000005</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A85" s="4">
-        <v>84</v>
-      </c>
-      <c r="B85" s="5">
-        <v>804.59900000000005</v>
-      </c>
-      <c r="C85" s="6">
-        <v>804.41348000000005</v>
-      </c>
-      <c r="D85" s="6">
-        <v>804.47841000000005</v>
-      </c>
-      <c r="E85" s="6">
-        <v>804.46894999999995</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A86" s="4">
-        <v>85</v>
-      </c>
-      <c r="B86" s="5">
-        <v>804.58500000000004</v>
-      </c>
-      <c r="C86" s="6">
-        <v>804.40454999999997</v>
-      </c>
-      <c r="D86" s="6">
-        <v>804.47135000000003</v>
-      </c>
-      <c r="E86" s="6">
-        <v>804.44856000000004</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A87" s="4">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5">
-        <v>804.55150000000003</v>
-      </c>
-      <c r="C87" s="6">
-        <v>804.39949999999999</v>
-      </c>
-      <c r="D87" s="6">
-        <v>804.45299</v>
-      </c>
-      <c r="E87" s="6">
-        <v>804.42971</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A88" s="4">
-        <v>87</v>
-      </c>
-      <c r="B88" s="5">
-        <v>804.54750000000001</v>
-      </c>
-      <c r="C88" s="6">
-        <v>804.38</v>
-      </c>
-      <c r="D88" s="6">
-        <v>804.44196999999997</v>
-      </c>
-      <c r="E88" s="6">
-        <v>804.40886999999998</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A89" s="4">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5">
-        <v>804.52850000000001</v>
-      </c>
-      <c r="C89" s="6">
-        <v>804.35702000000003</v>
-      </c>
-      <c r="D89" s="6">
-        <v>804.36059</v>
-      </c>
-      <c r="E89" s="6">
-        <v>804.40013999999996</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A90" s="4">
-        <v>89</v>
-      </c>
-      <c r="B90" s="5">
-        <v>804.53150000000005</v>
-      </c>
-      <c r="C90" s="6">
-        <v>804.35505000000001</v>
-      </c>
-      <c r="D90" s="6">
-        <v>804.35832000000005</v>
-      </c>
-      <c r="E90" s="6">
-        <v>804.39166</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A91" s="4">
-        <v>90</v>
-      </c>
-      <c r="B91" s="5">
-        <v>804.54549999999995</v>
-      </c>
-      <c r="C91" s="6">
-        <v>804.36483999999996</v>
-      </c>
-      <c r="D91" s="6">
-        <v>804.35333000000003</v>
-      </c>
-      <c r="E91" s="6">
-        <v>804.38684000000001</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A92" s="4">
-        <v>91</v>
-      </c>
-      <c r="B92" s="5">
-        <v>804.53599999999994</v>
-      </c>
-      <c r="C92" s="6">
-        <v>804.36000999999999</v>
-      </c>
-      <c r="D92" s="6">
-        <v>804.34974</v>
-      </c>
-      <c r="E92" s="6">
-        <v>804.38505999999995</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A93" s="4">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5">
-        <v>804.52599999999995</v>
-      </c>
-      <c r="C93" s="6">
-        <v>804.35668999999996</v>
-      </c>
-      <c r="D93" s="6">
-        <v>804.34816999999998</v>
-      </c>
-      <c r="E93" s="6">
-        <v>804.38210000000004</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A94" s="4">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5">
-        <v>804.529</v>
-      </c>
-      <c r="C94" s="6">
-        <v>804.35643000000005</v>
-      </c>
-      <c r="D94" s="6">
-        <v>804.34862999999996</v>
-      </c>
-      <c r="E94" s="6">
-        <v>804.38828999999998</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A95" s="4">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5">
-        <v>804.50649999999996</v>
-      </c>
-      <c r="C95" s="6">
-        <v>804.32676000000004</v>
-      </c>
-      <c r="D95" s="6">
-        <v>804.33716000000004</v>
-      </c>
-      <c r="E95" s="6">
-        <v>804.36945000000003</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A96" s="4">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5">
-        <v>804.49900000000002</v>
-      </c>
-      <c r="C96" s="6">
-        <v>804.31394</v>
-      </c>
-      <c r="D96" s="6">
-        <v>804.31781999999998</v>
-      </c>
-      <c r="E96" s="6">
-        <v>804.34882000000005</v>
-      </c>
+      <c r="A96" s="3"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A97" s="4">
-        <v>96</v>
-      </c>
-      <c r="B97" s="5">
-        <v>804.46900000000005</v>
-      </c>
-      <c r="C97" s="6">
-        <v>804.28817000000004</v>
-      </c>
-      <c r="D97" s="6">
-        <v>804.29350999999997</v>
-      </c>
-      <c r="E97" s="6">
-        <v>804.32101</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A98" s="4">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5">
-        <v>804.44899999999996</v>
-      </c>
-      <c r="C98" s="6">
-        <v>804.26536999999996</v>
-      </c>
-      <c r="D98" s="6">
-        <v>804.27234999999996</v>
-      </c>
-      <c r="E98" s="6">
-        <v>804.29300000000001</v>
-      </c>
+      <c r="A98" s="3"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A99" s="4">
-        <v>98</v>
-      </c>
-      <c r="B99" s="5">
-        <v>804.43299999999999</v>
-      </c>
-      <c r="C99" s="6">
-        <v>804.24266999999998</v>
-      </c>
-      <c r="D99" s="6">
-        <v>804.25001999999995</v>
-      </c>
-      <c r="E99" s="6">
-        <v>804.27335000000005</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A100" s="4">
-        <v>99</v>
-      </c>
-      <c r="B100" s="5">
-        <v>804.41079999999999</v>
-      </c>
-      <c r="C100" s="6">
-        <v>804.22923000000003</v>
-      </c>
-      <c r="D100" s="6">
-        <v>804.23771999999997</v>
-      </c>
-      <c r="E100" s="6">
-        <v>804.25554</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A101" s="4">
-        <v>100</v>
-      </c>
-      <c r="B101" s="5">
-        <v>804.38850000000002</v>
-      </c>
-      <c r="C101" s="6">
-        <v>804.21484999999996</v>
-      </c>
-      <c r="D101" s="6">
-        <v>804.22239000000002</v>
-      </c>
-      <c r="E101" s="6">
-        <v>804.23078999999996</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A102" s="4">
-        <v>101</v>
-      </c>
-      <c r="B102" s="5">
-        <v>804.35299999999995</v>
-      </c>
-      <c r="C102" s="6">
-        <v>804.17560000000003</v>
-      </c>
-      <c r="D102" s="6">
-        <v>804.20114000000001</v>
-      </c>
-      <c r="E102" s="6">
-        <v>804.21303999999998</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A103" s="4">
-        <v>102</v>
-      </c>
-      <c r="B103" s="5">
-        <v>804.34</v>
-      </c>
-      <c r="C103" s="6">
-        <v>804.15918999999997</v>
-      </c>
-      <c r="D103" s="6">
-        <v>804.18264999999997</v>
-      </c>
-      <c r="E103" s="6">
-        <v>804.20384000000001</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1">
@@ -9279,4 +9112,2432 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D81B1-1412-42C6-89E7-E1F69CE7E861}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="7" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>685.35749999999996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>686.84199999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>686.82</v>
+      </c>
+      <c r="E2" s="2">
+        <v>686.77599999999995</v>
+      </c>
+      <c r="F2" s="2">
+        <v>686.81600000000003</v>
+      </c>
+      <c r="G2" s="2">
+        <v>686.79200000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
+        <v>685.3605</v>
+      </c>
+      <c r="C3" s="2">
+        <v>686.85799999999995</v>
+      </c>
+      <c r="D3" s="2">
+        <v>686.84</v>
+      </c>
+      <c r="E3" s="2">
+        <v>686.78800000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>686.827</v>
+      </c>
+      <c r="G3" s="2">
+        <v>686.81899999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>685.37350000000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>686.87300000000005</v>
+      </c>
+      <c r="D4" s="2">
+        <v>686.85400000000004</v>
+      </c>
+      <c r="E4" s="2">
+        <v>686.8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>686.83699999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>686.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>685.38149999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>686.87599999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>686.86400000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>686.8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>686.83900000000006</v>
+      </c>
+      <c r="G5" s="2">
+        <v>686.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>685.37800000000004</v>
+      </c>
+      <c r="C6" s="2">
+        <v>686.87699999999995</v>
+      </c>
+      <c r="D6" s="2">
+        <v>686.86199999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>686.81</v>
+      </c>
+      <c r="F6" s="2">
+        <v>686.84400000000005</v>
+      </c>
+      <c r="G6" s="2">
+        <v>686.83900000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>685.37099999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>686.87300000000005</v>
+      </c>
+      <c r="D7" s="2">
+        <v>686.85900000000004</v>
+      </c>
+      <c r="E7" s="2">
+        <v>686.8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>686.82799999999997</v>
+      </c>
+      <c r="G7" s="2">
+        <v>686.82799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>685.37199999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <v>686.87900000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>686.85199999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>686.79899999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>686.85500000000002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>686.83100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
+        <v>685.39350000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>686.89099999999996</v>
+      </c>
+      <c r="D9" s="2">
+        <v>686.87099999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>686.80899999999997</v>
+      </c>
+      <c r="F9" s="2">
+        <v>686.86599999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>686.84500000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>685.41750000000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>686.90599999999995</v>
+      </c>
+      <c r="D10" s="2">
+        <v>686.89700000000005</v>
+      </c>
+      <c r="E10" s="2">
+        <v>686.82500000000005</v>
+      </c>
+      <c r="F10" s="2">
+        <v>686.88300000000004</v>
+      </c>
+      <c r="G10" s="2">
+        <v>686.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>685.42700000000002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>686.91800000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>686.91700000000003</v>
+      </c>
+      <c r="E11" s="2">
+        <v>686.84100000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>686.89499999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>686.93600000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16">
+        <v>685.43349999999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>686.928</v>
+      </c>
+      <c r="D12" s="2">
+        <v>686.923</v>
+      </c>
+      <c r="E12" s="2">
+        <v>686.85799999999995</v>
+      </c>
+      <c r="F12" s="2">
+        <v>686.904</v>
+      </c>
+      <c r="G12" s="2">
+        <v>686.94299999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16">
+        <v>685.45050000000003</v>
+      </c>
+      <c r="C13" s="2">
+        <v>686.93600000000004</v>
+      </c>
+      <c r="D13" s="2">
+        <v>686.93100000000004</v>
+      </c>
+      <c r="E13" s="2">
+        <v>686.93399999999997</v>
+      </c>
+      <c r="F13" s="2">
+        <v>686.91099999999994</v>
+      </c>
+      <c r="G13" s="2">
+        <v>686.95100000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <v>685.45849999999996</v>
+      </c>
+      <c r="C14" s="2">
+        <v>686.96</v>
+      </c>
+      <c r="D14" s="2">
+        <v>686.93700000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>686.93700000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>686.93799999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>686.95299999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <v>685.45749999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>686.96199999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>686.94299999999998</v>
+      </c>
+      <c r="E15" s="2">
+        <v>686.94100000000003</v>
+      </c>
+      <c r="F15" s="2">
+        <v>686.952</v>
+      </c>
+      <c r="G15" s="2">
+        <v>686.96199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>685.44550000000004</v>
+      </c>
+      <c r="C16" s="2">
+        <v>686.95500000000004</v>
+      </c>
+      <c r="D16" s="2">
+        <v>686.93799999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>686.93700000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>686.94100000000003</v>
+      </c>
+      <c r="G16" s="2">
+        <v>686.96799999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>685.44299999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>686.94100000000003</v>
+      </c>
+      <c r="D17" s="2">
+        <v>686.93</v>
+      </c>
+      <c r="E17" s="2">
+        <v>686.93200000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>686.93399999999997</v>
+      </c>
+      <c r="G17" s="2">
+        <v>686.96600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>685.428</v>
+      </c>
+      <c r="C18" s="2">
+        <v>686.93600000000004</v>
+      </c>
+      <c r="D18" s="2">
+        <v>686.92700000000002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>686.92399999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <v>686.92700000000002</v>
+      </c>
+      <c r="G18" s="2">
+        <v>686.95699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>685.447</v>
+      </c>
+      <c r="C19" s="2">
+        <v>686.93799999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>686.92899999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>686.92600000000004</v>
+      </c>
+      <c r="F19" s="2">
+        <v>686.93399999999997</v>
+      </c>
+      <c r="G19" s="2">
+        <v>686.95899999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16">
+        <v>685.45150000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>686.94500000000005</v>
+      </c>
+      <c r="D20" s="2">
+        <v>686.93899999999996</v>
+      </c>
+      <c r="E20" s="2">
+        <v>686.92700000000002</v>
+      </c>
+      <c r="F20" s="2">
+        <v>686.93899999999996</v>
+      </c>
+      <c r="G20" s="2">
+        <v>686.976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>685.47749999999996</v>
+      </c>
+      <c r="C21" s="2">
+        <v>686.96400000000006</v>
+      </c>
+      <c r="D21" s="2">
+        <v>686.95899999999995</v>
+      </c>
+      <c r="E21" s="2">
+        <v>686.95500000000004</v>
+      </c>
+      <c r="F21" s="2">
+        <v>686.971</v>
+      </c>
+      <c r="G21" s="2">
+        <v>686.99099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>685.4905</v>
+      </c>
+      <c r="C22" s="2">
+        <v>686.97400000000005</v>
+      </c>
+      <c r="D22" s="2">
+        <v>686.97500000000002</v>
+      </c>
+      <c r="E22" s="2">
+        <v>686.96600000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>686.98599999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>687.005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>685.49649999999997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>686.98199999999997</v>
+      </c>
+      <c r="D23" s="2">
+        <v>686.98699999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>686.97400000000005</v>
+      </c>
+      <c r="F23" s="2">
+        <v>686.99900000000002</v>
+      </c>
+      <c r="G23" s="2">
+        <v>687.01599999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>685.51499999999999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>686.98900000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>686.99300000000005</v>
+      </c>
+      <c r="E24" s="2">
+        <v>686.98400000000004</v>
+      </c>
+      <c r="F24" s="2">
+        <v>687.00800000000004</v>
+      </c>
+      <c r="G24" s="2">
+        <v>687.02200000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16">
+        <v>685.51400000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>686.99099999999999</v>
+      </c>
+      <c r="D25" s="2">
+        <v>686.99900000000002</v>
+      </c>
+      <c r="E25" s="2">
+        <v>686.98299999999995</v>
+      </c>
+      <c r="F25" s="2">
+        <v>687.005</v>
+      </c>
+      <c r="G25" s="2">
+        <v>687.024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="15">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16">
+        <v>685.505</v>
+      </c>
+      <c r="C26" s="2">
+        <v>687.01099999999997</v>
+      </c>
+      <c r="D26" s="2">
+        <v>686.99900000000002</v>
+      </c>
+      <c r="E26" s="2">
+        <v>686.98</v>
+      </c>
+      <c r="F26" s="2">
+        <v>687.00099999999998</v>
+      </c>
+      <c r="G26" s="2">
+        <v>687.02099999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16">
+        <v>685.48249999999996</v>
+      </c>
+      <c r="C27" s="2">
+        <v>686.99800000000005</v>
+      </c>
+      <c r="D27" s="2">
+        <v>686.98299999999995</v>
+      </c>
+      <c r="E27" s="2">
+        <v>686.976</v>
+      </c>
+      <c r="F27" s="2">
+        <v>686.98400000000004</v>
+      </c>
+      <c r="G27" s="2">
+        <v>687.00699999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16">
+        <v>685.47400000000005</v>
+      </c>
+      <c r="C28" s="2">
+        <v>686.98500000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>686.97</v>
+      </c>
+      <c r="E28" s="2">
+        <v>686.96699999999998</v>
+      </c>
+      <c r="F28" s="2">
+        <v>686.96900000000005</v>
+      </c>
+      <c r="G28" s="2">
+        <v>686.99800000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16">
+        <v>685.46799999999996</v>
+      </c>
+      <c r="C29" s="2">
+        <v>686.98400000000004</v>
+      </c>
+      <c r="D29" s="2">
+        <v>686.96299999999997</v>
+      </c>
+      <c r="E29" s="2">
+        <v>686.95899999999995</v>
+      </c>
+      <c r="F29" s="2">
+        <v>686.96199999999999</v>
+      </c>
+      <c r="G29" s="2">
+        <v>686.99400000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16">
+        <v>685.47950000000003</v>
+      </c>
+      <c r="C30" s="2">
+        <v>686.98800000000006</v>
+      </c>
+      <c r="D30" s="2">
+        <v>686.96900000000005</v>
+      </c>
+      <c r="E30" s="2">
+        <v>686.96199999999999</v>
+      </c>
+      <c r="F30" s="2">
+        <v>686.96799999999996</v>
+      </c>
+      <c r="G30" s="2">
+        <v>686.99199999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16">
+        <v>685.49350000000004</v>
+      </c>
+      <c r="C31" s="2">
+        <v>687.00300000000004</v>
+      </c>
+      <c r="D31" s="2">
+        <v>686.98299999999995</v>
+      </c>
+      <c r="E31" s="2">
+        <v>686.971</v>
+      </c>
+      <c r="F31" s="2">
+        <v>686.98099999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>687.00400000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16">
+        <v>685.49249999999995</v>
+      </c>
+      <c r="C32" s="2">
+        <v>687.00199999999995</v>
+      </c>
+      <c r="D32" s="2">
+        <v>686.98400000000004</v>
+      </c>
+      <c r="E32" s="2">
+        <v>686.971</v>
+      </c>
+      <c r="F32" s="2">
+        <v>686.98199999999997</v>
+      </c>
+      <c r="G32" s="2">
+        <v>687.01400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16">
+        <v>685.51250000000005</v>
+      </c>
+      <c r="C33" s="2">
+        <v>687.01800000000003</v>
+      </c>
+      <c r="D33" s="2">
+        <v>687</v>
+      </c>
+      <c r="E33" s="2">
+        <v>686.98800000000006</v>
+      </c>
+      <c r="F33" s="2">
+        <v>686.99800000000005</v>
+      </c>
+      <c r="G33" s="2">
+        <v>687.03200000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16">
+        <v>685.52</v>
+      </c>
+      <c r="C34" s="2">
+        <v>687.03300000000002</v>
+      </c>
+      <c r="D34" s="2">
+        <v>687.01199999999994</v>
+      </c>
+      <c r="E34" s="2">
+        <v>687.00599999999997</v>
+      </c>
+      <c r="F34" s="2">
+        <v>687.005</v>
+      </c>
+      <c r="G34" s="2">
+        <v>687.03700000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16">
+        <v>685.53599999999994</v>
+      </c>
+      <c r="C35" s="2">
+        <v>687.03899999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>687.01900000000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>687.01300000000003</v>
+      </c>
+      <c r="F35" s="2">
+        <v>687.01700000000005</v>
+      </c>
+      <c r="G35" s="2">
+        <v>687.04499999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16">
+        <v>685.55</v>
+      </c>
+      <c r="C36" s="2">
+        <v>687.05899999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <v>687.03499999999997</v>
+      </c>
+      <c r="E36" s="2">
+        <v>687.03</v>
+      </c>
+      <c r="F36" s="2">
+        <v>687.04200000000003</v>
+      </c>
+      <c r="G36" s="2">
+        <v>687.06799999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16">
+        <v>685.56399999999996</v>
+      </c>
+      <c r="C37" s="2">
+        <v>687.06700000000001</v>
+      </c>
+      <c r="D37" s="2">
+        <v>687.048</v>
+      </c>
+      <c r="E37" s="2">
+        <v>687.03800000000001</v>
+      </c>
+      <c r="F37" s="2">
+        <v>687.04899999999998</v>
+      </c>
+      <c r="G37" s="2">
+        <v>687.08199999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16">
+        <v>685.57449999999994</v>
+      </c>
+      <c r="C38" s="2">
+        <v>687.07299999999998</v>
+      </c>
+      <c r="D38" s="2">
+        <v>687.04700000000003</v>
+      </c>
+      <c r="E38" s="2">
+        <v>687.04200000000003</v>
+      </c>
+      <c r="F38" s="2">
+        <v>687.05700000000002</v>
+      </c>
+      <c r="G38" s="2">
+        <v>687.08500000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16">
+        <v>685.57749999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>687.08</v>
+      </c>
+      <c r="D39" s="2">
+        <v>687.06100000000004</v>
+      </c>
+      <c r="E39" s="2">
+        <v>687.04600000000005</v>
+      </c>
+      <c r="F39" s="2">
+        <v>687.06</v>
+      </c>
+      <c r="G39" s="2">
+        <v>687.08699999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16">
+        <v>685.57899999999995</v>
+      </c>
+      <c r="C40" s="2">
+        <v>687.07799999999997</v>
+      </c>
+      <c r="D40" s="2">
+        <v>687.06899999999996</v>
+      </c>
+      <c r="E40" s="2">
+        <v>687.04600000000005</v>
+      </c>
+      <c r="F40" s="2">
+        <v>687.05499999999995</v>
+      </c>
+      <c r="G40" s="2">
+        <v>687.09299999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16">
+        <v>685.57349999999997</v>
+      </c>
+      <c r="C41" s="2">
+        <v>687.07500000000005</v>
+      </c>
+      <c r="D41" s="2">
+        <v>687.06100000000004</v>
+      </c>
+      <c r="E41" s="2">
+        <v>687.03499999999997</v>
+      </c>
+      <c r="F41" s="2">
+        <v>687.048</v>
+      </c>
+      <c r="G41" s="2">
+        <v>687.09100000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16">
+        <v>685.5625</v>
+      </c>
+      <c r="C42" s="2">
+        <v>687.05899999999997</v>
+      </c>
+      <c r="D42" s="2">
+        <v>687.04300000000001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>687.02499999999998</v>
+      </c>
+      <c r="F42" s="2">
+        <v>687.04200000000003</v>
+      </c>
+      <c r="G42" s="2">
+        <v>687.07299999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16">
+        <v>685.54849999999999</v>
+      </c>
+      <c r="C43" s="2">
+        <v>687.05399999999997</v>
+      </c>
+      <c r="D43" s="2">
+        <v>687.03800000000001</v>
+      </c>
+      <c r="E43" s="2">
+        <v>687.03</v>
+      </c>
+      <c r="F43" s="2">
+        <v>687.04600000000005</v>
+      </c>
+      <c r="G43" s="2">
+        <v>687.08100000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16">
+        <v>685.54750000000001</v>
+      </c>
+      <c r="C44" s="2">
+        <v>687.048</v>
+      </c>
+      <c r="D44" s="2">
+        <v>687.03399999999999</v>
+      </c>
+      <c r="E44" s="2">
+        <v>687.02800000000002</v>
+      </c>
+      <c r="F44" s="2">
+        <v>687.04</v>
+      </c>
+      <c r="G44" s="2">
+        <v>687.06600000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16">
+        <v>685.54700000000003</v>
+      </c>
+      <c r="C45" s="2">
+        <v>687.05</v>
+      </c>
+      <c r="D45" s="2">
+        <v>687.03800000000001</v>
+      </c>
+      <c r="E45" s="2">
+        <v>687.02099999999996</v>
+      </c>
+      <c r="F45" s="2">
+        <v>687.04399999999998</v>
+      </c>
+      <c r="G45" s="2">
+        <v>687.06700000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16">
+        <v>685.55600000000004</v>
+      </c>
+      <c r="C46" s="2">
+        <v>687.05600000000004</v>
+      </c>
+      <c r="D46" s="2">
+        <v>687.04100000000005</v>
+      </c>
+      <c r="E46" s="2">
+        <v>687.03200000000004</v>
+      </c>
+      <c r="F46" s="2">
+        <v>687.05</v>
+      </c>
+      <c r="G46" s="2">
+        <v>687.07299999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16">
+        <v>685.56399999999996</v>
+      </c>
+      <c r="C47" s="2">
+        <v>687.06399999999996</v>
+      </c>
+      <c r="D47" s="2">
+        <v>687.04700000000003</v>
+      </c>
+      <c r="E47" s="2">
+        <v>687.03</v>
+      </c>
+      <c r="F47" s="2">
+        <v>687.05799999999999</v>
+      </c>
+      <c r="G47" s="2">
+        <v>687.07399999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16">
+        <v>685.5675</v>
+      </c>
+      <c r="C48" s="2">
+        <v>687.07</v>
+      </c>
+      <c r="D48" s="2">
+        <v>687.05399999999997</v>
+      </c>
+      <c r="E48" s="2">
+        <v>687.04200000000003</v>
+      </c>
+      <c r="F48" s="2">
+        <v>687.06299999999999</v>
+      </c>
+      <c r="G48" s="2">
+        <v>687.08500000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16">
+        <v>685.57500000000005</v>
+      </c>
+      <c r="C49" s="2">
+        <v>687.07299999999998</v>
+      </c>
+      <c r="D49" s="2">
+        <v>687.06</v>
+      </c>
+      <c r="E49" s="2">
+        <v>687.048</v>
+      </c>
+      <c r="F49" s="2">
+        <v>687.06700000000001</v>
+      </c>
+      <c r="G49" s="2">
+        <v>687.09100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16">
+        <v>685.57950000000005</v>
+      </c>
+      <c r="C50" s="2">
+        <v>687.08600000000001</v>
+      </c>
+      <c r="D50" s="2">
+        <v>687.05600000000004</v>
+      </c>
+      <c r="E50" s="2">
+        <v>687.04399999999998</v>
+      </c>
+      <c r="F50" s="2">
+        <v>687.06500000000005</v>
+      </c>
+      <c r="G50" s="2">
+        <v>687.09900000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16">
+        <v>685.60050000000001</v>
+      </c>
+      <c r="C51" s="2">
+        <v>687.09699999999998</v>
+      </c>
+      <c r="D51" s="2">
+        <v>687.072</v>
+      </c>
+      <c r="E51" s="2">
+        <v>687.053</v>
+      </c>
+      <c r="F51" s="2">
+        <v>687.077</v>
+      </c>
+      <c r="G51" s="2">
+        <v>687.11199999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16">
+        <v>685.62450000000001</v>
+      </c>
+      <c r="C52" s="2">
+        <v>687.10500000000002</v>
+      </c>
+      <c r="D52" s="2">
+        <v>687.07899999999995</v>
+      </c>
+      <c r="E52" s="2">
+        <v>687.06399999999996</v>
+      </c>
+      <c r="F52" s="2">
+        <v>687.08799999999997</v>
+      </c>
+      <c r="G52" s="2">
+        <v>687.12099999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F49F3E-4A7D-4028-B0AB-919205DD2DF3}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="7" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>685.35749999999996</v>
+      </c>
+      <c r="C2" s="17">
+        <v>686.87300000000005</v>
+      </c>
+      <c r="D2" s="18">
+        <v>686.75199999999995</v>
+      </c>
+      <c r="E2" s="12">
+        <v>686.85599999999999</v>
+      </c>
+      <c r="F2" s="18">
+        <v>686.803</v>
+      </c>
+      <c r="G2" s="18">
+        <v>686.83399999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>685.3605</v>
+      </c>
+      <c r="C3" s="17">
+        <v>686.88400000000001</v>
+      </c>
+      <c r="D3" s="18">
+        <v>686.75699999999995</v>
+      </c>
+      <c r="E3" s="12">
+        <v>686.86699999999996</v>
+      </c>
+      <c r="F3" s="18">
+        <v>686.81600000000003</v>
+      </c>
+      <c r="G3" s="18">
+        <v>686.846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>685.37350000000004</v>
+      </c>
+      <c r="C4" s="17">
+        <v>686.89300000000003</v>
+      </c>
+      <c r="D4" s="18">
+        <v>686.78399999999999</v>
+      </c>
+      <c r="E4" s="12">
+        <v>686.88</v>
+      </c>
+      <c r="F4" s="18">
+        <v>686.83</v>
+      </c>
+      <c r="G4" s="18">
+        <v>686.86500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>685.38149999999996</v>
+      </c>
+      <c r="C5" s="17">
+        <v>686.91700000000003</v>
+      </c>
+      <c r="D5" s="18">
+        <v>686.79</v>
+      </c>
+      <c r="E5" s="12">
+        <v>686.88400000000001</v>
+      </c>
+      <c r="F5" s="18">
+        <v>686.84</v>
+      </c>
+      <c r="G5" s="18">
+        <v>686.88300000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>685.37800000000004</v>
+      </c>
+      <c r="C6" s="17">
+        <v>686.91600000000005</v>
+      </c>
+      <c r="D6" s="18">
+        <v>686.78599999999994</v>
+      </c>
+      <c r="E6" s="12">
+        <v>686.88099999999997</v>
+      </c>
+      <c r="F6" s="18">
+        <v>686.846</v>
+      </c>
+      <c r="G6" s="18">
+        <v>686.88300000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>685.37099999999998</v>
+      </c>
+      <c r="C7" s="17">
+        <v>686.91899999999998</v>
+      </c>
+      <c r="D7" s="18">
+        <v>686.78899999999999</v>
+      </c>
+      <c r="E7" s="12">
+        <v>686.88300000000004</v>
+      </c>
+      <c r="F7" s="18">
+        <v>686.84500000000003</v>
+      </c>
+      <c r="G7" s="18">
+        <v>686.88699999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>685.37199999999996</v>
+      </c>
+      <c r="C8" s="17">
+        <v>686.91399999999999</v>
+      </c>
+      <c r="D8" s="18">
+        <v>686.78399999999999</v>
+      </c>
+      <c r="E8" s="12">
+        <v>686.88099999999997</v>
+      </c>
+      <c r="F8" s="18">
+        <v>686.846</v>
+      </c>
+      <c r="G8" s="18">
+        <v>686.88499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>685.39350000000002</v>
+      </c>
+      <c r="C9" s="17">
+        <v>686.923</v>
+      </c>
+      <c r="D9" s="18">
+        <v>686.79100000000005</v>
+      </c>
+      <c r="E9" s="12">
+        <v>686.88499999999999</v>
+      </c>
+      <c r="F9" s="18">
+        <v>686.85400000000004</v>
+      </c>
+      <c r="G9" s="18">
+        <v>686.88800000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>685.41750000000002</v>
+      </c>
+      <c r="C10" s="17">
+        <v>686.93899999999996</v>
+      </c>
+      <c r="D10" s="18">
+        <v>686.80799999999999</v>
+      </c>
+      <c r="E10" s="12">
+        <v>686.9</v>
+      </c>
+      <c r="F10" s="18">
+        <v>686.87300000000005</v>
+      </c>
+      <c r="G10" s="18">
+        <v>686.90099999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>685.42700000000002</v>
+      </c>
+      <c r="C11" s="17">
+        <v>686.95899999999995</v>
+      </c>
+      <c r="D11" s="18">
+        <v>686.82899999999995</v>
+      </c>
+      <c r="E11" s="12">
+        <v>686.923</v>
+      </c>
+      <c r="F11" s="18">
+        <v>686.89499999999998</v>
+      </c>
+      <c r="G11" s="18">
+        <v>686.92399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>685.43349999999998</v>
+      </c>
+      <c r="C12" s="17">
+        <v>686.97500000000002</v>
+      </c>
+      <c r="D12" s="18">
+        <v>686.84</v>
+      </c>
+      <c r="E12" s="12">
+        <v>686.93700000000001</v>
+      </c>
+      <c r="F12" s="18">
+        <v>686.90899999999999</v>
+      </c>
+      <c r="G12" s="18">
+        <v>686.94299999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>685.45050000000003</v>
+      </c>
+      <c r="C13" s="17">
+        <v>686.98299999999995</v>
+      </c>
+      <c r="D13" s="18">
+        <v>686.87</v>
+      </c>
+      <c r="E13" s="12">
+        <v>686.94600000000003</v>
+      </c>
+      <c r="F13" s="18">
+        <v>686.92</v>
+      </c>
+      <c r="G13" s="18">
+        <v>686.95399999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>685.45849999999996</v>
+      </c>
+      <c r="C14" s="17">
+        <v>686.98900000000003</v>
+      </c>
+      <c r="D14" s="18">
+        <v>686.875</v>
+      </c>
+      <c r="E14" s="12">
+        <v>686.952</v>
+      </c>
+      <c r="F14" s="18">
+        <v>686.92499999999995</v>
+      </c>
+      <c r="G14" s="18">
+        <v>686.96500000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>685.45749999999998</v>
+      </c>
+      <c r="C15" s="17">
+        <v>686.98500000000001</v>
+      </c>
+      <c r="D15" s="18">
+        <v>686.87199999999996</v>
+      </c>
+      <c r="E15" s="12">
+        <v>686.947</v>
+      </c>
+      <c r="F15" s="18">
+        <v>686.92700000000002</v>
+      </c>
+      <c r="G15" s="18">
+        <v>687.02200000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>685.44550000000004</v>
+      </c>
+      <c r="C16" s="17">
+        <v>686.98299999999995</v>
+      </c>
+      <c r="D16" s="18">
+        <v>686.87</v>
+      </c>
+      <c r="E16" s="12">
+        <v>686.94600000000003</v>
+      </c>
+      <c r="F16" s="18">
+        <v>686.92899999999997</v>
+      </c>
+      <c r="G16" s="18">
+        <v>687.02099999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>685.44299999999998</v>
+      </c>
+      <c r="C17" s="17">
+        <v>686.97400000000005</v>
+      </c>
+      <c r="D17" s="18">
+        <v>686.86199999999997</v>
+      </c>
+      <c r="E17" s="12">
+        <v>686.93899999999996</v>
+      </c>
+      <c r="F17" s="18">
+        <v>686.923</v>
+      </c>
+      <c r="G17" s="18">
+        <v>687.01499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>685.428</v>
+      </c>
+      <c r="C18" s="17">
+        <v>686.96799999999996</v>
+      </c>
+      <c r="D18" s="18">
+        <v>686.85400000000004</v>
+      </c>
+      <c r="E18" s="12">
+        <v>686.92899999999997</v>
+      </c>
+      <c r="F18" s="18">
+        <v>686.90899999999999</v>
+      </c>
+      <c r="G18" s="18">
+        <v>686.99699999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>685.447</v>
+      </c>
+      <c r="C19" s="17">
+        <v>686.97299999999996</v>
+      </c>
+      <c r="D19" s="18">
+        <v>686.86</v>
+      </c>
+      <c r="E19" s="12">
+        <v>686.93299999999999</v>
+      </c>
+      <c r="F19" s="18">
+        <v>686.91</v>
+      </c>
+      <c r="G19" s="18">
+        <v>686.995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>685.45150000000001</v>
+      </c>
+      <c r="C20" s="17">
+        <v>686.976</v>
+      </c>
+      <c r="D20" s="18">
+        <v>686.86099999999999</v>
+      </c>
+      <c r="E20" s="12">
+        <v>686.947</v>
+      </c>
+      <c r="F20" s="18">
+        <v>686.91700000000003</v>
+      </c>
+      <c r="G20" s="18">
+        <v>687.005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>685.47749999999996</v>
+      </c>
+      <c r="C21" s="17">
+        <v>687.00800000000004</v>
+      </c>
+      <c r="D21" s="18">
+        <v>686.88900000000001</v>
+      </c>
+      <c r="E21" s="12">
+        <v>686.96299999999997</v>
+      </c>
+      <c r="F21" s="18">
+        <v>686.93700000000001</v>
+      </c>
+      <c r="G21" s="18">
+        <v>687.02700000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>685.4905</v>
+      </c>
+      <c r="C22" s="17">
+        <v>687.02599999999995</v>
+      </c>
+      <c r="D22" s="18">
+        <v>686.90700000000004</v>
+      </c>
+      <c r="E22" s="12">
+        <v>686.98299999999995</v>
+      </c>
+      <c r="F22" s="18">
+        <v>686.95600000000002</v>
+      </c>
+      <c r="G22" s="18">
+        <v>687.05499999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>685.49649999999997</v>
+      </c>
+      <c r="C23" s="17">
+        <v>687.04100000000005</v>
+      </c>
+      <c r="D23" s="18">
+        <v>686.91800000000001</v>
+      </c>
+      <c r="E23" s="12">
+        <v>686.99599999999998</v>
+      </c>
+      <c r="F23" s="18">
+        <v>686.96799999999996</v>
+      </c>
+      <c r="G23" s="18">
+        <v>687.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>685.51499999999999</v>
+      </c>
+      <c r="C24" s="17">
+        <v>687.04899999999998</v>
+      </c>
+      <c r="D24" s="18">
+        <v>686.92499999999995</v>
+      </c>
+      <c r="E24" s="12">
+        <v>687.00400000000002</v>
+      </c>
+      <c r="F24" s="18">
+        <v>686.98400000000004</v>
+      </c>
+      <c r="G24" s="18">
+        <v>687.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>685.51400000000001</v>
+      </c>
+      <c r="C25" s="17">
+        <v>687.04899999999998</v>
+      </c>
+      <c r="D25" s="18">
+        <v>686.92399999999998</v>
+      </c>
+      <c r="E25" s="12">
+        <v>687.00300000000004</v>
+      </c>
+      <c r="F25" s="18">
+        <v>686.98599999999999</v>
+      </c>
+      <c r="G25" s="18">
+        <v>687.077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>685.505</v>
+      </c>
+      <c r="C26" s="17">
+        <v>687.04399999999998</v>
+      </c>
+      <c r="D26" s="18">
+        <v>686.92100000000005</v>
+      </c>
+      <c r="E26" s="12">
+        <v>686.99199999999996</v>
+      </c>
+      <c r="F26" s="18">
+        <v>686.98299999999995</v>
+      </c>
+      <c r="G26" s="18">
+        <v>687.072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>685.48249999999996</v>
+      </c>
+      <c r="C27" s="17">
+        <v>687.03499999999997</v>
+      </c>
+      <c r="D27" s="18">
+        <v>686.90599999999995</v>
+      </c>
+      <c r="E27" s="12">
+        <v>686.98299999999995</v>
+      </c>
+      <c r="F27" s="18">
+        <v>686.96900000000005</v>
+      </c>
+      <c r="G27" s="18">
+        <v>687.06100000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>685.47400000000005</v>
+      </c>
+      <c r="C28" s="17">
+        <v>687.01900000000001</v>
+      </c>
+      <c r="D28" s="18">
+        <v>686.89499999999998</v>
+      </c>
+      <c r="E28" s="12">
+        <v>686.96900000000005</v>
+      </c>
+      <c r="F28" s="18">
+        <v>686.95699999999999</v>
+      </c>
+      <c r="G28" s="18">
+        <v>687.05100000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>685.46799999999996</v>
+      </c>
+      <c r="C29" s="17">
+        <v>687.00800000000004</v>
+      </c>
+      <c r="D29" s="18">
+        <v>686.89</v>
+      </c>
+      <c r="E29" s="12">
+        <v>686.96500000000003</v>
+      </c>
+      <c r="F29" s="18">
+        <v>686.95100000000002</v>
+      </c>
+      <c r="G29" s="18">
+        <v>687.04399999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>685.47950000000003</v>
+      </c>
+      <c r="C30" s="17">
+        <v>687.00800000000004</v>
+      </c>
+      <c r="D30" s="18">
+        <v>686.89200000000005</v>
+      </c>
+      <c r="E30" s="12">
+        <v>686.96900000000005</v>
+      </c>
+      <c r="F30" s="18">
+        <v>686.952</v>
+      </c>
+      <c r="G30" s="18">
+        <v>687.04600000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>685.49350000000004</v>
+      </c>
+      <c r="C31" s="17">
+        <v>687.024</v>
+      </c>
+      <c r="D31" s="18">
+        <v>686.9</v>
+      </c>
+      <c r="E31" s="12">
+        <v>686.976</v>
+      </c>
+      <c r="F31" s="18">
+        <v>686.96600000000001</v>
+      </c>
+      <c r="G31" s="18">
+        <v>687.05399999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>685.49249999999995</v>
+      </c>
+      <c r="C32" s="17">
+        <v>687.04300000000001</v>
+      </c>
+      <c r="D32" s="18">
+        <v>686.91300000000001</v>
+      </c>
+      <c r="E32" s="12">
+        <v>686.99199999999996</v>
+      </c>
+      <c r="F32" s="18">
+        <v>686.97500000000002</v>
+      </c>
+      <c r="G32" s="18">
+        <v>687.06799999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>685.51250000000005</v>
+      </c>
+      <c r="C33" s="17">
+        <v>687.05700000000002</v>
+      </c>
+      <c r="D33" s="18">
+        <v>686.92499999999995</v>
+      </c>
+      <c r="E33" s="12">
+        <v>687.00099999999998</v>
+      </c>
+      <c r="F33" s="18">
+        <v>686.99</v>
+      </c>
+      <c r="G33" s="18">
+        <v>687.08100000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>685.52</v>
+      </c>
+      <c r="C34" s="17">
+        <v>687.06799999999998</v>
+      </c>
+      <c r="D34" s="18">
+        <v>686.94100000000003</v>
+      </c>
+      <c r="E34" s="12">
+        <v>687.01599999999996</v>
+      </c>
+      <c r="F34" s="18">
+        <v>686.97900000000004</v>
+      </c>
+      <c r="G34" s="18">
+        <v>687.09500000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>685.53599999999994</v>
+      </c>
+      <c r="C35" s="17">
+        <v>687.07500000000005</v>
+      </c>
+      <c r="D35" s="18">
+        <v>686.94899999999996</v>
+      </c>
+      <c r="E35" s="12">
+        <v>687.02800000000002</v>
+      </c>
+      <c r="F35" s="18">
+        <v>686.99099999999999</v>
+      </c>
+      <c r="G35" s="18">
+        <v>687.10500000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>685.55</v>
+      </c>
+      <c r="C36" s="17">
+        <v>687.08600000000001</v>
+      </c>
+      <c r="D36" s="18">
+        <v>686.96400000000006</v>
+      </c>
+      <c r="E36" s="12">
+        <v>687.04</v>
+      </c>
+      <c r="F36" s="18">
+        <v>687.00400000000002</v>
+      </c>
+      <c r="G36" s="18">
+        <v>687.11699999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>685.56399999999996</v>
+      </c>
+      <c r="C37" s="17">
+        <v>687.10299999999995</v>
+      </c>
+      <c r="D37" s="18">
+        <v>686.97299999999996</v>
+      </c>
+      <c r="E37" s="12">
+        <v>687.05200000000002</v>
+      </c>
+      <c r="F37" s="18">
+        <v>687.01499999999999</v>
+      </c>
+      <c r="G37" s="18">
+        <v>687.13400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>685.57449999999994</v>
+      </c>
+      <c r="C38" s="17">
+        <v>687.10400000000004</v>
+      </c>
+      <c r="D38" s="18">
+        <v>686.97400000000005</v>
+      </c>
+      <c r="E38" s="12">
+        <v>687.06</v>
+      </c>
+      <c r="F38" s="18">
+        <v>687.01800000000003</v>
+      </c>
+      <c r="G38" s="18">
+        <v>687.14700000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>685.57749999999999</v>
+      </c>
+      <c r="C39" s="17">
+        <v>687.11400000000003</v>
+      </c>
+      <c r="D39" s="18">
+        <v>686.98699999999997</v>
+      </c>
+      <c r="E39" s="12">
+        <v>687.06899999999996</v>
+      </c>
+      <c r="F39" s="18">
+        <v>687.02300000000002</v>
+      </c>
+      <c r="G39" s="18">
+        <v>687.15300000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>685.57899999999995</v>
+      </c>
+      <c r="C40" s="17">
+        <v>687.11199999999997</v>
+      </c>
+      <c r="D40" s="18">
+        <v>687</v>
+      </c>
+      <c r="E40" s="12">
+        <v>687.07600000000002</v>
+      </c>
+      <c r="F40" s="18">
+        <v>687.01599999999996</v>
+      </c>
+      <c r="G40" s="18">
+        <v>687.14800000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>685.57349999999997</v>
+      </c>
+      <c r="C41" s="17">
+        <v>687.11099999999999</v>
+      </c>
+      <c r="D41" s="18">
+        <v>686.99599999999998</v>
+      </c>
+      <c r="E41" s="12">
+        <v>687.07100000000003</v>
+      </c>
+      <c r="F41" s="18">
+        <v>687.01</v>
+      </c>
+      <c r="G41" s="18">
+        <v>687.14200000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>685.5625</v>
+      </c>
+      <c r="C42" s="17">
+        <v>687.1</v>
+      </c>
+      <c r="D42" s="18">
+        <v>686.98500000000001</v>
+      </c>
+      <c r="E42" s="12">
+        <v>687.06299999999999</v>
+      </c>
+      <c r="F42" s="18">
+        <v>686.99099999999999</v>
+      </c>
+      <c r="G42" s="18">
+        <v>687.12400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>685.54849999999999</v>
+      </c>
+      <c r="C43" s="17">
+        <v>687.09299999999996</v>
+      </c>
+      <c r="D43" s="18">
+        <v>686.97799999999995</v>
+      </c>
+      <c r="E43" s="12">
+        <v>687.05799999999999</v>
+      </c>
+      <c r="F43" s="18">
+        <v>686.98400000000004</v>
+      </c>
+      <c r="G43" s="18">
+        <v>687.11800000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>685.54750000000001</v>
+      </c>
+      <c r="C44" s="17">
+        <v>687.08799999999997</v>
+      </c>
+      <c r="D44" s="18">
+        <v>686.97400000000005</v>
+      </c>
+      <c r="E44" s="12">
+        <v>687.05600000000004</v>
+      </c>
+      <c r="F44" s="18">
+        <v>686.99599999999998</v>
+      </c>
+      <c r="G44" s="18">
+        <v>687.11500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>685.54700000000003</v>
+      </c>
+      <c r="C45" s="17">
+        <v>687.08399999999995</v>
+      </c>
+      <c r="D45" s="18">
+        <v>686.97299999999996</v>
+      </c>
+      <c r="E45" s="12">
+        <v>687.05600000000004</v>
+      </c>
+      <c r="F45" s="18">
+        <v>686.99</v>
+      </c>
+      <c r="G45" s="18">
+        <v>687.10900000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <v>685.55600000000004</v>
+      </c>
+      <c r="C46" s="17">
+        <v>687.096</v>
+      </c>
+      <c r="D46" s="18">
+        <v>686.98</v>
+      </c>
+      <c r="E46" s="12">
+        <v>687.06299999999999</v>
+      </c>
+      <c r="F46" s="18">
+        <v>687.00099999999998</v>
+      </c>
+      <c r="G46" s="18">
+        <v>687.12800000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>685.56399999999996</v>
+      </c>
+      <c r="C47" s="17">
+        <v>687.11099999999999</v>
+      </c>
+      <c r="D47" s="18">
+        <v>686.99800000000005</v>
+      </c>
+      <c r="E47" s="12">
+        <v>687.072</v>
+      </c>
+      <c r="F47" s="18">
+        <v>687.00900000000001</v>
+      </c>
+      <c r="G47" s="18">
+        <v>687.13699999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>685.5675</v>
+      </c>
+      <c r="C48" s="17">
+        <v>687.10799999999995</v>
+      </c>
+      <c r="D48" s="18">
+        <v>687.00199999999995</v>
+      </c>
+      <c r="E48" s="12">
+        <v>687.07899999999995</v>
+      </c>
+      <c r="F48" s="18">
+        <v>687.01599999999996</v>
+      </c>
+      <c r="G48" s="18">
+        <v>687.14300000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>685.57500000000005</v>
+      </c>
+      <c r="C49" s="17">
+        <v>687.11800000000005</v>
+      </c>
+      <c r="D49" s="18">
+        <v>687.00300000000004</v>
+      </c>
+      <c r="E49" s="12">
+        <v>687.08500000000004</v>
+      </c>
+      <c r="F49" s="18">
+        <v>687.024</v>
+      </c>
+      <c r="G49" s="18">
+        <v>687.14800000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <v>685.57950000000005</v>
+      </c>
+      <c r="C50" s="17">
+        <v>687.11699999999996</v>
+      </c>
+      <c r="D50" s="18">
+        <v>686.99900000000002</v>
+      </c>
+      <c r="E50" s="12">
+        <v>687.08100000000002</v>
+      </c>
+      <c r="F50" s="18">
+        <v>687.02700000000004</v>
+      </c>
+      <c r="G50" s="18">
+        <v>687.149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>685.60050000000001</v>
+      </c>
+      <c r="C51" s="17">
+        <v>687.12900000000002</v>
+      </c>
+      <c r="D51" s="18">
+        <v>687.00900000000001</v>
+      </c>
+      <c r="E51" s="12">
+        <v>687.09199999999998</v>
+      </c>
+      <c r="F51" s="18">
+        <v>687.03700000000003</v>
+      </c>
+      <c r="G51" s="18">
+        <v>687.15899999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <v>685.62450000000001</v>
+      </c>
+      <c r="C52" s="17">
+        <v>687.13800000000003</v>
+      </c>
+      <c r="D52" s="18">
+        <v>687.02599999999995</v>
+      </c>
+      <c r="E52" s="12">
+        <v>687.10699999999997</v>
+      </c>
+      <c r="F52" s="18">
+        <v>687.05399999999997</v>
+      </c>
+      <c r="G52" s="18">
+        <v>687.17100000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/diferenca_altimetria_clean.xlsx
+++ b/diferenca_altimetria_clean.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobat\Documents\GitHub\Artigo-RTX-Moto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A09053-B12D-404F-ABA4-4DAE26DFDA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50754212-56A6-4098-A092-FFF2F228AD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
+    <workbookView xWindow="-20520" yWindow="2160" windowWidth="20640" windowHeight="11160" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
   </bookViews>
   <sheets>
-    <sheet name="G_V1IDA" sheetId="1" r:id="rId1"/>
-    <sheet name="G_V2IDA" sheetId="2" r:id="rId2"/>
-    <sheet name="G_V3IDA" sheetId="3" r:id="rId3"/>
+    <sheet name="G1xG2xG3xM1xM2xM3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,23 +33,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NIV</t>
   </si>
   <si>
     <t>PT</t>
   </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -79,12 +94,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -132,19 +141,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -156,9 +156,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -168,14 +165,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,11 +380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F4EE44-6091-4A63-88C2-C87744478CAA}">
-  <dimension ref="A1:G990"/>
+  <dimension ref="A1:H990"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B52"/>
+      <selection pane="topRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -408,1608 +397,1764 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="D1" s="6">
+      <c r="B2" s="7">
+        <v>685.35749999999996</v>
+      </c>
+      <c r="C2" s="2">
+        <v>686.81299999999987</v>
+      </c>
+      <c r="D2" s="2">
+        <v>686.81319999999982</v>
+      </c>
+      <c r="E2" s="2">
+        <v>686.82959999999991</v>
+      </c>
+      <c r="F2" s="2">
+        <v>687.3128999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>687.30072499999994</v>
+      </c>
+      <c r="H2" s="5">
+        <v>687.32210000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="E1" s="6">
+      <c r="B3" s="7">
+        <v>685.3605</v>
+      </c>
+      <c r="C3" s="2">
+        <v>686.83079999999995</v>
+      </c>
+      <c r="D3" s="2">
+        <v>686.82690000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>686.8411000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>687.32619999999986</v>
+      </c>
+      <c r="G3" s="2">
+        <v>687.31927500000006</v>
+      </c>
+      <c r="H3" s="5">
+        <v>687.34629999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="F1" s="6">
+      <c r="B4" s="7">
+        <v>685.37350000000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>686.83720000000005</v>
+      </c>
+      <c r="D4" s="2">
+        <v>686.83969999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>686.85509999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>687.33720000000017</v>
+      </c>
+      <c r="G4" s="2">
+        <v>687.33045000000016</v>
+      </c>
+      <c r="H4" s="5">
+        <v>687.35020000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="G1" s="8">
+      <c r="B5" s="7">
+        <v>685.38149999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>686.84360000000004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>686.84500000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>686.8601000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>687.34809999999993</v>
+      </c>
+      <c r="G5" s="2">
+        <v>687.33870000000002</v>
+      </c>
+      <c r="H5" s="5">
+        <v>687.3572999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>685.35749999999996</v>
-      </c>
-      <c r="C2" s="2">
-        <v>686.851</v>
-      </c>
-      <c r="D2" s="2">
-        <v>686.75199999999995</v>
-      </c>
-      <c r="E2" s="2">
-        <v>686.83199999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>686.82</v>
-      </c>
-      <c r="G2" s="2">
-        <v>686.80799999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>685.3605</v>
-      </c>
-      <c r="C3" s="2">
-        <v>686.86699999999996</v>
-      </c>
-      <c r="D3" s="2">
-        <v>686.76099999999997</v>
-      </c>
-      <c r="E3" s="2">
-        <v>686.84199999999998</v>
-      </c>
-      <c r="F3" s="2">
-        <v>686.83100000000002</v>
-      </c>
-      <c r="G3" s="2">
-        <v>686.84100000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>685.37350000000004</v>
-      </c>
-      <c r="C4" s="2">
-        <v>686.88099999999997</v>
-      </c>
-      <c r="D4" s="2">
-        <v>686.77800000000002</v>
-      </c>
-      <c r="E4" s="2">
-        <v>686.86</v>
-      </c>
-      <c r="F4" s="2">
-        <v>686.846</v>
-      </c>
-      <c r="G4" s="2">
-        <v>686.85799999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>685.38149999999996</v>
-      </c>
-      <c r="C5" s="2">
-        <v>686.88099999999997</v>
-      </c>
-      <c r="D5" s="2">
-        <v>686.78099999999995</v>
-      </c>
-      <c r="E5" s="2">
-        <v>686.85799999999995</v>
-      </c>
-      <c r="F5" s="2">
-        <v>686.84299999999996</v>
-      </c>
-      <c r="G5" s="2">
-        <v>686.85400000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>685.37800000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>686.88800000000003</v>
+        <v>686.8429000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>686.79399999999998</v>
+        <v>686.84640000000002</v>
       </c>
       <c r="E6" s="2">
-        <v>686.87099999999998</v>
+        <v>686.85790000000009</v>
       </c>
       <c r="F6" s="2">
-        <v>686.87</v>
+        <v>687.34349999999995</v>
       </c>
       <c r="G6" s="2">
-        <v>686.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A7" s="9">
+        <v>687.33922499999994</v>
+      </c>
+      <c r="H6" s="5">
+        <v>687.35610000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>685.37099999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>686.88900000000001</v>
+        <v>686.84260000000006</v>
       </c>
       <c r="D7" s="2">
-        <v>686.78399999999999</v>
+        <v>686.84390000000008</v>
       </c>
       <c r="E7" s="2">
-        <v>686.86199999999997</v>
+        <v>686.86120000000005</v>
       </c>
       <c r="F7" s="2">
-        <v>686.86199999999997</v>
+        <v>687.34899999999993</v>
       </c>
       <c r="G7" s="2">
-        <v>686.84900000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A8" s="9">
+        <v>687.33057500000007</v>
+      </c>
+      <c r="H7" s="5">
+        <v>687.34789999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>685.37199999999996</v>
       </c>
       <c r="C8" s="2">
-        <v>686.89200000000005</v>
+        <v>686.85149999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>686.79100000000005</v>
+        <v>686.85290000000009</v>
       </c>
       <c r="E8" s="2">
-        <v>686.86900000000003</v>
+        <v>686.86360000000002</v>
       </c>
       <c r="F8" s="2">
-        <v>686.86500000000001</v>
+        <v>687.34749999999997</v>
       </c>
       <c r="G8" s="2">
-        <v>686.86400000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="9">
+        <v>687.3365</v>
+      </c>
+      <c r="H8" s="5">
+        <v>687.35310000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>685.39350000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>686.90700000000004</v>
+        <v>686.86460000000011</v>
       </c>
       <c r="D9" s="2">
-        <v>686.80100000000004</v>
+        <v>686.86710000000005</v>
       </c>
       <c r="E9" s="2">
-        <v>686.88</v>
+        <v>686.87260000000003</v>
       </c>
       <c r="F9" s="2">
-        <v>686.87599999999998</v>
+        <v>687.36320000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>686.88300000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A10" s="9">
+        <v>687.35425000000009</v>
+      </c>
+      <c r="H9" s="5">
+        <v>687.36579999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>685.41750000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>686.91600000000005</v>
+        <v>686.88580000000002</v>
       </c>
       <c r="D10" s="2">
-        <v>686.81700000000001</v>
+        <v>686.8889999999999</v>
       </c>
       <c r="E10" s="2">
-        <v>686.89</v>
+        <v>686.88760000000002</v>
       </c>
       <c r="F10" s="2">
-        <v>686.89200000000005</v>
+        <v>687.38550000000009</v>
       </c>
       <c r="G10" s="2">
-        <v>686.904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A11" s="9">
+        <v>687.37555000000009</v>
+      </c>
+      <c r="H10" s="5">
+        <v>687.3830999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>685.42700000000002</v>
       </c>
       <c r="C11" s="2">
-        <v>686.94299999999998</v>
+        <v>686.89959999999996</v>
       </c>
       <c r="D11" s="2">
-        <v>686.83</v>
+        <v>686.90520000000004</v>
       </c>
       <c r="E11" s="2">
-        <v>686.9</v>
+        <v>686.90530000000001</v>
       </c>
       <c r="F11" s="2">
-        <v>686.90300000000002</v>
+        <v>687.39409999999998</v>
       </c>
       <c r="G11" s="2">
-        <v>686.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A12" s="9">
+        <v>687.38819999999998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>687.40440000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>685.43349999999998</v>
       </c>
       <c r="C12" s="2">
-        <v>686.95</v>
+        <v>686.90710000000001</v>
       </c>
       <c r="D12" s="2">
-        <v>686.83500000000004</v>
+        <v>686.91430000000003</v>
       </c>
       <c r="E12" s="2">
-        <v>686.91099999999994</v>
+        <v>686.9190000000001</v>
       </c>
       <c r="F12" s="2">
-        <v>686.92899999999997</v>
+        <v>687.40819999999997</v>
       </c>
       <c r="G12" s="2">
-        <v>686.91499999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A13" s="9">
+        <v>687.40124999999989</v>
+      </c>
+      <c r="H12" s="5">
+        <v>687.4233999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>685.45050000000003</v>
       </c>
       <c r="C13" s="2">
-        <v>686.95899999999995</v>
+        <v>686.92100000000005</v>
       </c>
       <c r="D13" s="2">
-        <v>686.84400000000005</v>
+        <v>686.92920000000004</v>
       </c>
       <c r="E13" s="2">
-        <v>686.93600000000004</v>
+        <v>686.93259999999998</v>
       </c>
       <c r="F13" s="2">
-        <v>686.94200000000001</v>
+        <v>687.4156999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>686.92899999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A14" s="9">
+        <v>687.40774999999996</v>
+      </c>
+      <c r="H13" s="5">
+        <v>687.42960000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>685.45849999999996</v>
       </c>
       <c r="C14" s="2">
-        <v>686.95799999999997</v>
+        <v>686.92979999999989</v>
       </c>
       <c r="D14" s="2">
-        <v>686.86199999999997</v>
+        <v>686.93830000000003</v>
       </c>
       <c r="E14" s="2">
-        <v>686.93600000000004</v>
+        <v>686.93790000000013</v>
       </c>
       <c r="F14" s="2">
-        <v>686.94100000000003</v>
+        <v>687.42719999999997</v>
       </c>
       <c r="G14" s="2">
-        <v>686.928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A15" s="9">
+        <v>687.4151250000001</v>
+      </c>
+      <c r="H14" s="5">
+        <v>687.43629999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>685.45749999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>686.96100000000001</v>
+        <v>686.93360000000007</v>
       </c>
       <c r="D15" s="2">
-        <v>686.87</v>
+        <v>686.94089999999994</v>
       </c>
       <c r="E15" s="2">
-        <v>686.94</v>
+        <v>686.9393</v>
       </c>
       <c r="F15" s="2">
-        <v>686.94799999999998</v>
+        <v>687.41880000000003</v>
       </c>
       <c r="G15" s="2">
-        <v>686.93299999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A16" s="9">
+        <v>687.41814999999997</v>
+      </c>
+      <c r="H15" s="5">
+        <v>687.43979999999988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>685.44550000000004</v>
       </c>
       <c r="C16" s="2">
-        <v>686.95500000000004</v>
+        <v>686.92609999999991</v>
       </c>
       <c r="D16" s="2">
-        <v>686.86300000000006</v>
+        <v>686.93409999999994</v>
       </c>
       <c r="E16" s="2">
-        <v>686.93399999999997</v>
+        <v>686.93179999999995</v>
       </c>
       <c r="F16" s="2">
-        <v>686.94200000000001</v>
+        <v>687.41930000000002</v>
       </c>
       <c r="G16" s="2">
-        <v>686.92499999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A17" s="9">
+        <v>687.40917500000012</v>
+      </c>
+      <c r="H16" s="5">
+        <v>687.42759999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>685.44299999999998</v>
       </c>
       <c r="C17" s="2">
-        <v>686.94500000000005</v>
+        <v>686.92319999999995</v>
       </c>
       <c r="D17" s="2">
-        <v>686.85299999999995</v>
+        <v>686.92489999999998</v>
       </c>
       <c r="E17" s="2">
-        <v>686.93899999999996</v>
+        <v>686.923</v>
       </c>
       <c r="F17" s="2">
-        <v>686.928</v>
+        <v>687.40430000000003</v>
       </c>
       <c r="G17" s="2">
-        <v>686.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A18" s="9">
+        <v>687.39662500000009</v>
+      </c>
+      <c r="H17" s="5">
+        <v>687.41079999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>685.428</v>
       </c>
       <c r="C18" s="2">
-        <v>686.94</v>
+        <v>686.91340000000014</v>
       </c>
       <c r="D18" s="2">
-        <v>686.851</v>
+        <v>686.91910000000007</v>
       </c>
       <c r="E18" s="2">
-        <v>686.93600000000004</v>
+        <v>686.91830000000004</v>
       </c>
       <c r="F18" s="2">
-        <v>686.92</v>
+        <v>687.40190000000007</v>
       </c>
       <c r="G18" s="2">
-        <v>686.92700000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="9">
+        <v>687.39037500000006</v>
+      </c>
+      <c r="H18" s="5">
+        <v>687.40240000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>685.447</v>
       </c>
       <c r="C19" s="2">
-        <v>686.94100000000003</v>
+        <v>686.92250000000001</v>
       </c>
       <c r="D19" s="2">
-        <v>686.84799999999996</v>
+        <v>686.9276000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>686.93399999999997</v>
+        <v>686.9248</v>
       </c>
       <c r="F19" s="2">
-        <v>686.95500000000004</v>
+        <v>687.40079999999989</v>
       </c>
       <c r="G19" s="2">
-        <v>686.928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A20" s="9">
+        <v>687.397425</v>
+      </c>
+      <c r="H19" s="5">
+        <v>687.4117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>685.45150000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>686.96</v>
+        <v>686.93240000000003</v>
       </c>
       <c r="D20" s="2">
-        <v>686.86599999999999</v>
+        <v>686.93929999999989</v>
       </c>
       <c r="E20" s="2">
-        <v>686.952</v>
+        <v>686.9375</v>
       </c>
       <c r="F20" s="2">
-        <v>686.96299999999997</v>
+        <v>687.42349999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>686.94100000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A21" s="9">
+        <v>687.42059999999992</v>
+      </c>
+      <c r="H20" s="5">
+        <v>687.42939999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>685.47749999999996</v>
       </c>
       <c r="C21" s="2">
-        <v>686.97</v>
+        <v>686.95660000000009</v>
       </c>
       <c r="D21" s="2">
-        <v>686.87699999999995</v>
+        <v>686.95999999999992</v>
       </c>
       <c r="E21" s="2">
-        <v>686.96199999999999</v>
+        <v>686.95920000000001</v>
       </c>
       <c r="F21" s="2">
-        <v>686.98500000000001</v>
+        <v>687.44920000000002</v>
       </c>
       <c r="G21" s="2">
-        <v>686.95399999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A22" s="9">
+        <v>687.43832500000008</v>
+      </c>
+      <c r="H21" s="5">
+        <v>687.44710000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>685.4905</v>
       </c>
       <c r="C22" s="2">
-        <v>686.97699999999998</v>
+        <v>686.96949999999993</v>
       </c>
       <c r="D22" s="2">
-        <v>686.89200000000005</v>
+        <v>686.9769</v>
       </c>
       <c r="E22" s="2">
-        <v>687.00300000000004</v>
+        <v>686.97739999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>687.00099999999998</v>
+        <v>687.45249999999999</v>
       </c>
       <c r="G22" s="2">
-        <v>686.96299999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A23" s="9">
+        <v>687.45387500000004</v>
+      </c>
+      <c r="H22" s="5">
+        <v>687.47350000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>685.49649999999997</v>
       </c>
       <c r="C23" s="2">
-        <v>686.98500000000001</v>
+        <v>686.97820000000013</v>
       </c>
       <c r="D23" s="2">
-        <v>686.90300000000002</v>
+        <v>686.98489999999993</v>
       </c>
       <c r="E23" s="2">
-        <v>687.00900000000001</v>
+        <v>686.98860000000002</v>
       </c>
       <c r="F23" s="2">
-        <v>687.00699999999995</v>
+        <v>687.4692</v>
       </c>
       <c r="G23" s="2">
-        <v>686.98900000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A24" s="9">
+        <v>687.46267499999999</v>
+      </c>
+      <c r="H23" s="5">
+        <v>687.48559999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>685.51499999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>686.99699999999996</v>
+        <v>686.98799999999994</v>
       </c>
       <c r="D24" s="2">
-        <v>686.92399999999998</v>
+        <v>686.99329999999998</v>
       </c>
       <c r="E24" s="2">
-        <v>687.01900000000001</v>
+        <v>686.9973</v>
       </c>
       <c r="F24" s="2">
-        <v>687.01499999999999</v>
+        <v>687.47569999999996</v>
       </c>
       <c r="G24" s="2">
-        <v>687.00300000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A25" s="9">
+        <v>687.47002499999996</v>
+      </c>
+      <c r="H24" s="5">
+        <v>687.48810000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>685.51400000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>687.02</v>
+        <v>686.98849999999993</v>
       </c>
       <c r="D25" s="2">
-        <v>686.92399999999998</v>
+        <v>686.99270000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>687.01700000000005</v>
+        <v>686.9944999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>687.01800000000003</v>
+        <v>687.48289999999997</v>
       </c>
       <c r="G25" s="2">
-        <v>687.00300000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A26" s="9">
+        <v>687.47559999999999</v>
+      </c>
+      <c r="H25" s="5">
+        <v>687.48860000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>685.505</v>
       </c>
       <c r="C26" s="2">
-        <v>687.01800000000003</v>
+        <v>686.9833000000001</v>
       </c>
       <c r="D26" s="2">
-        <v>686.91899999999998</v>
+        <v>686.98879999999997</v>
       </c>
       <c r="E26" s="2">
-        <v>687.02300000000002</v>
+        <v>686.98490000000004</v>
       </c>
       <c r="F26" s="2">
-        <v>687.029</v>
+        <v>687.46879999999999</v>
       </c>
       <c r="G26" s="2">
-        <v>686.99800000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A27" s="9">
+        <v>687.46420000000012</v>
+      </c>
+      <c r="H26" s="5">
+        <v>687.47919999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>685.48249999999996</v>
       </c>
       <c r="C27" s="2">
-        <v>687.00400000000002</v>
+        <v>686.96989999999994</v>
       </c>
       <c r="D27" s="2">
-        <v>686.90200000000004</v>
+        <v>686.97530000000006</v>
       </c>
       <c r="E27" s="2">
-        <v>687.01800000000003</v>
+        <v>686.97140000000002</v>
       </c>
       <c r="F27" s="2">
-        <v>687.01499999999999</v>
+        <v>687.45619999999997</v>
       </c>
       <c r="G27" s="2">
-        <v>686.98199999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A28" s="9">
+        <v>687.44797500000004</v>
+      </c>
+      <c r="H27" s="5">
+        <v>687.46310000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>685.47400000000005</v>
       </c>
       <c r="C28" s="2">
-        <v>686.99900000000002</v>
+        <v>686.96060000000011</v>
       </c>
       <c r="D28" s="2">
-        <v>686.88699999999994</v>
+        <v>686.96629999999993</v>
       </c>
       <c r="E28" s="2">
-        <v>687.00900000000001</v>
+        <v>686.96259999999995</v>
       </c>
       <c r="F28" s="2">
-        <v>687.005</v>
+        <v>687.43979999999999</v>
       </c>
       <c r="G28" s="2">
-        <v>686.971</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A29" s="9">
+        <v>687.43630000000007</v>
+      </c>
+      <c r="H28" s="5">
+        <v>687.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="7">
         <v>685.46799999999996</v>
       </c>
       <c r="C29" s="2">
-        <v>686.99099999999999</v>
+        <v>686.95669999999996</v>
       </c>
       <c r="D29" s="2">
-        <v>686.88900000000001</v>
+        <v>686.96660000000008</v>
       </c>
       <c r="E29" s="2">
-        <v>687.01</v>
+        <v>686.95920000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>686.99800000000005</v>
+        <v>687.43939999999998</v>
       </c>
       <c r="G29" s="2">
-        <v>686.96500000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A30" s="9">
+        <v>687.43290000000002</v>
+      </c>
+      <c r="H29" s="5">
+        <v>687.44799999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="7">
         <v>685.47950000000003</v>
       </c>
       <c r="C30" s="2">
-        <v>686.97699999999998</v>
+        <v>686.96229999999991</v>
       </c>
       <c r="D30" s="2">
-        <v>686.89099999999996</v>
+        <v>686.97059999999988</v>
       </c>
       <c r="E30" s="2">
-        <v>687.01</v>
+        <v>686.96379999999988</v>
       </c>
       <c r="F30" s="2">
-        <v>687.00300000000004</v>
+        <v>687.44979999999998</v>
       </c>
       <c r="G30" s="2">
-        <v>686.96900000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A31" s="9">
+        <v>687.44145000000003</v>
+      </c>
+      <c r="H30" s="5">
+        <v>687.45519999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="7">
         <v>685.49350000000004</v>
       </c>
       <c r="C31" s="2">
-        <v>686.98800000000006</v>
+        <v>686.97450000000003</v>
       </c>
       <c r="D31" s="2">
-        <v>686.9</v>
+        <v>686.9846</v>
       </c>
       <c r="E31" s="2">
-        <v>687.01599999999996</v>
+        <v>686.97439999999995</v>
       </c>
       <c r="F31" s="2">
-        <v>687.01700000000005</v>
+        <v>687.45799999999997</v>
       </c>
       <c r="G31" s="2">
-        <v>686.98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A32" s="9">
+        <v>687.44994999999994</v>
+      </c>
+      <c r="H31" s="5">
+        <v>687.46300000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="7">
         <v>685.49249999999995</v>
       </c>
       <c r="C32" s="2">
-        <v>686.98900000000003</v>
+        <v>686.98220000000003</v>
       </c>
       <c r="D32" s="2">
-        <v>686.90099999999995</v>
+        <v>686.9905</v>
       </c>
       <c r="E32" s="2">
-        <v>687.01400000000001</v>
+        <v>686.9860000000001</v>
       </c>
       <c r="F32" s="2">
-        <v>687.01800000000003</v>
+        <v>687.47770000000003</v>
       </c>
       <c r="G32" s="2">
-        <v>686.98199999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A33" s="9">
+        <v>687.45802500000002</v>
+      </c>
+      <c r="H32" s="5">
+        <v>687.4778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="7">
         <v>685.51250000000005</v>
       </c>
       <c r="C33" s="2">
-        <v>687.01099999999997</v>
+        <v>687.00299999999993</v>
       </c>
       <c r="D33" s="2">
-        <v>686.923</v>
+        <v>687.00440000000003</v>
       </c>
       <c r="E33" s="2">
-        <v>687.03099999999995</v>
+        <v>686.99930000000006</v>
       </c>
       <c r="F33" s="2">
-        <v>687.03700000000003</v>
+        <v>687.47759999999994</v>
       </c>
       <c r="G33" s="2">
-        <v>687.00300000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A34" s="9">
+        <v>687.47622499999989</v>
+      </c>
+      <c r="H33" s="5">
+        <v>687.49459999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="7">
         <v>685.52</v>
       </c>
       <c r="C34" s="2">
-        <v>687.03300000000002</v>
+        <v>687.01340000000005</v>
       </c>
       <c r="D34" s="2">
-        <v>686.93299999999999</v>
+        <v>687.01949999999988</v>
       </c>
       <c r="E34" s="2">
-        <v>687.04100000000005</v>
+        <v>687.0132000000001</v>
       </c>
       <c r="F34" s="2">
-        <v>687.04300000000001</v>
+        <v>687.50490000000002</v>
       </c>
       <c r="G34" s="2">
-        <v>687.00900000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A35" s="9">
+        <v>687.48835000000008</v>
+      </c>
+      <c r="H34" s="5">
+        <v>687.50700000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="7">
         <v>685.53599999999994</v>
       </c>
       <c r="C35" s="2">
+        <v>687.02790000000005</v>
+      </c>
+      <c r="D35" s="2">
+        <v>687.03039999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>687.0243999999999</v>
+      </c>
+      <c r="F35" s="2">
+        <v>687.51930000000004</v>
+      </c>
+      <c r="G35" s="2">
+        <v>687.5060749999999</v>
+      </c>
+      <c r="H35" s="5">
+        <v>687.52240000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>685.55</v>
+      </c>
+      <c r="C36" s="2">
+        <v>687.04269999999997</v>
+      </c>
+      <c r="D36" s="2">
+        <v>687.04499999999985</v>
+      </c>
+      <c r="E36" s="2">
+        <v>687.03639999999996</v>
+      </c>
+      <c r="F36" s="2">
+        <v>687.53359999999998</v>
+      </c>
+      <c r="G36" s="2">
+        <v>687.52170000000001</v>
+      </c>
+      <c r="H36" s="5">
+        <v>687.54020000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>685.56399999999996</v>
+      </c>
+      <c r="C37" s="2">
+        <v>687.05349999999987</v>
+      </c>
+      <c r="D37" s="2">
+        <v>687.05640000000017</v>
+      </c>
+      <c r="E37" s="2">
+        <v>687.05010000000004</v>
+      </c>
+      <c r="F37" s="2">
+        <v>687.54130000000009</v>
+      </c>
+      <c r="G37" s="2">
+        <v>687.53487500000006</v>
+      </c>
+      <c r="H37" s="5">
+        <v>687.55160000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7">
+        <v>685.57449999999994</v>
+      </c>
+      <c r="C38" s="2">
+        <v>687.05500000000006</v>
+      </c>
+      <c r="D38" s="2">
+        <v>687.06000000000006</v>
+      </c>
+      <c r="E38" s="2">
+        <v>687.05669999999986</v>
+      </c>
+      <c r="F38" s="2">
+        <v>687.5553000000001</v>
+      </c>
+      <c r="G38" s="2">
+        <v>687.54362500000002</v>
+      </c>
+      <c r="H38" s="5">
+        <v>687.56150000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7">
+        <v>685.57749999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>687.06060000000002</v>
+      </c>
+      <c r="D39" s="2">
+        <v>687.06610000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>687.06110000000012</v>
+      </c>
+      <c r="F39" s="2">
+        <v>687.5560999999999</v>
+      </c>
+      <c r="G39" s="2">
+        <v>687.54597499999988</v>
+      </c>
+      <c r="H39" s="5">
+        <v>687.56629999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7">
+        <v>685.57899999999995</v>
+      </c>
+      <c r="C40" s="2">
+        <v>687.0571000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>687.06200000000013</v>
+      </c>
+      <c r="E40" s="2">
+        <v>687.05669999999986</v>
+      </c>
+      <c r="F40" s="2">
+        <v>687.55420000000015</v>
+      </c>
+      <c r="G40" s="2">
+        <v>687.54510000000005</v>
+      </c>
+      <c r="H40" s="5">
+        <v>687.5616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7">
+        <v>685.57349999999997</v>
+      </c>
+      <c r="C41" s="2">
+        <v>687.04910000000007</v>
+      </c>
+      <c r="D41" s="2">
+        <v>687.05560000000003</v>
+      </c>
+      <c r="E41" s="2">
+        <v>687.04909999999995</v>
+      </c>
+      <c r="F41" s="2">
+        <v>687.54179999999997</v>
+      </c>
+      <c r="G41" s="2">
+        <v>687.530575</v>
+      </c>
+      <c r="H41" s="5">
+        <v>687.54719999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
+        <v>685.5625</v>
+      </c>
+      <c r="C42" s="2">
+        <v>687.03709999999978</v>
+      </c>
+      <c r="D42" s="2">
+        <v>687.04409999999996</v>
+      </c>
+      <c r="E42" s="2">
+        <v>687.03590000000008</v>
+      </c>
+      <c r="F42" s="2">
+        <v>687.5329999999999</v>
+      </c>
+      <c r="G42" s="2">
+        <v>687.52074999999991</v>
+      </c>
+      <c r="H42" s="5">
+        <v>687.53610000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7">
+        <v>685.54849999999999</v>
+      </c>
+      <c r="C43" s="2">
+        <v>687.03290000000004</v>
+      </c>
+      <c r="D43" s="2">
+        <v>687.04310000000009</v>
+      </c>
+      <c r="E43" s="2">
+        <v>687.03179999999998</v>
+      </c>
+      <c r="F43" s="2">
+        <v>687.52170000000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>687.50727499999994</v>
+      </c>
+      <c r="H43" s="5">
+        <v>687.52139999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>685.54750000000001</v>
+      </c>
+      <c r="C44" s="2">
+        <v>687.02980000000002</v>
+      </c>
+      <c r="D44" s="2">
+        <v>687.04150000000004</v>
+      </c>
+      <c r="E44" s="2">
+        <v>687.0326</v>
+      </c>
+      <c r="F44" s="2">
+        <v>687.52320000000009</v>
+      </c>
+      <c r="G44" s="2">
+        <v>687.50515000000007</v>
+      </c>
+      <c r="H44" s="5">
+        <v>687.51940000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
+        <v>685.54700000000003</v>
+      </c>
+      <c r="C45" s="2">
+        <v>687.03189999999995</v>
+      </c>
+      <c r="D45" s="2">
         <v>687.04499999999996</v>
       </c>
-      <c r="D35" s="2">
-        <v>686.93899999999996</v>
-      </c>
-      <c r="E35" s="2">
-        <v>687.04700000000003</v>
-      </c>
-      <c r="F35" s="2">
-        <v>687.05600000000004</v>
-      </c>
-      <c r="G35" s="2">
-        <v>687.02599999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10">
-        <v>685.55</v>
-      </c>
-      <c r="C36" s="2">
-        <v>687.05899999999997</v>
-      </c>
-      <c r="D36" s="2">
-        <v>686.952</v>
-      </c>
-      <c r="E36" s="2">
-        <v>687.08299999999997</v>
-      </c>
-      <c r="F36" s="2">
-        <v>687.06899999999996</v>
-      </c>
-      <c r="G36" s="2">
-        <v>687.04</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10">
+      <c r="E45" s="2">
+        <v>687.03439999999989</v>
+      </c>
+      <c r="F45" s="2">
+        <v>687.5184999999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>687.51322499999992</v>
+      </c>
+      <c r="H45" s="5">
+        <v>687.53050000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>685.55600000000004</v>
+      </c>
+      <c r="C46" s="2">
+        <v>687.03779999999995</v>
+      </c>
+      <c r="D46" s="2">
+        <v>687.05089999999996</v>
+      </c>
+      <c r="E46" s="2">
+        <v>687.04450000000008</v>
+      </c>
+      <c r="F46" s="2">
+        <v>687.53180000000009</v>
+      </c>
+      <c r="G46" s="2">
+        <v>687.51582499999995</v>
+      </c>
+      <c r="H46" s="5">
+        <v>687.53449999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
         <v>685.56399999999996</v>
       </c>
-      <c r="C37" s="2">
-        <v>687.06200000000001</v>
-      </c>
-      <c r="D37" s="2">
-        <v>686.97199999999998</v>
-      </c>
-      <c r="E37" s="2">
-        <v>687.08699999999999</v>
-      </c>
-      <c r="F37" s="2">
-        <v>687.077</v>
-      </c>
-      <c r="G37" s="2">
-        <v>687.04600000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10">
-        <v>685.57449999999994</v>
-      </c>
-      <c r="C38" s="2">
-        <v>687.08199999999999</v>
-      </c>
-      <c r="D38" s="2">
-        <v>686.99400000000003</v>
-      </c>
-      <c r="E38" s="2">
-        <v>687.09199999999998</v>
-      </c>
-      <c r="F38" s="2">
-        <v>687.08100000000002</v>
-      </c>
-      <c r="G38" s="2">
-        <v>687.06500000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10">
-        <v>685.57749999999999</v>
-      </c>
-      <c r="C39" s="2">
-        <v>687.09500000000003</v>
-      </c>
-      <c r="D39" s="2">
-        <v>686.99199999999996</v>
-      </c>
-      <c r="E39" s="2">
-        <v>687.08900000000006</v>
-      </c>
-      <c r="F39" s="2">
-        <v>687.08399999999995</v>
-      </c>
-      <c r="G39" s="2">
-        <v>687.06100000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10">
-        <v>685.57899999999995</v>
-      </c>
-      <c r="C40" s="2">
-        <v>687.09799999999996</v>
-      </c>
-      <c r="D40" s="2">
-        <v>686.99900000000002</v>
-      </c>
-      <c r="E40" s="2">
-        <v>687.08</v>
-      </c>
-      <c r="F40" s="2">
-        <v>687.08199999999999</v>
-      </c>
-      <c r="G40" s="2">
-        <v>687.06600000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10">
-        <v>685.57349999999997</v>
-      </c>
-      <c r="C41" s="2">
-        <v>687.08799999999997</v>
-      </c>
-      <c r="D41" s="2">
-        <v>686.98</v>
-      </c>
-      <c r="E41" s="2">
-        <v>687.06500000000005</v>
-      </c>
-      <c r="F41" s="2">
-        <v>687.07500000000005</v>
-      </c>
-      <c r="G41" s="2">
-        <v>687.05600000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="10">
-        <v>685.5625</v>
-      </c>
-      <c r="C42" s="2">
-        <v>687.08</v>
-      </c>
-      <c r="D42" s="2">
-        <v>686.96400000000006</v>
-      </c>
-      <c r="E42" s="2">
-        <v>687.05600000000004</v>
-      </c>
-      <c r="F42" s="2">
-        <v>687.06600000000003</v>
-      </c>
-      <c r="G42" s="2">
-        <v>687.04700000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-      <c r="B43" s="10">
-        <v>685.54849999999999</v>
-      </c>
-      <c r="C43" s="2">
-        <v>687.06500000000005</v>
-      </c>
-      <c r="D43" s="2">
-        <v>686.95799999999997</v>
-      </c>
-      <c r="E43" s="2">
-        <v>687.05499999999995</v>
-      </c>
-      <c r="F43" s="2">
-        <v>687.06299999999999</v>
-      </c>
-      <c r="G43" s="2">
-        <v>687.04399999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
-      <c r="B44" s="10">
-        <v>685.54750000000001</v>
-      </c>
-      <c r="C44" s="2">
-        <v>687.05700000000002</v>
-      </c>
-      <c r="D44" s="2">
-        <v>686.947</v>
-      </c>
-      <c r="E44" s="2">
-        <v>687.04700000000003</v>
-      </c>
-      <c r="F44" s="2">
-        <v>687.05700000000002</v>
-      </c>
-      <c r="G44" s="2">
-        <v>687.03800000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-      <c r="B45" s="10">
-        <v>685.54700000000003</v>
-      </c>
-      <c r="C45" s="2">
-        <v>687.06600000000003</v>
-      </c>
-      <c r="D45" s="2">
-        <v>686.95600000000002</v>
-      </c>
-      <c r="E45" s="2">
-        <v>687.05399999999997</v>
-      </c>
-      <c r="F45" s="2">
-        <v>687.05700000000002</v>
-      </c>
-      <c r="G45" s="2">
-        <v>687.04</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A46" s="9">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10">
-        <v>685.55600000000004</v>
-      </c>
-      <c r="C46" s="2">
-        <v>687.072</v>
-      </c>
-      <c r="D46" s="2">
-        <v>686.95899999999995</v>
-      </c>
-      <c r="E46" s="2">
-        <v>687.05700000000002</v>
-      </c>
-      <c r="F46" s="2">
-        <v>687.06700000000001</v>
-      </c>
-      <c r="G46" s="2">
-        <v>687.04499999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
-      <c r="B47" s="10">
-        <v>685.56399999999996</v>
-      </c>
       <c r="C47" s="2">
-        <v>687.08100000000002</v>
+        <v>687.04729999999995</v>
       </c>
       <c r="D47" s="2">
-        <v>686.97</v>
+        <v>687.05800000000022</v>
       </c>
       <c r="E47" s="2">
-        <v>687.06</v>
+        <v>687.05140000000006</v>
       </c>
       <c r="F47" s="2">
-        <v>687.07</v>
+        <v>687.53419999999983</v>
       </c>
       <c r="G47" s="2">
-        <v>687.05799999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A48" s="9">
+        <v>687.52840000000003</v>
+      </c>
+      <c r="H47" s="5">
+        <v>687.54380000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="7">
         <v>685.5675</v>
       </c>
       <c r="C48" s="2">
-        <v>687.08600000000001</v>
+        <v>687.05080000000009</v>
       </c>
       <c r="D48" s="2">
-        <v>686.97799999999995</v>
+        <v>687.06220000000008</v>
       </c>
       <c r="E48" s="2">
-        <v>687.06700000000001</v>
+        <v>687.05769999999995</v>
       </c>
       <c r="F48" s="2">
-        <v>687.07799999999997</v>
+        <v>687.53989999999999</v>
       </c>
       <c r="G48" s="2">
-        <v>687.06299999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A49" s="9">
+        <v>687.5341249999999</v>
+      </c>
+      <c r="H48" s="5">
+        <v>687.55020000000013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="7">
         <v>685.57500000000005</v>
       </c>
       <c r="C49" s="2">
-        <v>687.08799999999997</v>
+        <v>687.06090000000006</v>
       </c>
       <c r="D49" s="2">
-        <v>686.97699999999998</v>
+        <v>687.06999999999994</v>
       </c>
       <c r="E49" s="2">
-        <v>687.07</v>
+        <v>687.0655999999999</v>
       </c>
       <c r="F49" s="2">
-        <v>687.08</v>
+        <v>687.54589999999996</v>
       </c>
       <c r="G49" s="2">
-        <v>687.05700000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A50" s="9">
+        <v>687.53572499999996</v>
+      </c>
+      <c r="H49" s="5">
+        <v>687.55120000000011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="7">
         <v>685.57950000000005</v>
       </c>
       <c r="C50" s="2">
-        <v>687.101</v>
+        <v>687.06570000000011</v>
       </c>
       <c r="D50" s="2">
-        <v>686.99</v>
+        <v>687.07550000000015</v>
       </c>
       <c r="E50" s="2">
-        <v>687.09</v>
+        <v>687.07060000000001</v>
       </c>
       <c r="F50" s="2">
-        <v>687.08</v>
+        <v>687.55269999999996</v>
       </c>
       <c r="G50" s="2">
-        <v>687.06899999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A51" s="9">
+        <v>687.54785000000004</v>
+      </c>
+      <c r="H50" s="5">
+        <v>687.56040000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="7">
         <v>685.60050000000001</v>
       </c>
       <c r="C51" s="2">
-        <v>687.11500000000001</v>
+        <v>687.0784000000001</v>
       </c>
       <c r="D51" s="2">
-        <v>687.01300000000003</v>
+        <v>687.0874</v>
       </c>
       <c r="E51" s="2">
-        <v>687.09500000000003</v>
+        <v>687.0829</v>
       </c>
       <c r="F51" s="2">
-        <v>687.09699999999998</v>
+        <v>687.57339999999999</v>
       </c>
       <c r="G51" s="2">
-        <v>687.07600000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A52" s="9">
+        <v>687.55962499999998</v>
+      </c>
+      <c r="H51" s="5">
+        <v>687.5680000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="7">
         <v>685.62450000000001</v>
       </c>
       <c r="C52" s="2">
-        <v>687.13499999999999</v>
+        <v>687.08960000000002</v>
       </c>
       <c r="D52" s="2">
-        <v>687.02</v>
+        <v>687.09820000000002</v>
       </c>
       <c r="E52" s="2">
-        <v>687.10400000000004</v>
+        <v>687.09460000000013</v>
       </c>
       <c r="F52" s="2">
-        <v>687.10599999999999</v>
+        <v>687.58029999999997</v>
       </c>
       <c r="G52" s="2">
-        <v>687.09500000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+        <v>687.57297500000004</v>
+      </c>
+      <c r="H52" s="5">
+        <v>687.58400000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A63" s="1"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A64" s="1"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A89" s="3"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A93" s="3"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
+      <c r="A93" s="1"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A97" s="3"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A99" s="3"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
+      <c r="A99" s="1"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A100" s="3"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A101" s="3"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
+      <c r="A101" s="1"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A102" s="3"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A103" s="3"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="12.75" customHeight="1">
@@ -9112,2432 +9257,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D81B1-1412-42C6-89E7-E1F69CE7E861}">
-  <dimension ref="A1:G52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="7" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>685.35749999999996</v>
-      </c>
-      <c r="C2" s="2">
-        <v>686.84199999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>686.82</v>
-      </c>
-      <c r="E2" s="2">
-        <v>686.77599999999995</v>
-      </c>
-      <c r="F2" s="2">
-        <v>686.81600000000003</v>
-      </c>
-      <c r="G2" s="2">
-        <v>686.79200000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16">
-        <v>685.3605</v>
-      </c>
-      <c r="C3" s="2">
-        <v>686.85799999999995</v>
-      </c>
-      <c r="D3" s="2">
-        <v>686.84</v>
-      </c>
-      <c r="E3" s="2">
-        <v>686.78800000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>686.827</v>
-      </c>
-      <c r="G3" s="2">
-        <v>686.81899999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>685.37350000000004</v>
-      </c>
-      <c r="C4" s="2">
-        <v>686.87300000000005</v>
-      </c>
-      <c r="D4" s="2">
-        <v>686.85400000000004</v>
-      </c>
-      <c r="E4" s="2">
-        <v>686.8</v>
-      </c>
-      <c r="F4" s="2">
-        <v>686.83699999999999</v>
-      </c>
-      <c r="G4" s="2">
-        <v>686.83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16">
-        <v>685.38149999999996</v>
-      </c>
-      <c r="C5" s="2">
-        <v>686.87599999999998</v>
-      </c>
-      <c r="D5" s="2">
-        <v>686.86400000000003</v>
-      </c>
-      <c r="E5" s="2">
-        <v>686.8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>686.83900000000006</v>
-      </c>
-      <c r="G5" s="2">
-        <v>686.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <v>685.37800000000004</v>
-      </c>
-      <c r="C6" s="2">
-        <v>686.87699999999995</v>
-      </c>
-      <c r="D6" s="2">
-        <v>686.86199999999997</v>
-      </c>
-      <c r="E6" s="2">
-        <v>686.81</v>
-      </c>
-      <c r="F6" s="2">
-        <v>686.84400000000005</v>
-      </c>
-      <c r="G6" s="2">
-        <v>686.83900000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16">
-        <v>685.37099999999998</v>
-      </c>
-      <c r="C7" s="2">
-        <v>686.87300000000005</v>
-      </c>
-      <c r="D7" s="2">
-        <v>686.85900000000004</v>
-      </c>
-      <c r="E7" s="2">
-        <v>686.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>686.82799999999997</v>
-      </c>
-      <c r="G7" s="2">
-        <v>686.82799999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="15">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16">
-        <v>685.37199999999996</v>
-      </c>
-      <c r="C8" s="2">
-        <v>686.87900000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>686.85199999999998</v>
-      </c>
-      <c r="E8" s="2">
-        <v>686.79899999999998</v>
-      </c>
-      <c r="F8" s="2">
-        <v>686.85500000000002</v>
-      </c>
-      <c r="G8" s="2">
-        <v>686.83100000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16">
-        <v>685.39350000000002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>686.89099999999996</v>
-      </c>
-      <c r="D9" s="2">
-        <v>686.87099999999998</v>
-      </c>
-      <c r="E9" s="2">
-        <v>686.80899999999997</v>
-      </c>
-      <c r="F9" s="2">
-        <v>686.86599999999999</v>
-      </c>
-      <c r="G9" s="2">
-        <v>686.84500000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16">
-        <v>685.41750000000002</v>
-      </c>
-      <c r="C10" s="2">
-        <v>686.90599999999995</v>
-      </c>
-      <c r="D10" s="2">
-        <v>686.89700000000005</v>
-      </c>
-      <c r="E10" s="2">
-        <v>686.82500000000005</v>
-      </c>
-      <c r="F10" s="2">
-        <v>686.88300000000004</v>
-      </c>
-      <c r="G10" s="2">
-        <v>686.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16">
-        <v>685.42700000000002</v>
-      </c>
-      <c r="C11" s="2">
-        <v>686.91800000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>686.91700000000003</v>
-      </c>
-      <c r="E11" s="2">
-        <v>686.84100000000001</v>
-      </c>
-      <c r="F11" s="2">
-        <v>686.89499999999998</v>
-      </c>
-      <c r="G11" s="2">
-        <v>686.93600000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16">
-        <v>685.43349999999998</v>
-      </c>
-      <c r="C12" s="2">
-        <v>686.928</v>
-      </c>
-      <c r="D12" s="2">
-        <v>686.923</v>
-      </c>
-      <c r="E12" s="2">
-        <v>686.85799999999995</v>
-      </c>
-      <c r="F12" s="2">
-        <v>686.904</v>
-      </c>
-      <c r="G12" s="2">
-        <v>686.94299999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16">
-        <v>685.45050000000003</v>
-      </c>
-      <c r="C13" s="2">
-        <v>686.93600000000004</v>
-      </c>
-      <c r="D13" s="2">
-        <v>686.93100000000004</v>
-      </c>
-      <c r="E13" s="2">
-        <v>686.93399999999997</v>
-      </c>
-      <c r="F13" s="2">
-        <v>686.91099999999994</v>
-      </c>
-      <c r="G13" s="2">
-        <v>686.95100000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16">
-        <v>685.45849999999996</v>
-      </c>
-      <c r="C14" s="2">
-        <v>686.96</v>
-      </c>
-      <c r="D14" s="2">
-        <v>686.93700000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>686.93700000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>686.93799999999999</v>
-      </c>
-      <c r="G14" s="2">
-        <v>686.95299999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16">
-        <v>685.45749999999998</v>
-      </c>
-      <c r="C15" s="2">
-        <v>686.96199999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>686.94299999999998</v>
-      </c>
-      <c r="E15" s="2">
-        <v>686.94100000000003</v>
-      </c>
-      <c r="F15" s="2">
-        <v>686.952</v>
-      </c>
-      <c r="G15" s="2">
-        <v>686.96199999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="15">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16">
-        <v>685.44550000000004</v>
-      </c>
-      <c r="C16" s="2">
-        <v>686.95500000000004</v>
-      </c>
-      <c r="D16" s="2">
-        <v>686.93799999999999</v>
-      </c>
-      <c r="E16" s="2">
-        <v>686.93700000000001</v>
-      </c>
-      <c r="F16" s="2">
-        <v>686.94100000000003</v>
-      </c>
-      <c r="G16" s="2">
-        <v>686.96799999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16">
-        <v>685.44299999999998</v>
-      </c>
-      <c r="C17" s="2">
-        <v>686.94100000000003</v>
-      </c>
-      <c r="D17" s="2">
-        <v>686.93</v>
-      </c>
-      <c r="E17" s="2">
-        <v>686.93200000000002</v>
-      </c>
-      <c r="F17" s="2">
-        <v>686.93399999999997</v>
-      </c>
-      <c r="G17" s="2">
-        <v>686.96600000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16">
-        <v>685.428</v>
-      </c>
-      <c r="C18" s="2">
-        <v>686.93600000000004</v>
-      </c>
-      <c r="D18" s="2">
-        <v>686.92700000000002</v>
-      </c>
-      <c r="E18" s="2">
-        <v>686.92399999999998</v>
-      </c>
-      <c r="F18" s="2">
-        <v>686.92700000000002</v>
-      </c>
-      <c r="G18" s="2">
-        <v>686.95699999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16">
-        <v>685.447</v>
-      </c>
-      <c r="C19" s="2">
-        <v>686.93799999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>686.92899999999997</v>
-      </c>
-      <c r="E19" s="2">
-        <v>686.92600000000004</v>
-      </c>
-      <c r="F19" s="2">
-        <v>686.93399999999997</v>
-      </c>
-      <c r="G19" s="2">
-        <v>686.95899999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16">
-        <v>685.45150000000001</v>
-      </c>
-      <c r="C20" s="2">
-        <v>686.94500000000005</v>
-      </c>
-      <c r="D20" s="2">
-        <v>686.93899999999996</v>
-      </c>
-      <c r="E20" s="2">
-        <v>686.92700000000002</v>
-      </c>
-      <c r="F20" s="2">
-        <v>686.93899999999996</v>
-      </c>
-      <c r="G20" s="2">
-        <v>686.976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16">
-        <v>685.47749999999996</v>
-      </c>
-      <c r="C21" s="2">
-        <v>686.96400000000006</v>
-      </c>
-      <c r="D21" s="2">
-        <v>686.95899999999995</v>
-      </c>
-      <c r="E21" s="2">
-        <v>686.95500000000004</v>
-      </c>
-      <c r="F21" s="2">
-        <v>686.971</v>
-      </c>
-      <c r="G21" s="2">
-        <v>686.99099999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="15">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16">
-        <v>685.4905</v>
-      </c>
-      <c r="C22" s="2">
-        <v>686.97400000000005</v>
-      </c>
-      <c r="D22" s="2">
-        <v>686.97500000000002</v>
-      </c>
-      <c r="E22" s="2">
-        <v>686.96600000000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>686.98599999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>687.005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16">
-        <v>685.49649999999997</v>
-      </c>
-      <c r="C23" s="2">
-        <v>686.98199999999997</v>
-      </c>
-      <c r="D23" s="2">
-        <v>686.98699999999997</v>
-      </c>
-      <c r="E23" s="2">
-        <v>686.97400000000005</v>
-      </c>
-      <c r="F23" s="2">
-        <v>686.99900000000002</v>
-      </c>
-      <c r="G23" s="2">
-        <v>687.01599999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16">
-        <v>685.51499999999999</v>
-      </c>
-      <c r="C24" s="2">
-        <v>686.98900000000003</v>
-      </c>
-      <c r="D24" s="2">
-        <v>686.99300000000005</v>
-      </c>
-      <c r="E24" s="2">
-        <v>686.98400000000004</v>
-      </c>
-      <c r="F24" s="2">
-        <v>687.00800000000004</v>
-      </c>
-      <c r="G24" s="2">
-        <v>687.02200000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16">
-        <v>685.51400000000001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>686.99099999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>686.99900000000002</v>
-      </c>
-      <c r="E25" s="2">
-        <v>686.98299999999995</v>
-      </c>
-      <c r="F25" s="2">
-        <v>687.005</v>
-      </c>
-      <c r="G25" s="2">
-        <v>687.024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="15">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16">
-        <v>685.505</v>
-      </c>
-      <c r="C26" s="2">
-        <v>687.01099999999997</v>
-      </c>
-      <c r="D26" s="2">
-        <v>686.99900000000002</v>
-      </c>
-      <c r="E26" s="2">
-        <v>686.98</v>
-      </c>
-      <c r="F26" s="2">
-        <v>687.00099999999998</v>
-      </c>
-      <c r="G26" s="2">
-        <v>687.02099999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="15">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16">
-        <v>685.48249999999996</v>
-      </c>
-      <c r="C27" s="2">
-        <v>686.99800000000005</v>
-      </c>
-      <c r="D27" s="2">
-        <v>686.98299999999995</v>
-      </c>
-      <c r="E27" s="2">
-        <v>686.976</v>
-      </c>
-      <c r="F27" s="2">
-        <v>686.98400000000004</v>
-      </c>
-      <c r="G27" s="2">
-        <v>687.00699999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="15">
-        <v>27</v>
-      </c>
-      <c r="B28" s="16">
-        <v>685.47400000000005</v>
-      </c>
-      <c r="C28" s="2">
-        <v>686.98500000000001</v>
-      </c>
-      <c r="D28" s="2">
-        <v>686.97</v>
-      </c>
-      <c r="E28" s="2">
-        <v>686.96699999999998</v>
-      </c>
-      <c r="F28" s="2">
-        <v>686.96900000000005</v>
-      </c>
-      <c r="G28" s="2">
-        <v>686.99800000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="15">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16">
-        <v>685.46799999999996</v>
-      </c>
-      <c r="C29" s="2">
-        <v>686.98400000000004</v>
-      </c>
-      <c r="D29" s="2">
-        <v>686.96299999999997</v>
-      </c>
-      <c r="E29" s="2">
-        <v>686.95899999999995</v>
-      </c>
-      <c r="F29" s="2">
-        <v>686.96199999999999</v>
-      </c>
-      <c r="G29" s="2">
-        <v>686.99400000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="15">
-        <v>29</v>
-      </c>
-      <c r="B30" s="16">
-        <v>685.47950000000003</v>
-      </c>
-      <c r="C30" s="2">
-        <v>686.98800000000006</v>
-      </c>
-      <c r="D30" s="2">
-        <v>686.96900000000005</v>
-      </c>
-      <c r="E30" s="2">
-        <v>686.96199999999999</v>
-      </c>
-      <c r="F30" s="2">
-        <v>686.96799999999996</v>
-      </c>
-      <c r="G30" s="2">
-        <v>686.99199999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="15">
-        <v>30</v>
-      </c>
-      <c r="B31" s="16">
-        <v>685.49350000000004</v>
-      </c>
-      <c r="C31" s="2">
-        <v>687.00300000000004</v>
-      </c>
-      <c r="D31" s="2">
-        <v>686.98299999999995</v>
-      </c>
-      <c r="E31" s="2">
-        <v>686.971</v>
-      </c>
-      <c r="F31" s="2">
-        <v>686.98099999999999</v>
-      </c>
-      <c r="G31" s="2">
-        <v>687.00400000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15">
-        <v>31</v>
-      </c>
-      <c r="B32" s="16">
-        <v>685.49249999999995</v>
-      </c>
-      <c r="C32" s="2">
-        <v>687.00199999999995</v>
-      </c>
-      <c r="D32" s="2">
-        <v>686.98400000000004</v>
-      </c>
-      <c r="E32" s="2">
-        <v>686.971</v>
-      </c>
-      <c r="F32" s="2">
-        <v>686.98199999999997</v>
-      </c>
-      <c r="G32" s="2">
-        <v>687.01400000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="15">
-        <v>32</v>
-      </c>
-      <c r="B33" s="16">
-        <v>685.51250000000005</v>
-      </c>
-      <c r="C33" s="2">
-        <v>687.01800000000003</v>
-      </c>
-      <c r="D33" s="2">
-        <v>687</v>
-      </c>
-      <c r="E33" s="2">
-        <v>686.98800000000006</v>
-      </c>
-      <c r="F33" s="2">
-        <v>686.99800000000005</v>
-      </c>
-      <c r="G33" s="2">
-        <v>687.03200000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="15">
-        <v>33</v>
-      </c>
-      <c r="B34" s="16">
-        <v>685.52</v>
-      </c>
-      <c r="C34" s="2">
-        <v>687.03300000000002</v>
-      </c>
-      <c r="D34" s="2">
-        <v>687.01199999999994</v>
-      </c>
-      <c r="E34" s="2">
-        <v>687.00599999999997</v>
-      </c>
-      <c r="F34" s="2">
-        <v>687.005</v>
-      </c>
-      <c r="G34" s="2">
-        <v>687.03700000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="15">
-        <v>34</v>
-      </c>
-      <c r="B35" s="16">
-        <v>685.53599999999994</v>
-      </c>
-      <c r="C35" s="2">
-        <v>687.03899999999999</v>
-      </c>
-      <c r="D35" s="2">
-        <v>687.01900000000001</v>
-      </c>
-      <c r="E35" s="2">
-        <v>687.01300000000003</v>
-      </c>
-      <c r="F35" s="2">
-        <v>687.01700000000005</v>
-      </c>
-      <c r="G35" s="2">
-        <v>687.04499999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="15">
-        <v>35</v>
-      </c>
-      <c r="B36" s="16">
-        <v>685.55</v>
-      </c>
-      <c r="C36" s="2">
-        <v>687.05899999999997</v>
-      </c>
-      <c r="D36" s="2">
-        <v>687.03499999999997</v>
-      </c>
-      <c r="E36" s="2">
-        <v>687.03</v>
-      </c>
-      <c r="F36" s="2">
-        <v>687.04200000000003</v>
-      </c>
-      <c r="G36" s="2">
-        <v>687.06799999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="15">
-        <v>36</v>
-      </c>
-      <c r="B37" s="16">
-        <v>685.56399999999996</v>
-      </c>
-      <c r="C37" s="2">
-        <v>687.06700000000001</v>
-      </c>
-      <c r="D37" s="2">
-        <v>687.048</v>
-      </c>
-      <c r="E37" s="2">
-        <v>687.03800000000001</v>
-      </c>
-      <c r="F37" s="2">
-        <v>687.04899999999998</v>
-      </c>
-      <c r="G37" s="2">
-        <v>687.08199999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="15">
-        <v>37</v>
-      </c>
-      <c r="B38" s="16">
-        <v>685.57449999999994</v>
-      </c>
-      <c r="C38" s="2">
-        <v>687.07299999999998</v>
-      </c>
-      <c r="D38" s="2">
-        <v>687.04700000000003</v>
-      </c>
-      <c r="E38" s="2">
-        <v>687.04200000000003</v>
-      </c>
-      <c r="F38" s="2">
-        <v>687.05700000000002</v>
-      </c>
-      <c r="G38" s="2">
-        <v>687.08500000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="15">
-        <v>38</v>
-      </c>
-      <c r="B39" s="16">
-        <v>685.57749999999999</v>
-      </c>
-      <c r="C39" s="2">
-        <v>687.08</v>
-      </c>
-      <c r="D39" s="2">
-        <v>687.06100000000004</v>
-      </c>
-      <c r="E39" s="2">
-        <v>687.04600000000005</v>
-      </c>
-      <c r="F39" s="2">
-        <v>687.06</v>
-      </c>
-      <c r="G39" s="2">
-        <v>687.08699999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="15">
-        <v>39</v>
-      </c>
-      <c r="B40" s="16">
-        <v>685.57899999999995</v>
-      </c>
-      <c r="C40" s="2">
-        <v>687.07799999999997</v>
-      </c>
-      <c r="D40" s="2">
-        <v>687.06899999999996</v>
-      </c>
-      <c r="E40" s="2">
-        <v>687.04600000000005</v>
-      </c>
-      <c r="F40" s="2">
-        <v>687.05499999999995</v>
-      </c>
-      <c r="G40" s="2">
-        <v>687.09299999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="15">
-        <v>40</v>
-      </c>
-      <c r="B41" s="16">
-        <v>685.57349999999997</v>
-      </c>
-      <c r="C41" s="2">
-        <v>687.07500000000005</v>
-      </c>
-      <c r="D41" s="2">
-        <v>687.06100000000004</v>
-      </c>
-      <c r="E41" s="2">
-        <v>687.03499999999997</v>
-      </c>
-      <c r="F41" s="2">
-        <v>687.048</v>
-      </c>
-      <c r="G41" s="2">
-        <v>687.09100000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="15">
-        <v>41</v>
-      </c>
-      <c r="B42" s="16">
-        <v>685.5625</v>
-      </c>
-      <c r="C42" s="2">
-        <v>687.05899999999997</v>
-      </c>
-      <c r="D42" s="2">
-        <v>687.04300000000001</v>
-      </c>
-      <c r="E42" s="2">
-        <v>687.02499999999998</v>
-      </c>
-      <c r="F42" s="2">
-        <v>687.04200000000003</v>
-      </c>
-      <c r="G42" s="2">
-        <v>687.07299999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="15">
-        <v>42</v>
-      </c>
-      <c r="B43" s="16">
-        <v>685.54849999999999</v>
-      </c>
-      <c r="C43" s="2">
-        <v>687.05399999999997</v>
-      </c>
-      <c r="D43" s="2">
-        <v>687.03800000000001</v>
-      </c>
-      <c r="E43" s="2">
-        <v>687.03</v>
-      </c>
-      <c r="F43" s="2">
-        <v>687.04600000000005</v>
-      </c>
-      <c r="G43" s="2">
-        <v>687.08100000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="15">
-        <v>43</v>
-      </c>
-      <c r="B44" s="16">
-        <v>685.54750000000001</v>
-      </c>
-      <c r="C44" s="2">
-        <v>687.048</v>
-      </c>
-      <c r="D44" s="2">
-        <v>687.03399999999999</v>
-      </c>
-      <c r="E44" s="2">
-        <v>687.02800000000002</v>
-      </c>
-      <c r="F44" s="2">
-        <v>687.04</v>
-      </c>
-      <c r="G44" s="2">
-        <v>687.06600000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="15">
-        <v>44</v>
-      </c>
-      <c r="B45" s="16">
-        <v>685.54700000000003</v>
-      </c>
-      <c r="C45" s="2">
-        <v>687.05</v>
-      </c>
-      <c r="D45" s="2">
-        <v>687.03800000000001</v>
-      </c>
-      <c r="E45" s="2">
-        <v>687.02099999999996</v>
-      </c>
-      <c r="F45" s="2">
-        <v>687.04399999999998</v>
-      </c>
-      <c r="G45" s="2">
-        <v>687.06700000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="15">
-        <v>45</v>
-      </c>
-      <c r="B46" s="16">
-        <v>685.55600000000004</v>
-      </c>
-      <c r="C46" s="2">
-        <v>687.05600000000004</v>
-      </c>
-      <c r="D46" s="2">
-        <v>687.04100000000005</v>
-      </c>
-      <c r="E46" s="2">
-        <v>687.03200000000004</v>
-      </c>
-      <c r="F46" s="2">
-        <v>687.05</v>
-      </c>
-      <c r="G46" s="2">
-        <v>687.07299999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="15">
-        <v>46</v>
-      </c>
-      <c r="B47" s="16">
-        <v>685.56399999999996</v>
-      </c>
-      <c r="C47" s="2">
-        <v>687.06399999999996</v>
-      </c>
-      <c r="D47" s="2">
-        <v>687.04700000000003</v>
-      </c>
-      <c r="E47" s="2">
-        <v>687.03</v>
-      </c>
-      <c r="F47" s="2">
-        <v>687.05799999999999</v>
-      </c>
-      <c r="G47" s="2">
-        <v>687.07399999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="15">
-        <v>47</v>
-      </c>
-      <c r="B48" s="16">
-        <v>685.5675</v>
-      </c>
-      <c r="C48" s="2">
-        <v>687.07</v>
-      </c>
-      <c r="D48" s="2">
-        <v>687.05399999999997</v>
-      </c>
-      <c r="E48" s="2">
-        <v>687.04200000000003</v>
-      </c>
-      <c r="F48" s="2">
-        <v>687.06299999999999</v>
-      </c>
-      <c r="G48" s="2">
-        <v>687.08500000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="15">
-        <v>48</v>
-      </c>
-      <c r="B49" s="16">
-        <v>685.57500000000005</v>
-      </c>
-      <c r="C49" s="2">
-        <v>687.07299999999998</v>
-      </c>
-      <c r="D49" s="2">
-        <v>687.06</v>
-      </c>
-      <c r="E49" s="2">
-        <v>687.048</v>
-      </c>
-      <c r="F49" s="2">
-        <v>687.06700000000001</v>
-      </c>
-      <c r="G49" s="2">
-        <v>687.09100000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="15">
-        <v>49</v>
-      </c>
-      <c r="B50" s="16">
-        <v>685.57950000000005</v>
-      </c>
-      <c r="C50" s="2">
-        <v>687.08600000000001</v>
-      </c>
-      <c r="D50" s="2">
-        <v>687.05600000000004</v>
-      </c>
-      <c r="E50" s="2">
-        <v>687.04399999999998</v>
-      </c>
-      <c r="F50" s="2">
-        <v>687.06500000000005</v>
-      </c>
-      <c r="G50" s="2">
-        <v>687.09900000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="15">
-        <v>50</v>
-      </c>
-      <c r="B51" s="16">
-        <v>685.60050000000001</v>
-      </c>
-      <c r="C51" s="2">
-        <v>687.09699999999998</v>
-      </c>
-      <c r="D51" s="2">
-        <v>687.072</v>
-      </c>
-      <c r="E51" s="2">
-        <v>687.053</v>
-      </c>
-      <c r="F51" s="2">
-        <v>687.077</v>
-      </c>
-      <c r="G51" s="2">
-        <v>687.11199999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="15">
-        <v>51</v>
-      </c>
-      <c r="B52" s="16">
-        <v>685.62450000000001</v>
-      </c>
-      <c r="C52" s="2">
-        <v>687.10500000000002</v>
-      </c>
-      <c r="D52" s="2">
-        <v>687.07899999999995</v>
-      </c>
-      <c r="E52" s="2">
-        <v>687.06399999999996</v>
-      </c>
-      <c r="F52" s="2">
-        <v>687.08799999999997</v>
-      </c>
-      <c r="G52" s="2">
-        <v>687.12099999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F49F3E-4A7D-4028-B0AB-919205DD2DF3}">
-  <dimension ref="A1:G52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="7" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>685.35749999999996</v>
-      </c>
-      <c r="C2" s="17">
-        <v>686.87300000000005</v>
-      </c>
-      <c r="D2" s="18">
-        <v>686.75199999999995</v>
-      </c>
-      <c r="E2" s="12">
-        <v>686.85599999999999</v>
-      </c>
-      <c r="F2" s="18">
-        <v>686.803</v>
-      </c>
-      <c r="G2" s="18">
-        <v>686.83399999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>685.3605</v>
-      </c>
-      <c r="C3" s="17">
-        <v>686.88400000000001</v>
-      </c>
-      <c r="D3" s="18">
-        <v>686.75699999999995</v>
-      </c>
-      <c r="E3" s="12">
-        <v>686.86699999999996</v>
-      </c>
-      <c r="F3" s="18">
-        <v>686.81600000000003</v>
-      </c>
-      <c r="G3" s="18">
-        <v>686.846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>685.37350000000004</v>
-      </c>
-      <c r="C4" s="17">
-        <v>686.89300000000003</v>
-      </c>
-      <c r="D4" s="18">
-        <v>686.78399999999999</v>
-      </c>
-      <c r="E4" s="12">
-        <v>686.88</v>
-      </c>
-      <c r="F4" s="18">
-        <v>686.83</v>
-      </c>
-      <c r="G4" s="18">
-        <v>686.86500000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>685.38149999999996</v>
-      </c>
-      <c r="C5" s="17">
-        <v>686.91700000000003</v>
-      </c>
-      <c r="D5" s="18">
-        <v>686.79</v>
-      </c>
-      <c r="E5" s="12">
-        <v>686.88400000000001</v>
-      </c>
-      <c r="F5" s="18">
-        <v>686.84</v>
-      </c>
-      <c r="G5" s="18">
-        <v>686.88300000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>685.37800000000004</v>
-      </c>
-      <c r="C6" s="17">
-        <v>686.91600000000005</v>
-      </c>
-      <c r="D6" s="18">
-        <v>686.78599999999994</v>
-      </c>
-      <c r="E6" s="12">
-        <v>686.88099999999997</v>
-      </c>
-      <c r="F6" s="18">
-        <v>686.846</v>
-      </c>
-      <c r="G6" s="18">
-        <v>686.88300000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>685.37099999999998</v>
-      </c>
-      <c r="C7" s="17">
-        <v>686.91899999999998</v>
-      </c>
-      <c r="D7" s="18">
-        <v>686.78899999999999</v>
-      </c>
-      <c r="E7" s="12">
-        <v>686.88300000000004</v>
-      </c>
-      <c r="F7" s="18">
-        <v>686.84500000000003</v>
-      </c>
-      <c r="G7" s="18">
-        <v>686.88699999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>685.37199999999996</v>
-      </c>
-      <c r="C8" s="17">
-        <v>686.91399999999999</v>
-      </c>
-      <c r="D8" s="18">
-        <v>686.78399999999999</v>
-      </c>
-      <c r="E8" s="12">
-        <v>686.88099999999997</v>
-      </c>
-      <c r="F8" s="18">
-        <v>686.846</v>
-      </c>
-      <c r="G8" s="18">
-        <v>686.88499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>685.39350000000002</v>
-      </c>
-      <c r="C9" s="17">
-        <v>686.923</v>
-      </c>
-      <c r="D9" s="18">
-        <v>686.79100000000005</v>
-      </c>
-      <c r="E9" s="12">
-        <v>686.88499999999999</v>
-      </c>
-      <c r="F9" s="18">
-        <v>686.85400000000004</v>
-      </c>
-      <c r="G9" s="18">
-        <v>686.88800000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>685.41750000000002</v>
-      </c>
-      <c r="C10" s="17">
-        <v>686.93899999999996</v>
-      </c>
-      <c r="D10" s="18">
-        <v>686.80799999999999</v>
-      </c>
-      <c r="E10" s="12">
-        <v>686.9</v>
-      </c>
-      <c r="F10" s="18">
-        <v>686.87300000000005</v>
-      </c>
-      <c r="G10" s="18">
-        <v>686.90099999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>685.42700000000002</v>
-      </c>
-      <c r="C11" s="17">
-        <v>686.95899999999995</v>
-      </c>
-      <c r="D11" s="18">
-        <v>686.82899999999995</v>
-      </c>
-      <c r="E11" s="12">
-        <v>686.923</v>
-      </c>
-      <c r="F11" s="18">
-        <v>686.89499999999998</v>
-      </c>
-      <c r="G11" s="18">
-        <v>686.92399999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>685.43349999999998</v>
-      </c>
-      <c r="C12" s="17">
-        <v>686.97500000000002</v>
-      </c>
-      <c r="D12" s="18">
-        <v>686.84</v>
-      </c>
-      <c r="E12" s="12">
-        <v>686.93700000000001</v>
-      </c>
-      <c r="F12" s="18">
-        <v>686.90899999999999</v>
-      </c>
-      <c r="G12" s="18">
-        <v>686.94299999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>685.45050000000003</v>
-      </c>
-      <c r="C13" s="17">
-        <v>686.98299999999995</v>
-      </c>
-      <c r="D13" s="18">
-        <v>686.87</v>
-      </c>
-      <c r="E13" s="12">
-        <v>686.94600000000003</v>
-      </c>
-      <c r="F13" s="18">
-        <v>686.92</v>
-      </c>
-      <c r="G13" s="18">
-        <v>686.95399999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>685.45849999999996</v>
-      </c>
-      <c r="C14" s="17">
-        <v>686.98900000000003</v>
-      </c>
-      <c r="D14" s="18">
-        <v>686.875</v>
-      </c>
-      <c r="E14" s="12">
-        <v>686.952</v>
-      </c>
-      <c r="F14" s="18">
-        <v>686.92499999999995</v>
-      </c>
-      <c r="G14" s="18">
-        <v>686.96500000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>685.45749999999998</v>
-      </c>
-      <c r="C15" s="17">
-        <v>686.98500000000001</v>
-      </c>
-      <c r="D15" s="18">
-        <v>686.87199999999996</v>
-      </c>
-      <c r="E15" s="12">
-        <v>686.947</v>
-      </c>
-      <c r="F15" s="18">
-        <v>686.92700000000002</v>
-      </c>
-      <c r="G15" s="18">
-        <v>687.02200000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>685.44550000000004</v>
-      </c>
-      <c r="C16" s="17">
-        <v>686.98299999999995</v>
-      </c>
-      <c r="D16" s="18">
-        <v>686.87</v>
-      </c>
-      <c r="E16" s="12">
-        <v>686.94600000000003</v>
-      </c>
-      <c r="F16" s="18">
-        <v>686.92899999999997</v>
-      </c>
-      <c r="G16" s="18">
-        <v>687.02099999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>685.44299999999998</v>
-      </c>
-      <c r="C17" s="17">
-        <v>686.97400000000005</v>
-      </c>
-      <c r="D17" s="18">
-        <v>686.86199999999997</v>
-      </c>
-      <c r="E17" s="12">
-        <v>686.93899999999996</v>
-      </c>
-      <c r="F17" s="18">
-        <v>686.923</v>
-      </c>
-      <c r="G17" s="18">
-        <v>687.01499999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>685.428</v>
-      </c>
-      <c r="C18" s="17">
-        <v>686.96799999999996</v>
-      </c>
-      <c r="D18" s="18">
-        <v>686.85400000000004</v>
-      </c>
-      <c r="E18" s="12">
-        <v>686.92899999999997</v>
-      </c>
-      <c r="F18" s="18">
-        <v>686.90899999999999</v>
-      </c>
-      <c r="G18" s="18">
-        <v>686.99699999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>685.447</v>
-      </c>
-      <c r="C19" s="17">
-        <v>686.97299999999996</v>
-      </c>
-      <c r="D19" s="18">
-        <v>686.86</v>
-      </c>
-      <c r="E19" s="12">
-        <v>686.93299999999999</v>
-      </c>
-      <c r="F19" s="18">
-        <v>686.91</v>
-      </c>
-      <c r="G19" s="18">
-        <v>686.995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>685.45150000000001</v>
-      </c>
-      <c r="C20" s="17">
-        <v>686.976</v>
-      </c>
-      <c r="D20" s="18">
-        <v>686.86099999999999</v>
-      </c>
-      <c r="E20" s="12">
-        <v>686.947</v>
-      </c>
-      <c r="F20" s="18">
-        <v>686.91700000000003</v>
-      </c>
-      <c r="G20" s="18">
-        <v>687.005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>685.47749999999996</v>
-      </c>
-      <c r="C21" s="17">
-        <v>687.00800000000004</v>
-      </c>
-      <c r="D21" s="18">
-        <v>686.88900000000001</v>
-      </c>
-      <c r="E21" s="12">
-        <v>686.96299999999997</v>
-      </c>
-      <c r="F21" s="18">
-        <v>686.93700000000001</v>
-      </c>
-      <c r="G21" s="18">
-        <v>687.02700000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>685.4905</v>
-      </c>
-      <c r="C22" s="17">
-        <v>687.02599999999995</v>
-      </c>
-      <c r="D22" s="18">
-        <v>686.90700000000004</v>
-      </c>
-      <c r="E22" s="12">
-        <v>686.98299999999995</v>
-      </c>
-      <c r="F22" s="18">
-        <v>686.95600000000002</v>
-      </c>
-      <c r="G22" s="18">
-        <v>687.05499999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>685.49649999999997</v>
-      </c>
-      <c r="C23" s="17">
-        <v>687.04100000000005</v>
-      </c>
-      <c r="D23" s="18">
-        <v>686.91800000000001</v>
-      </c>
-      <c r="E23" s="12">
-        <v>686.99599999999998</v>
-      </c>
-      <c r="F23" s="18">
-        <v>686.96799999999996</v>
-      </c>
-      <c r="G23" s="18">
-        <v>687.07</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <v>685.51499999999999</v>
-      </c>
-      <c r="C24" s="17">
-        <v>687.04899999999998</v>
-      </c>
-      <c r="D24" s="18">
-        <v>686.92499999999995</v>
-      </c>
-      <c r="E24" s="12">
-        <v>687.00400000000002</v>
-      </c>
-      <c r="F24" s="18">
-        <v>686.98400000000004</v>
-      </c>
-      <c r="G24" s="18">
-        <v>687.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <v>685.51400000000001</v>
-      </c>
-      <c r="C25" s="17">
-        <v>687.04899999999998</v>
-      </c>
-      <c r="D25" s="18">
-        <v>686.92399999999998</v>
-      </c>
-      <c r="E25" s="12">
-        <v>687.00300000000004</v>
-      </c>
-      <c r="F25" s="18">
-        <v>686.98599999999999</v>
-      </c>
-      <c r="G25" s="18">
-        <v>687.077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <v>685.505</v>
-      </c>
-      <c r="C26" s="17">
-        <v>687.04399999999998</v>
-      </c>
-      <c r="D26" s="18">
-        <v>686.92100000000005</v>
-      </c>
-      <c r="E26" s="12">
-        <v>686.99199999999996</v>
-      </c>
-      <c r="F26" s="18">
-        <v>686.98299999999995</v>
-      </c>
-      <c r="G26" s="18">
-        <v>687.072</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <v>685.48249999999996</v>
-      </c>
-      <c r="C27" s="17">
-        <v>687.03499999999997</v>
-      </c>
-      <c r="D27" s="18">
-        <v>686.90599999999995</v>
-      </c>
-      <c r="E27" s="12">
-        <v>686.98299999999995</v>
-      </c>
-      <c r="F27" s="18">
-        <v>686.96900000000005</v>
-      </c>
-      <c r="G27" s="18">
-        <v>687.06100000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>685.47400000000005</v>
-      </c>
-      <c r="C28" s="17">
-        <v>687.01900000000001</v>
-      </c>
-      <c r="D28" s="18">
-        <v>686.89499999999998</v>
-      </c>
-      <c r="E28" s="12">
-        <v>686.96900000000005</v>
-      </c>
-      <c r="F28" s="18">
-        <v>686.95699999999999</v>
-      </c>
-      <c r="G28" s="18">
-        <v>687.05100000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11">
-        <v>685.46799999999996</v>
-      </c>
-      <c r="C29" s="17">
-        <v>687.00800000000004</v>
-      </c>
-      <c r="D29" s="18">
-        <v>686.89</v>
-      </c>
-      <c r="E29" s="12">
-        <v>686.96500000000003</v>
-      </c>
-      <c r="F29" s="18">
-        <v>686.95100000000002</v>
-      </c>
-      <c r="G29" s="18">
-        <v>687.04399999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <v>685.47950000000003</v>
-      </c>
-      <c r="C30" s="17">
-        <v>687.00800000000004</v>
-      </c>
-      <c r="D30" s="18">
-        <v>686.89200000000005</v>
-      </c>
-      <c r="E30" s="12">
-        <v>686.96900000000005</v>
-      </c>
-      <c r="F30" s="18">
-        <v>686.952</v>
-      </c>
-      <c r="G30" s="18">
-        <v>687.04600000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <v>685.49350000000004</v>
-      </c>
-      <c r="C31" s="17">
-        <v>687.024</v>
-      </c>
-      <c r="D31" s="18">
-        <v>686.9</v>
-      </c>
-      <c r="E31" s="12">
-        <v>686.976</v>
-      </c>
-      <c r="F31" s="18">
-        <v>686.96600000000001</v>
-      </c>
-      <c r="G31" s="18">
-        <v>687.05399999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>685.49249999999995</v>
-      </c>
-      <c r="C32" s="17">
-        <v>687.04300000000001</v>
-      </c>
-      <c r="D32" s="18">
-        <v>686.91300000000001</v>
-      </c>
-      <c r="E32" s="12">
-        <v>686.99199999999996</v>
-      </c>
-      <c r="F32" s="18">
-        <v>686.97500000000002</v>
-      </c>
-      <c r="G32" s="18">
-        <v>687.06799999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <v>685.51250000000005</v>
-      </c>
-      <c r="C33" s="17">
-        <v>687.05700000000002</v>
-      </c>
-      <c r="D33" s="18">
-        <v>686.92499999999995</v>
-      </c>
-      <c r="E33" s="12">
-        <v>687.00099999999998</v>
-      </c>
-      <c r="F33" s="18">
-        <v>686.99</v>
-      </c>
-      <c r="G33" s="18">
-        <v>687.08100000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <v>685.52</v>
-      </c>
-      <c r="C34" s="17">
-        <v>687.06799999999998</v>
-      </c>
-      <c r="D34" s="18">
-        <v>686.94100000000003</v>
-      </c>
-      <c r="E34" s="12">
-        <v>687.01599999999996</v>
-      </c>
-      <c r="F34" s="18">
-        <v>686.97900000000004</v>
-      </c>
-      <c r="G34" s="18">
-        <v>687.09500000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11">
-        <v>685.53599999999994</v>
-      </c>
-      <c r="C35" s="17">
-        <v>687.07500000000005</v>
-      </c>
-      <c r="D35" s="18">
-        <v>686.94899999999996</v>
-      </c>
-      <c r="E35" s="12">
-        <v>687.02800000000002</v>
-      </c>
-      <c r="F35" s="18">
-        <v>686.99099999999999</v>
-      </c>
-      <c r="G35" s="18">
-        <v>687.10500000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11">
-        <v>685.55</v>
-      </c>
-      <c r="C36" s="17">
-        <v>687.08600000000001</v>
-      </c>
-      <c r="D36" s="18">
-        <v>686.96400000000006</v>
-      </c>
-      <c r="E36" s="12">
-        <v>687.04</v>
-      </c>
-      <c r="F36" s="18">
-        <v>687.00400000000002</v>
-      </c>
-      <c r="G36" s="18">
-        <v>687.11699999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11">
-        <v>685.56399999999996</v>
-      </c>
-      <c r="C37" s="17">
-        <v>687.10299999999995</v>
-      </c>
-      <c r="D37" s="18">
-        <v>686.97299999999996</v>
-      </c>
-      <c r="E37" s="12">
-        <v>687.05200000000002</v>
-      </c>
-      <c r="F37" s="18">
-        <v>687.01499999999999</v>
-      </c>
-      <c r="G37" s="18">
-        <v>687.13400000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11">
-        <v>685.57449999999994</v>
-      </c>
-      <c r="C38" s="17">
-        <v>687.10400000000004</v>
-      </c>
-      <c r="D38" s="18">
-        <v>686.97400000000005</v>
-      </c>
-      <c r="E38" s="12">
-        <v>687.06</v>
-      </c>
-      <c r="F38" s="18">
-        <v>687.01800000000003</v>
-      </c>
-      <c r="G38" s="18">
-        <v>687.14700000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11">
-        <v>685.57749999999999</v>
-      </c>
-      <c r="C39" s="17">
-        <v>687.11400000000003</v>
-      </c>
-      <c r="D39" s="18">
-        <v>686.98699999999997</v>
-      </c>
-      <c r="E39" s="12">
-        <v>687.06899999999996</v>
-      </c>
-      <c r="F39" s="18">
-        <v>687.02300000000002</v>
-      </c>
-      <c r="G39" s="18">
-        <v>687.15300000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11">
-        <v>685.57899999999995</v>
-      </c>
-      <c r="C40" s="17">
-        <v>687.11199999999997</v>
-      </c>
-      <c r="D40" s="18">
-        <v>687</v>
-      </c>
-      <c r="E40" s="12">
-        <v>687.07600000000002</v>
-      </c>
-      <c r="F40" s="18">
-        <v>687.01599999999996</v>
-      </c>
-      <c r="G40" s="18">
-        <v>687.14800000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11">
-        <v>685.57349999999997</v>
-      </c>
-      <c r="C41" s="17">
-        <v>687.11099999999999</v>
-      </c>
-      <c r="D41" s="18">
-        <v>686.99599999999998</v>
-      </c>
-      <c r="E41" s="12">
-        <v>687.07100000000003</v>
-      </c>
-      <c r="F41" s="18">
-        <v>687.01</v>
-      </c>
-      <c r="G41" s="18">
-        <v>687.14200000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11">
-        <v>685.5625</v>
-      </c>
-      <c r="C42" s="17">
-        <v>687.1</v>
-      </c>
-      <c r="D42" s="18">
-        <v>686.98500000000001</v>
-      </c>
-      <c r="E42" s="12">
-        <v>687.06299999999999</v>
-      </c>
-      <c r="F42" s="18">
-        <v>686.99099999999999</v>
-      </c>
-      <c r="G42" s="18">
-        <v>687.12400000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-      <c r="B43" s="11">
-        <v>685.54849999999999</v>
-      </c>
-      <c r="C43" s="17">
-        <v>687.09299999999996</v>
-      </c>
-      <c r="D43" s="18">
-        <v>686.97799999999995</v>
-      </c>
-      <c r="E43" s="12">
-        <v>687.05799999999999</v>
-      </c>
-      <c r="F43" s="18">
-        <v>686.98400000000004</v>
-      </c>
-      <c r="G43" s="18">
-        <v>687.11800000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
-      <c r="B44" s="11">
-        <v>685.54750000000001</v>
-      </c>
-      <c r="C44" s="17">
-        <v>687.08799999999997</v>
-      </c>
-      <c r="D44" s="18">
-        <v>686.97400000000005</v>
-      </c>
-      <c r="E44" s="12">
-        <v>687.05600000000004</v>
-      </c>
-      <c r="F44" s="18">
-        <v>686.99599999999998</v>
-      </c>
-      <c r="G44" s="18">
-        <v>687.11500000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11">
-        <v>685.54700000000003</v>
-      </c>
-      <c r="C45" s="17">
-        <v>687.08399999999995</v>
-      </c>
-      <c r="D45" s="18">
-        <v>686.97299999999996</v>
-      </c>
-      <c r="E45" s="12">
-        <v>687.05600000000004</v>
-      </c>
-      <c r="F45" s="18">
-        <v>686.99</v>
-      </c>
-      <c r="G45" s="18">
-        <v>687.10900000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="9">
-        <v>45</v>
-      </c>
-      <c r="B46" s="11">
-        <v>685.55600000000004</v>
-      </c>
-      <c r="C46" s="17">
-        <v>687.096</v>
-      </c>
-      <c r="D46" s="18">
-        <v>686.98</v>
-      </c>
-      <c r="E46" s="12">
-        <v>687.06299999999999</v>
-      </c>
-      <c r="F46" s="18">
-        <v>687.00099999999998</v>
-      </c>
-      <c r="G46" s="18">
-        <v>687.12800000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
-      <c r="B47" s="11">
-        <v>685.56399999999996</v>
-      </c>
-      <c r="C47" s="17">
-        <v>687.11099999999999</v>
-      </c>
-      <c r="D47" s="18">
-        <v>686.99800000000005</v>
-      </c>
-      <c r="E47" s="12">
-        <v>687.072</v>
-      </c>
-      <c r="F47" s="18">
-        <v>687.00900000000001</v>
-      </c>
-      <c r="G47" s="18">
-        <v>687.13699999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
-      <c r="B48" s="11">
-        <v>685.5675</v>
-      </c>
-      <c r="C48" s="17">
-        <v>687.10799999999995</v>
-      </c>
-      <c r="D48" s="18">
-        <v>687.00199999999995</v>
-      </c>
-      <c r="E48" s="12">
-        <v>687.07899999999995</v>
-      </c>
-      <c r="F48" s="18">
-        <v>687.01599999999996</v>
-      </c>
-      <c r="G48" s="18">
-        <v>687.14300000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11">
-        <v>685.57500000000005</v>
-      </c>
-      <c r="C49" s="17">
-        <v>687.11800000000005</v>
-      </c>
-      <c r="D49" s="18">
-        <v>687.00300000000004</v>
-      </c>
-      <c r="E49" s="12">
-        <v>687.08500000000004</v>
-      </c>
-      <c r="F49" s="18">
-        <v>687.024</v>
-      </c>
-      <c r="G49" s="18">
-        <v>687.14800000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11">
-        <v>685.57950000000005</v>
-      </c>
-      <c r="C50" s="17">
-        <v>687.11699999999996</v>
-      </c>
-      <c r="D50" s="18">
-        <v>686.99900000000002</v>
-      </c>
-      <c r="E50" s="12">
-        <v>687.08100000000002</v>
-      </c>
-      <c r="F50" s="18">
-        <v>687.02700000000004</v>
-      </c>
-      <c r="G50" s="18">
-        <v>687.149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11">
-        <v>685.60050000000001</v>
-      </c>
-      <c r="C51" s="17">
-        <v>687.12900000000002</v>
-      </c>
-      <c r="D51" s="18">
-        <v>687.00900000000001</v>
-      </c>
-      <c r="E51" s="12">
-        <v>687.09199999999998</v>
-      </c>
-      <c r="F51" s="18">
-        <v>687.03700000000003</v>
-      </c>
-      <c r="G51" s="18">
-        <v>687.15899999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15">
-      <c r="A52" s="9">
-        <v>51</v>
-      </c>
-      <c r="B52" s="11">
-        <v>685.62450000000001</v>
-      </c>
-      <c r="C52" s="17">
-        <v>687.13800000000003</v>
-      </c>
-      <c r="D52" s="18">
-        <v>687.02599999999995</v>
-      </c>
-      <c r="E52" s="12">
-        <v>687.10699999999997</v>
-      </c>
-      <c r="F52" s="18">
-        <v>687.05399999999997</v>
-      </c>
-      <c r="G52" s="18">
-        <v>687.17100000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/diferenca_altimetria_clean.xlsx
+++ b/diferenca_altimetria_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobat\Documents\GitHub\Artigo-RTX-Moto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50754212-56A6-4098-A092-FFF2F228AD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E471B0D-EDA4-45A8-A5BF-8AA6CED620E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="2160" windowWidth="20640" windowHeight="11160" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
   </bookViews>
@@ -33,21 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NIV</t>
   </si>
   <si>
     <t>PT</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
   </si>
   <si>
     <t>M1</t>
@@ -382,9 +373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F4EE44-6091-4A63-88C2-C87744478CAA}">
   <dimension ref="A1:H990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -413,15 +404,9 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="6">
@@ -431,23 +416,17 @@
         <v>685.35749999999996</v>
       </c>
       <c r="C2" s="2">
-        <v>686.81299999999987</v>
+        <v>687.3128999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>686.81319999999982</v>
+        <v>687.30072499999994</v>
       </c>
       <c r="E2" s="2">
-        <v>686.82959999999991</v>
-      </c>
-      <c r="F2" s="2">
-        <v>687.3128999999999</v>
-      </c>
-      <c r="G2" s="2">
-        <v>687.30072499999994</v>
-      </c>
-      <c r="H2" s="5">
         <v>687.32210000000009</v>
       </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="6">
@@ -457,23 +436,17 @@
         <v>685.3605</v>
       </c>
       <c r="C3" s="2">
-        <v>686.83079999999995</v>
+        <v>687.32619999999986</v>
       </c>
       <c r="D3" s="2">
-        <v>686.82690000000002</v>
+        <v>687.31927500000006</v>
       </c>
       <c r="E3" s="2">
-        <v>686.8411000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>687.32619999999986</v>
-      </c>
-      <c r="G3" s="2">
-        <v>687.31927500000006</v>
-      </c>
-      <c r="H3" s="5">
         <v>687.34629999999993</v>
       </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="6">
@@ -483,23 +456,17 @@
         <v>685.37350000000004</v>
       </c>
       <c r="C4" s="2">
-        <v>686.83720000000005</v>
+        <v>687.33720000000017</v>
       </c>
       <c r="D4" s="2">
-        <v>686.83969999999999</v>
+        <v>687.33045000000016</v>
       </c>
       <c r="E4" s="2">
-        <v>686.85509999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>687.33720000000017</v>
-      </c>
-      <c r="G4" s="2">
-        <v>687.33045000000016</v>
-      </c>
-      <c r="H4" s="5">
         <v>687.35020000000009</v>
       </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="6">
@@ -509,23 +476,17 @@
         <v>685.38149999999996</v>
       </c>
       <c r="C5" s="2">
-        <v>686.84360000000004</v>
+        <v>687.34809999999993</v>
       </c>
       <c r="D5" s="2">
-        <v>686.84500000000003</v>
+        <v>687.33870000000002</v>
       </c>
       <c r="E5" s="2">
-        <v>686.8601000000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>687.34809999999993</v>
-      </c>
-      <c r="G5" s="2">
-        <v>687.33870000000002</v>
-      </c>
-      <c r="H5" s="5">
         <v>687.3572999999999</v>
       </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="6">
@@ -535,23 +496,17 @@
         <v>685.37800000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>686.8429000000001</v>
+        <v>687.34349999999995</v>
       </c>
       <c r="D6" s="2">
-        <v>686.84640000000002</v>
+        <v>687.33922499999994</v>
       </c>
       <c r="E6" s="2">
-        <v>686.85790000000009</v>
-      </c>
-      <c r="F6" s="2">
-        <v>687.34349999999995</v>
-      </c>
-      <c r="G6" s="2">
-        <v>687.33922499999994</v>
-      </c>
-      <c r="H6" s="5">
         <v>687.35610000000008</v>
       </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="6">
@@ -561,23 +516,17 @@
         <v>685.37099999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>686.84260000000006</v>
+        <v>687.34899999999993</v>
       </c>
       <c r="D7" s="2">
-        <v>686.84390000000008</v>
+        <v>687.33057500000007</v>
       </c>
       <c r="E7" s="2">
-        <v>686.86120000000005</v>
-      </c>
-      <c r="F7" s="2">
-        <v>687.34899999999993</v>
-      </c>
-      <c r="G7" s="2">
-        <v>687.33057500000007</v>
-      </c>
-      <c r="H7" s="5">
         <v>687.34789999999998</v>
       </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="6">
@@ -587,23 +536,17 @@
         <v>685.37199999999996</v>
       </c>
       <c r="C8" s="2">
-        <v>686.85149999999999</v>
+        <v>687.34749999999997</v>
       </c>
       <c r="D8" s="2">
-        <v>686.85290000000009</v>
+        <v>687.3365</v>
       </c>
       <c r="E8" s="2">
-        <v>686.86360000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>687.34749999999997</v>
-      </c>
-      <c r="G8" s="2">
-        <v>687.3365</v>
-      </c>
-      <c r="H8" s="5">
         <v>687.35310000000004</v>
       </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="6">
@@ -613,23 +556,17 @@
         <v>685.39350000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>686.86460000000011</v>
+        <v>687.36320000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>686.86710000000005</v>
+        <v>687.35425000000009</v>
       </c>
       <c r="E9" s="2">
-        <v>686.87260000000003</v>
-      </c>
-      <c r="F9" s="2">
-        <v>687.36320000000001</v>
-      </c>
-      <c r="G9" s="2">
-        <v>687.35425000000009</v>
-      </c>
-      <c r="H9" s="5">
         <v>687.36579999999992</v>
       </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="6">
@@ -639,23 +576,17 @@
         <v>685.41750000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>686.88580000000002</v>
+        <v>687.38550000000009</v>
       </c>
       <c r="D10" s="2">
-        <v>686.8889999999999</v>
+        <v>687.37555000000009</v>
       </c>
       <c r="E10" s="2">
-        <v>686.88760000000002</v>
-      </c>
-      <c r="F10" s="2">
-        <v>687.38550000000009</v>
-      </c>
-      <c r="G10" s="2">
-        <v>687.37555000000009</v>
-      </c>
-      <c r="H10" s="5">
         <v>687.3830999999999</v>
       </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="6">
@@ -665,23 +596,17 @@
         <v>685.42700000000002</v>
       </c>
       <c r="C11" s="2">
-        <v>686.89959999999996</v>
+        <v>687.39409999999998</v>
       </c>
       <c r="D11" s="2">
-        <v>686.90520000000004</v>
+        <v>687.38819999999998</v>
       </c>
       <c r="E11" s="2">
-        <v>686.90530000000001</v>
-      </c>
-      <c r="F11" s="2">
-        <v>687.39409999999998</v>
-      </c>
-      <c r="G11" s="2">
-        <v>687.38819999999998</v>
-      </c>
-      <c r="H11" s="5">
         <v>687.40440000000001</v>
       </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="6">
@@ -691,23 +616,17 @@
         <v>685.43349999999998</v>
       </c>
       <c r="C12" s="2">
-        <v>686.90710000000001</v>
+        <v>687.40819999999997</v>
       </c>
       <c r="D12" s="2">
-        <v>686.91430000000003</v>
+        <v>687.40124999999989</v>
       </c>
       <c r="E12" s="2">
-        <v>686.9190000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>687.40819999999997</v>
-      </c>
-      <c r="G12" s="2">
-        <v>687.40124999999989</v>
-      </c>
-      <c r="H12" s="5">
         <v>687.4233999999999</v>
       </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="6">
@@ -717,23 +636,17 @@
         <v>685.45050000000003</v>
       </c>
       <c r="C13" s="2">
-        <v>686.92100000000005</v>
+        <v>687.4156999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>686.92920000000004</v>
+        <v>687.40774999999996</v>
       </c>
       <c r="E13" s="2">
-        <v>686.93259999999998</v>
-      </c>
-      <c r="F13" s="2">
-        <v>687.4156999999999</v>
-      </c>
-      <c r="G13" s="2">
-        <v>687.40774999999996</v>
-      </c>
-      <c r="H13" s="5">
         <v>687.42960000000005</v>
       </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="6">
@@ -743,23 +656,17 @@
         <v>685.45849999999996</v>
       </c>
       <c r="C14" s="2">
-        <v>686.92979999999989</v>
+        <v>687.42719999999997</v>
       </c>
       <c r="D14" s="2">
-        <v>686.93830000000003</v>
+        <v>687.4151250000001</v>
       </c>
       <c r="E14" s="2">
-        <v>686.93790000000013</v>
-      </c>
-      <c r="F14" s="2">
-        <v>687.42719999999997</v>
-      </c>
-      <c r="G14" s="2">
-        <v>687.4151250000001</v>
-      </c>
-      <c r="H14" s="5">
         <v>687.43629999999996</v>
       </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="6">
@@ -769,23 +676,17 @@
         <v>685.45749999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>686.93360000000007</v>
+        <v>687.41880000000003</v>
       </c>
       <c r="D15" s="2">
-        <v>686.94089999999994</v>
+        <v>687.41814999999997</v>
       </c>
       <c r="E15" s="2">
-        <v>686.9393</v>
-      </c>
-      <c r="F15" s="2">
-        <v>687.41880000000003</v>
-      </c>
-      <c r="G15" s="2">
-        <v>687.41814999999997</v>
-      </c>
-      <c r="H15" s="5">
         <v>687.43979999999988</v>
       </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="6">
@@ -795,23 +696,17 @@
         <v>685.44550000000004</v>
       </c>
       <c r="C16" s="2">
-        <v>686.92609999999991</v>
+        <v>687.41930000000002</v>
       </c>
       <c r="D16" s="2">
-        <v>686.93409999999994</v>
+        <v>687.40917500000012</v>
       </c>
       <c r="E16" s="2">
-        <v>686.93179999999995</v>
-      </c>
-      <c r="F16" s="2">
-        <v>687.41930000000002</v>
-      </c>
-      <c r="G16" s="2">
-        <v>687.40917500000012</v>
-      </c>
-      <c r="H16" s="5">
         <v>687.42759999999998</v>
       </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="6">
@@ -821,23 +716,17 @@
         <v>685.44299999999998</v>
       </c>
       <c r="C17" s="2">
-        <v>686.92319999999995</v>
+        <v>687.40430000000003</v>
       </c>
       <c r="D17" s="2">
-        <v>686.92489999999998</v>
+        <v>687.39662500000009</v>
       </c>
       <c r="E17" s="2">
-        <v>686.923</v>
-      </c>
-      <c r="F17" s="2">
-        <v>687.40430000000003</v>
-      </c>
-      <c r="G17" s="2">
-        <v>687.39662500000009</v>
-      </c>
-      <c r="H17" s="5">
         <v>687.41079999999999</v>
       </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="6">
@@ -847,23 +736,17 @@
         <v>685.428</v>
       </c>
       <c r="C18" s="2">
-        <v>686.91340000000014</v>
+        <v>687.40190000000007</v>
       </c>
       <c r="D18" s="2">
-        <v>686.91910000000007</v>
+        <v>687.39037500000006</v>
       </c>
       <c r="E18" s="2">
-        <v>686.91830000000004</v>
-      </c>
-      <c r="F18" s="2">
-        <v>687.40190000000007</v>
-      </c>
-      <c r="G18" s="2">
-        <v>687.39037500000006</v>
-      </c>
-      <c r="H18" s="5">
         <v>687.40240000000006</v>
       </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="6">
@@ -873,23 +756,17 @@
         <v>685.447</v>
       </c>
       <c r="C19" s="2">
-        <v>686.92250000000001</v>
+        <v>687.40079999999989</v>
       </c>
       <c r="D19" s="2">
-        <v>686.9276000000001</v>
+        <v>687.397425</v>
       </c>
       <c r="E19" s="2">
-        <v>686.9248</v>
-      </c>
-      <c r="F19" s="2">
-        <v>687.40079999999989</v>
-      </c>
-      <c r="G19" s="2">
-        <v>687.397425</v>
-      </c>
-      <c r="H19" s="5">
         <v>687.4117</v>
       </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" s="6">
@@ -899,23 +776,17 @@
         <v>685.45150000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>686.93240000000003</v>
+        <v>687.42349999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>686.93929999999989</v>
+        <v>687.42059999999992</v>
       </c>
       <c r="E20" s="2">
-        <v>686.9375</v>
-      </c>
-      <c r="F20" s="2">
-        <v>687.42349999999999</v>
-      </c>
-      <c r="G20" s="2">
-        <v>687.42059999999992</v>
-      </c>
-      <c r="H20" s="5">
         <v>687.42939999999999</v>
       </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="6">
@@ -925,23 +796,17 @@
         <v>685.47749999999996</v>
       </c>
       <c r="C21" s="2">
-        <v>686.95660000000009</v>
+        <v>687.44920000000002</v>
       </c>
       <c r="D21" s="2">
-        <v>686.95999999999992</v>
+        <v>687.43832500000008</v>
       </c>
       <c r="E21" s="2">
-        <v>686.95920000000001</v>
-      </c>
-      <c r="F21" s="2">
-        <v>687.44920000000002</v>
-      </c>
-      <c r="G21" s="2">
-        <v>687.43832500000008</v>
-      </c>
-      <c r="H21" s="5">
         <v>687.44710000000009</v>
       </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="6">
@@ -951,23 +816,17 @@
         <v>685.4905</v>
       </c>
       <c r="C22" s="2">
-        <v>686.96949999999993</v>
+        <v>687.45249999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>686.9769</v>
+        <v>687.45387500000004</v>
       </c>
       <c r="E22" s="2">
-        <v>686.97739999999999</v>
-      </c>
-      <c r="F22" s="2">
-        <v>687.45249999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>687.45387500000004</v>
-      </c>
-      <c r="H22" s="5">
         <v>687.47350000000006</v>
       </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="6">
@@ -977,23 +836,17 @@
         <v>685.49649999999997</v>
       </c>
       <c r="C23" s="2">
-        <v>686.97820000000013</v>
+        <v>687.4692</v>
       </c>
       <c r="D23" s="2">
-        <v>686.98489999999993</v>
+        <v>687.46267499999999</v>
       </c>
       <c r="E23" s="2">
-        <v>686.98860000000002</v>
-      </c>
-      <c r="F23" s="2">
-        <v>687.4692</v>
-      </c>
-      <c r="G23" s="2">
-        <v>687.46267499999999</v>
-      </c>
-      <c r="H23" s="5">
         <v>687.48559999999998</v>
       </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" s="6">
@@ -1003,23 +856,17 @@
         <v>685.51499999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>686.98799999999994</v>
+        <v>687.47569999999996</v>
       </c>
       <c r="D24" s="2">
-        <v>686.99329999999998</v>
+        <v>687.47002499999996</v>
       </c>
       <c r="E24" s="2">
-        <v>686.9973</v>
-      </c>
-      <c r="F24" s="2">
-        <v>687.47569999999996</v>
-      </c>
-      <c r="G24" s="2">
-        <v>687.47002499999996</v>
-      </c>
-      <c r="H24" s="5">
         <v>687.48810000000014</v>
       </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25" s="6">
@@ -1029,23 +876,17 @@
         <v>685.51400000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>686.98849999999993</v>
+        <v>687.48289999999997</v>
       </c>
       <c r="D25" s="2">
-        <v>686.99270000000001</v>
+        <v>687.47559999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>686.9944999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>687.48289999999997</v>
-      </c>
-      <c r="G25" s="2">
-        <v>687.47559999999999</v>
-      </c>
-      <c r="H25" s="5">
         <v>687.48860000000002</v>
       </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="6">
@@ -1055,23 +896,17 @@
         <v>685.505</v>
       </c>
       <c r="C26" s="2">
-        <v>686.9833000000001</v>
+        <v>687.46879999999999</v>
       </c>
       <c r="D26" s="2">
-        <v>686.98879999999997</v>
+        <v>687.46420000000012</v>
       </c>
       <c r="E26" s="2">
-        <v>686.98490000000004</v>
-      </c>
-      <c r="F26" s="2">
-        <v>687.46879999999999</v>
-      </c>
-      <c r="G26" s="2">
-        <v>687.46420000000012</v>
-      </c>
-      <c r="H26" s="5">
         <v>687.47919999999999</v>
       </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="6">
@@ -1081,23 +916,17 @@
         <v>685.48249999999996</v>
       </c>
       <c r="C27" s="2">
-        <v>686.96989999999994</v>
+        <v>687.45619999999997</v>
       </c>
       <c r="D27" s="2">
-        <v>686.97530000000006</v>
+        <v>687.44797500000004</v>
       </c>
       <c r="E27" s="2">
-        <v>686.97140000000002</v>
-      </c>
-      <c r="F27" s="2">
-        <v>687.45619999999997</v>
-      </c>
-      <c r="G27" s="2">
-        <v>687.44797500000004</v>
-      </c>
-      <c r="H27" s="5">
         <v>687.46310000000005</v>
       </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="6">
@@ -1107,23 +936,17 @@
         <v>685.47400000000005</v>
       </c>
       <c r="C28" s="2">
-        <v>686.96060000000011</v>
+        <v>687.43979999999999</v>
       </c>
       <c r="D28" s="2">
-        <v>686.96629999999993</v>
+        <v>687.43630000000007</v>
       </c>
       <c r="E28" s="2">
-        <v>686.96259999999995</v>
-      </c>
-      <c r="F28" s="2">
-        <v>687.43979999999999</v>
-      </c>
-      <c r="G28" s="2">
-        <v>687.43630000000007</v>
-      </c>
-      <c r="H28" s="5">
         <v>687.45</v>
       </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="6">
@@ -1133,23 +956,17 @@
         <v>685.46799999999996</v>
       </c>
       <c r="C29" s="2">
-        <v>686.95669999999996</v>
+        <v>687.43939999999998</v>
       </c>
       <c r="D29" s="2">
-        <v>686.96660000000008</v>
+        <v>687.43290000000002</v>
       </c>
       <c r="E29" s="2">
-        <v>686.95920000000001</v>
-      </c>
-      <c r="F29" s="2">
-        <v>687.43939999999998</v>
-      </c>
-      <c r="G29" s="2">
-        <v>687.43290000000002</v>
-      </c>
-      <c r="H29" s="5">
         <v>687.44799999999998</v>
       </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1">
       <c r="A30" s="6">
@@ -1159,23 +976,17 @@
         <v>685.47950000000003</v>
       </c>
       <c r="C30" s="2">
-        <v>686.96229999999991</v>
+        <v>687.44979999999998</v>
       </c>
       <c r="D30" s="2">
-        <v>686.97059999999988</v>
+        <v>687.44145000000003</v>
       </c>
       <c r="E30" s="2">
-        <v>686.96379999999988</v>
-      </c>
-      <c r="F30" s="2">
-        <v>687.44979999999998</v>
-      </c>
-      <c r="G30" s="2">
-        <v>687.44145000000003</v>
-      </c>
-      <c r="H30" s="5">
         <v>687.45519999999999</v>
       </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1">
       <c r="A31" s="6">
@@ -1185,23 +996,17 @@
         <v>685.49350000000004</v>
       </c>
       <c r="C31" s="2">
-        <v>686.97450000000003</v>
+        <v>687.45799999999997</v>
       </c>
       <c r="D31" s="2">
-        <v>686.9846</v>
+        <v>687.44994999999994</v>
       </c>
       <c r="E31" s="2">
-        <v>686.97439999999995</v>
-      </c>
-      <c r="F31" s="2">
-        <v>687.45799999999997</v>
-      </c>
-      <c r="G31" s="2">
-        <v>687.44994999999994</v>
-      </c>
-      <c r="H31" s="5">
         <v>687.46300000000008</v>
       </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1">
       <c r="A32" s="6">
@@ -1211,23 +1016,17 @@
         <v>685.49249999999995</v>
       </c>
       <c r="C32" s="2">
-        <v>686.98220000000003</v>
+        <v>687.47770000000003</v>
       </c>
       <c r="D32" s="2">
-        <v>686.9905</v>
+        <v>687.45802500000002</v>
       </c>
       <c r="E32" s="2">
-        <v>686.9860000000001</v>
-      </c>
-      <c r="F32" s="2">
-        <v>687.47770000000003</v>
-      </c>
-      <c r="G32" s="2">
-        <v>687.45802500000002</v>
-      </c>
-      <c r="H32" s="5">
         <v>687.4778</v>
       </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1">
       <c r="A33" s="6">
@@ -1237,23 +1036,17 @@
         <v>685.51250000000005</v>
       </c>
       <c r="C33" s="2">
-        <v>687.00299999999993</v>
+        <v>687.47759999999994</v>
       </c>
       <c r="D33" s="2">
-        <v>687.00440000000003</v>
+        <v>687.47622499999989</v>
       </c>
       <c r="E33" s="2">
-        <v>686.99930000000006</v>
-      </c>
-      <c r="F33" s="2">
-        <v>687.47759999999994</v>
-      </c>
-      <c r="G33" s="2">
-        <v>687.47622499999989</v>
-      </c>
-      <c r="H33" s="5">
         <v>687.49459999999999</v>
       </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1">
       <c r="A34" s="6">
@@ -1263,23 +1056,17 @@
         <v>685.52</v>
       </c>
       <c r="C34" s="2">
-        <v>687.01340000000005</v>
+        <v>687.50490000000002</v>
       </c>
       <c r="D34" s="2">
-        <v>687.01949999999988</v>
+        <v>687.48835000000008</v>
       </c>
       <c r="E34" s="2">
-        <v>687.0132000000001</v>
-      </c>
-      <c r="F34" s="2">
-        <v>687.50490000000002</v>
-      </c>
-      <c r="G34" s="2">
-        <v>687.48835000000008</v>
-      </c>
-      <c r="H34" s="5">
         <v>687.50700000000006</v>
       </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" customHeight="1">
       <c r="A35" s="6">
@@ -1289,23 +1076,17 @@
         <v>685.53599999999994</v>
       </c>
       <c r="C35" s="2">
-        <v>687.02790000000005</v>
+        <v>687.51930000000004</v>
       </c>
       <c r="D35" s="2">
-        <v>687.03039999999999</v>
+        <v>687.5060749999999</v>
       </c>
       <c r="E35" s="2">
-        <v>687.0243999999999</v>
-      </c>
-      <c r="F35" s="2">
-        <v>687.51930000000004</v>
-      </c>
-      <c r="G35" s="2">
-        <v>687.5060749999999</v>
-      </c>
-      <c r="H35" s="5">
         <v>687.52240000000006</v>
       </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="6">
@@ -1315,23 +1096,17 @@
         <v>685.55</v>
       </c>
       <c r="C36" s="2">
-        <v>687.04269999999997</v>
+        <v>687.53359999999998</v>
       </c>
       <c r="D36" s="2">
-        <v>687.04499999999985</v>
+        <v>687.52170000000001</v>
       </c>
       <c r="E36" s="2">
-        <v>687.03639999999996</v>
-      </c>
-      <c r="F36" s="2">
-        <v>687.53359999999998</v>
-      </c>
-      <c r="G36" s="2">
-        <v>687.52170000000001</v>
-      </c>
-      <c r="H36" s="5">
         <v>687.54020000000003</v>
       </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1">
       <c r="A37" s="6">
@@ -1341,23 +1116,17 @@
         <v>685.56399999999996</v>
       </c>
       <c r="C37" s="2">
-        <v>687.05349999999987</v>
+        <v>687.54130000000009</v>
       </c>
       <c r="D37" s="2">
-        <v>687.05640000000017</v>
+        <v>687.53487500000006</v>
       </c>
       <c r="E37" s="2">
-        <v>687.05010000000004</v>
-      </c>
-      <c r="F37" s="2">
-        <v>687.54130000000009</v>
-      </c>
-      <c r="G37" s="2">
-        <v>687.53487500000006</v>
-      </c>
-      <c r="H37" s="5">
         <v>687.55160000000001</v>
       </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="6">
@@ -1367,23 +1136,17 @@
         <v>685.57449999999994</v>
       </c>
       <c r="C38" s="2">
-        <v>687.05500000000006</v>
+        <v>687.5553000000001</v>
       </c>
       <c r="D38" s="2">
-        <v>687.06000000000006</v>
+        <v>687.54362500000002</v>
       </c>
       <c r="E38" s="2">
-        <v>687.05669999999986</v>
-      </c>
-      <c r="F38" s="2">
-        <v>687.5553000000001</v>
-      </c>
-      <c r="G38" s="2">
-        <v>687.54362500000002</v>
-      </c>
-      <c r="H38" s="5">
         <v>687.56150000000002</v>
       </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1">
       <c r="A39" s="6">
@@ -1393,23 +1156,17 @@
         <v>685.57749999999999</v>
       </c>
       <c r="C39" s="2">
-        <v>687.06060000000002</v>
+        <v>687.5560999999999</v>
       </c>
       <c r="D39" s="2">
-        <v>687.06610000000001</v>
+        <v>687.54597499999988</v>
       </c>
       <c r="E39" s="2">
-        <v>687.06110000000012</v>
-      </c>
-      <c r="F39" s="2">
-        <v>687.5560999999999</v>
-      </c>
-      <c r="G39" s="2">
-        <v>687.54597499999988</v>
-      </c>
-      <c r="H39" s="5">
         <v>687.56629999999996</v>
       </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1">
       <c r="A40" s="6">
@@ -1419,23 +1176,17 @@
         <v>685.57899999999995</v>
       </c>
       <c r="C40" s="2">
-        <v>687.0571000000001</v>
+        <v>687.55420000000015</v>
       </c>
       <c r="D40" s="2">
-        <v>687.06200000000013</v>
+        <v>687.54510000000005</v>
       </c>
       <c r="E40" s="2">
-        <v>687.05669999999986</v>
-      </c>
-      <c r="F40" s="2">
-        <v>687.55420000000015</v>
-      </c>
-      <c r="G40" s="2">
-        <v>687.54510000000005</v>
-      </c>
-      <c r="H40" s="5">
         <v>687.5616</v>
       </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" customHeight="1">
       <c r="A41" s="6">
@@ -1445,23 +1196,17 @@
         <v>685.57349999999997</v>
       </c>
       <c r="C41" s="2">
-        <v>687.04910000000007</v>
+        <v>687.54179999999997</v>
       </c>
       <c r="D41" s="2">
-        <v>687.05560000000003</v>
+        <v>687.530575</v>
       </c>
       <c r="E41" s="2">
-        <v>687.04909999999995</v>
-      </c>
-      <c r="F41" s="2">
-        <v>687.54179999999997</v>
-      </c>
-      <c r="G41" s="2">
-        <v>687.530575</v>
-      </c>
-      <c r="H41" s="5">
         <v>687.54719999999998</v>
       </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="12.75" customHeight="1">
       <c r="A42" s="6">
@@ -1471,23 +1216,17 @@
         <v>685.5625</v>
       </c>
       <c r="C42" s="2">
-        <v>687.03709999999978</v>
+        <v>687.5329999999999</v>
       </c>
       <c r="D42" s="2">
-        <v>687.04409999999996</v>
+        <v>687.52074999999991</v>
       </c>
       <c r="E42" s="2">
-        <v>687.03590000000008</v>
-      </c>
-      <c r="F42" s="2">
-        <v>687.5329999999999</v>
-      </c>
-      <c r="G42" s="2">
-        <v>687.52074999999991</v>
-      </c>
-      <c r="H42" s="5">
         <v>687.53610000000003</v>
       </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1">
       <c r="A43" s="6">
@@ -1497,23 +1236,17 @@
         <v>685.54849999999999</v>
       </c>
       <c r="C43" s="2">
-        <v>687.03290000000004</v>
+        <v>687.52170000000001</v>
       </c>
       <c r="D43" s="2">
-        <v>687.04310000000009</v>
+        <v>687.50727499999994</v>
       </c>
       <c r="E43" s="2">
-        <v>687.03179999999998</v>
-      </c>
-      <c r="F43" s="2">
-        <v>687.52170000000001</v>
-      </c>
-      <c r="G43" s="2">
-        <v>687.50727499999994</v>
-      </c>
-      <c r="H43" s="5">
         <v>687.52139999999997</v>
       </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="A44" s="6">
@@ -1523,23 +1256,17 @@
         <v>685.54750000000001</v>
       </c>
       <c r="C44" s="2">
-        <v>687.02980000000002</v>
+        <v>687.52320000000009</v>
       </c>
       <c r="D44" s="2">
-        <v>687.04150000000004</v>
+        <v>687.50515000000007</v>
       </c>
       <c r="E44" s="2">
-        <v>687.0326</v>
-      </c>
-      <c r="F44" s="2">
-        <v>687.52320000000009</v>
-      </c>
-      <c r="G44" s="2">
-        <v>687.50515000000007</v>
-      </c>
-      <c r="H44" s="5">
         <v>687.51940000000002</v>
       </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="12.75" customHeight="1">
       <c r="A45" s="6">
@@ -1549,23 +1276,17 @@
         <v>685.54700000000003</v>
       </c>
       <c r="C45" s="2">
-        <v>687.03189999999995</v>
+        <v>687.5184999999999</v>
       </c>
       <c r="D45" s="2">
-        <v>687.04499999999996</v>
+        <v>687.51322499999992</v>
       </c>
       <c r="E45" s="2">
-        <v>687.03439999999989</v>
-      </c>
-      <c r="F45" s="2">
-        <v>687.5184999999999</v>
-      </c>
-      <c r="G45" s="2">
-        <v>687.51322499999992</v>
-      </c>
-      <c r="H45" s="5">
         <v>687.53050000000007</v>
       </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" customHeight="1">
       <c r="A46" s="6">
@@ -1575,23 +1296,17 @@
         <v>685.55600000000004</v>
       </c>
       <c r="C46" s="2">
-        <v>687.03779999999995</v>
+        <v>687.53180000000009</v>
       </c>
       <c r="D46" s="2">
-        <v>687.05089999999996</v>
+        <v>687.51582499999995</v>
       </c>
       <c r="E46" s="2">
-        <v>687.04450000000008</v>
-      </c>
-      <c r="F46" s="2">
-        <v>687.53180000000009</v>
-      </c>
-      <c r="G46" s="2">
-        <v>687.51582499999995</v>
-      </c>
-      <c r="H46" s="5">
         <v>687.53449999999998</v>
       </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" customHeight="1">
       <c r="A47" s="6">
@@ -1601,23 +1316,17 @@
         <v>685.56399999999996</v>
       </c>
       <c r="C47" s="2">
-        <v>687.04729999999995</v>
+        <v>687.53419999999983</v>
       </c>
       <c r="D47" s="2">
-        <v>687.05800000000022</v>
+        <v>687.52840000000003</v>
       </c>
       <c r="E47" s="2">
-        <v>687.05140000000006</v>
-      </c>
-      <c r="F47" s="2">
-        <v>687.53419999999983</v>
-      </c>
-      <c r="G47" s="2">
-        <v>687.52840000000003</v>
-      </c>
-      <c r="H47" s="5">
         <v>687.54380000000003</v>
       </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="12.75" customHeight="1">
       <c r="A48" s="6">
@@ -1627,23 +1336,17 @@
         <v>685.5675</v>
       </c>
       <c r="C48" s="2">
-        <v>687.05080000000009</v>
+        <v>687.53989999999999</v>
       </c>
       <c r="D48" s="2">
-        <v>687.06220000000008</v>
+        <v>687.5341249999999</v>
       </c>
       <c r="E48" s="2">
-        <v>687.05769999999995</v>
-      </c>
-      <c r="F48" s="2">
-        <v>687.53989999999999</v>
-      </c>
-      <c r="G48" s="2">
-        <v>687.5341249999999</v>
-      </c>
-      <c r="H48" s="5">
         <v>687.55020000000013</v>
       </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="12.75" customHeight="1">
       <c r="A49" s="6">
@@ -1653,23 +1356,17 @@
         <v>685.57500000000005</v>
       </c>
       <c r="C49" s="2">
-        <v>687.06090000000006</v>
+        <v>687.54589999999996</v>
       </c>
       <c r="D49" s="2">
-        <v>687.06999999999994</v>
+        <v>687.53572499999996</v>
       </c>
       <c r="E49" s="2">
-        <v>687.0655999999999</v>
-      </c>
-      <c r="F49" s="2">
-        <v>687.54589999999996</v>
-      </c>
-      <c r="G49" s="2">
-        <v>687.53572499999996</v>
-      </c>
-      <c r="H49" s="5">
         <v>687.55120000000011</v>
       </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="12.75" customHeight="1">
       <c r="A50" s="6">
@@ -1679,23 +1376,17 @@
         <v>685.57950000000005</v>
       </c>
       <c r="C50" s="2">
-        <v>687.06570000000011</v>
+        <v>687.55269999999996</v>
       </c>
       <c r="D50" s="2">
-        <v>687.07550000000015</v>
+        <v>687.54785000000004</v>
       </c>
       <c r="E50" s="2">
-        <v>687.07060000000001</v>
-      </c>
-      <c r="F50" s="2">
-        <v>687.55269999999996</v>
-      </c>
-      <c r="G50" s="2">
-        <v>687.54785000000004</v>
-      </c>
-      <c r="H50" s="5">
         <v>687.56040000000007</v>
       </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="12.75" customHeight="1">
       <c r="A51" s="6">
@@ -1705,23 +1396,17 @@
         <v>685.60050000000001</v>
       </c>
       <c r="C51" s="2">
-        <v>687.0784000000001</v>
+        <v>687.57339999999999</v>
       </c>
       <c r="D51" s="2">
-        <v>687.0874</v>
+        <v>687.55962499999998</v>
       </c>
       <c r="E51" s="2">
-        <v>687.0829</v>
-      </c>
-      <c r="F51" s="2">
-        <v>687.57339999999999</v>
-      </c>
-      <c r="G51" s="2">
-        <v>687.55962499999998</v>
-      </c>
-      <c r="H51" s="5">
         <v>687.5680000000001</v>
       </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="12.75" customHeight="1">
       <c r="A52" s="6">
@@ -1731,23 +1416,17 @@
         <v>685.62450000000001</v>
       </c>
       <c r="C52" s="2">
-        <v>687.08960000000002</v>
+        <v>687.58029999999997</v>
       </c>
       <c r="D52" s="2">
-        <v>687.09820000000002</v>
+        <v>687.57297500000004</v>
       </c>
       <c r="E52" s="2">
-        <v>687.09460000000013</v>
-      </c>
-      <c r="F52" s="2">
-        <v>687.58029999999997</v>
-      </c>
-      <c r="G52" s="2">
-        <v>687.57297500000004</v>
-      </c>
-      <c r="H52" s="5">
         <v>687.58400000000006</v>
       </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>

--- a/diferenca_altimetria_clean.xlsx
+++ b/diferenca_altimetria_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobat\Documents\GitHub\Artigo-RTX-Moto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E471B0D-EDA4-45A8-A5BF-8AA6CED620E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18DF0FE-4560-4F78-8432-74B84578750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="2160" windowWidth="20640" windowHeight="11160" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
   </bookViews>
   <sheets>
     <sheet name="G1xG2xG3xM1xM2xM3" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NIV</t>
   </si>
@@ -41,13 +41,10 @@
     <t>PT</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>G</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -373,9 +370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F4EE44-6091-4A63-88C2-C87744478CAA}">
   <dimension ref="A1:H990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:E52"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -401,9 +398,7 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -416,14 +411,12 @@
         <v>685.35749999999996</v>
       </c>
       <c r="C2" s="2">
-        <v>687.3128999999999</v>
+        <v>686.81859999999995</v>
       </c>
       <c r="D2" s="2">
-        <v>687.30072499999994</v>
-      </c>
-      <c r="E2" s="2">
-        <v>687.32210000000009</v>
-      </c>
+        <v>687.31190833333346</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -436,14 +429,12 @@
         <v>685.3605</v>
       </c>
       <c r="C3" s="2">
-        <v>687.32619999999986</v>
+        <v>686.83293333333347</v>
       </c>
       <c r="D3" s="2">
-        <v>687.31927500000006</v>
-      </c>
-      <c r="E3" s="2">
-        <v>687.34629999999993</v>
-      </c>
+        <v>687.33059166666646</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="5"/>
@@ -456,14 +447,12 @@
         <v>685.37350000000004</v>
       </c>
       <c r="C4" s="2">
-        <v>687.33720000000017</v>
+        <v>686.84400000000005</v>
       </c>
       <c r="D4" s="2">
-        <v>687.33045000000016</v>
-      </c>
-      <c r="E4" s="2">
-        <v>687.35020000000009</v>
-      </c>
+        <v>687.33928333333336</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="5"/>
@@ -476,14 +465,12 @@
         <v>685.38149999999996</v>
       </c>
       <c r="C5" s="2">
-        <v>687.34809999999993</v>
+        <v>686.84956666666676</v>
       </c>
       <c r="D5" s="2">
-        <v>687.33870000000002</v>
-      </c>
-      <c r="E5" s="2">
-        <v>687.3572999999999</v>
-      </c>
+        <v>687.34803333333332</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
@@ -496,14 +483,12 @@
         <v>685.37800000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>687.34349999999995</v>
+        <v>686.84906666666666</v>
       </c>
       <c r="D6" s="2">
-        <v>687.33922499999994</v>
-      </c>
-      <c r="E6" s="2">
-        <v>687.35610000000008</v>
-      </c>
+        <v>687.34627499999999</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="5"/>
@@ -516,14 +501,12 @@
         <v>685.37099999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>687.34899999999993</v>
+        <v>686.84923333333336</v>
       </c>
       <c r="D7" s="2">
-        <v>687.33057500000007</v>
-      </c>
-      <c r="E7" s="2">
-        <v>687.34789999999998</v>
-      </c>
+        <v>687.34249166666666</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="5"/>
@@ -536,14 +519,12 @@
         <v>685.37199999999996</v>
       </c>
       <c r="C8" s="2">
-        <v>687.34749999999997</v>
+        <v>686.85600000000011</v>
       </c>
       <c r="D8" s="2">
-        <v>687.3365</v>
-      </c>
-      <c r="E8" s="2">
-        <v>687.35310000000004</v>
-      </c>
+        <v>687.34569999999997</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="5"/>
@@ -556,14 +537,12 @@
         <v>685.39350000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>687.36320000000001</v>
+        <v>686.86810000000014</v>
       </c>
       <c r="D9" s="2">
-        <v>687.35425000000009</v>
-      </c>
-      <c r="E9" s="2">
-        <v>687.36579999999992</v>
-      </c>
+        <v>687.36108333333334</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
@@ -576,14 +555,12 @@
         <v>685.41750000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>687.38550000000009</v>
+        <v>686.88746666666668</v>
       </c>
       <c r="D10" s="2">
-        <v>687.37555000000009</v>
-      </c>
-      <c r="E10" s="2">
-        <v>687.3830999999999</v>
-      </c>
+        <v>687.38138333333336</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="5"/>
@@ -596,14 +573,12 @@
         <v>685.42700000000002</v>
       </c>
       <c r="C11" s="2">
-        <v>687.39409999999998</v>
+        <v>686.90336666666656</v>
       </c>
       <c r="D11" s="2">
-        <v>687.38819999999998</v>
-      </c>
-      <c r="E11" s="2">
-        <v>687.40440000000001</v>
-      </c>
+        <v>687.39556666666658</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
@@ -616,14 +591,12 @@
         <v>685.43349999999998</v>
       </c>
       <c r="C12" s="2">
-        <v>687.40819999999997</v>
+        <v>686.91346666666675</v>
       </c>
       <c r="D12" s="2">
-        <v>687.40124999999989</v>
-      </c>
-      <c r="E12" s="2">
-        <v>687.4233999999999</v>
-      </c>
+        <v>687.41094999999984</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="5"/>
@@ -636,14 +609,12 @@
         <v>685.45050000000003</v>
       </c>
       <c r="C13" s="2">
-        <v>687.4156999999999</v>
+        <v>686.92759999999998</v>
       </c>
       <c r="D13" s="2">
-        <v>687.40774999999996</v>
-      </c>
-      <c r="E13" s="2">
-        <v>687.42960000000005</v>
-      </c>
+        <v>687.41768333333323</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
@@ -656,14 +627,12 @@
         <v>685.45849999999996</v>
       </c>
       <c r="C14" s="2">
-        <v>687.42719999999997</v>
+        <v>686.93533333333335</v>
       </c>
       <c r="D14" s="2">
-        <v>687.4151250000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>687.43629999999996</v>
-      </c>
+        <v>687.42620833333331</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="5"/>
@@ -676,14 +645,12 @@
         <v>685.45749999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>687.41880000000003</v>
+        <v>686.93793333333326</v>
       </c>
       <c r="D15" s="2">
-        <v>687.41814999999997</v>
-      </c>
-      <c r="E15" s="2">
-        <v>687.43979999999988</v>
-      </c>
+        <v>687.42558333333329</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="5"/>
@@ -696,14 +663,12 @@
         <v>685.44550000000004</v>
       </c>
       <c r="C16" s="2">
-        <v>687.41930000000002</v>
+        <v>686.93066666666664</v>
       </c>
       <c r="D16" s="2">
-        <v>687.40917500000012</v>
-      </c>
-      <c r="E16" s="2">
-        <v>687.42759999999998</v>
-      </c>
+        <v>687.41869166666675</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="5"/>
@@ -716,14 +681,12 @@
         <v>685.44299999999998</v>
       </c>
       <c r="C17" s="2">
-        <v>687.40430000000003</v>
+        <v>686.92369999999994</v>
       </c>
       <c r="D17" s="2">
-        <v>687.39662500000009</v>
-      </c>
-      <c r="E17" s="2">
-        <v>687.41079999999999</v>
-      </c>
+        <v>687.40390833333333</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="5"/>
@@ -736,14 +699,12 @@
         <v>685.428</v>
       </c>
       <c r="C18" s="2">
-        <v>687.40190000000007</v>
+        <v>686.91693333333342</v>
       </c>
       <c r="D18" s="2">
-        <v>687.39037500000006</v>
-      </c>
-      <c r="E18" s="2">
-        <v>687.40240000000006</v>
-      </c>
+        <v>687.39822500000002</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="5"/>
@@ -756,14 +717,12 @@
         <v>685.447</v>
       </c>
       <c r="C19" s="2">
-        <v>687.40079999999989</v>
+        <v>686.92496666666682</v>
       </c>
       <c r="D19" s="2">
-        <v>687.397425</v>
-      </c>
-      <c r="E19" s="2">
-        <v>687.4117</v>
-      </c>
+        <v>687.40330833333337</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
@@ -776,14 +735,12 @@
         <v>685.45150000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>687.42349999999999</v>
+        <v>686.93639999999994</v>
       </c>
       <c r="D20" s="2">
-        <v>687.42059999999992</v>
-      </c>
-      <c r="E20" s="2">
-        <v>687.42939999999999</v>
-      </c>
+        <v>687.42449999999997</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="5"/>
@@ -796,14 +753,12 @@
         <v>685.47749999999996</v>
       </c>
       <c r="C21" s="2">
-        <v>687.44920000000002</v>
+        <v>686.95859999999993</v>
       </c>
       <c r="D21" s="2">
-        <v>687.43832500000008</v>
-      </c>
-      <c r="E21" s="2">
-        <v>687.44710000000009</v>
-      </c>
+        <v>687.44487500000014</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="5"/>
@@ -816,14 +771,12 @@
         <v>685.4905</v>
       </c>
       <c r="C22" s="2">
-        <v>687.45249999999999</v>
+        <v>686.9745999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>687.45387500000004</v>
-      </c>
-      <c r="E22" s="2">
-        <v>687.47350000000006</v>
-      </c>
+        <v>687.45995833333336</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="5"/>
@@ -836,14 +789,12 @@
         <v>685.49649999999997</v>
       </c>
       <c r="C23" s="2">
-        <v>687.4692</v>
+        <v>686.98390000000006</v>
       </c>
       <c r="D23" s="2">
-        <v>687.46267499999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>687.48559999999998</v>
-      </c>
+        <v>687.47249166666677</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="5"/>
@@ -856,14 +807,12 @@
         <v>685.51499999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>687.47569999999996</v>
+        <v>686.9928666666666</v>
       </c>
       <c r="D24" s="2">
-        <v>687.47002499999996</v>
-      </c>
-      <c r="E24" s="2">
-        <v>687.48810000000014</v>
-      </c>
+        <v>687.47794166666665</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="5"/>
@@ -876,14 +825,12 @@
         <v>685.51400000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>687.48289999999997</v>
+        <v>686.99189999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>687.47559999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>687.48860000000002</v>
-      </c>
+        <v>687.48236666666662</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="5"/>
@@ -896,14 +843,12 @@
         <v>685.505</v>
       </c>
       <c r="C26" s="2">
-        <v>687.46879999999999</v>
+        <v>686.98566666666659</v>
       </c>
       <c r="D26" s="2">
-        <v>687.46420000000012</v>
-      </c>
-      <c r="E26" s="2">
-        <v>687.47919999999999</v>
-      </c>
+        <v>687.47073333333321</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="5"/>
@@ -916,14 +861,12 @@
         <v>685.48249999999996</v>
       </c>
       <c r="C27" s="2">
-        <v>687.45619999999997</v>
+        <v>686.97220000000004</v>
       </c>
       <c r="D27" s="2">
-        <v>687.44797500000004</v>
-      </c>
-      <c r="E27" s="2">
-        <v>687.46310000000005</v>
-      </c>
+        <v>687.45575833333339</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="5"/>
@@ -936,14 +879,12 @@
         <v>685.47400000000005</v>
       </c>
       <c r="C28" s="2">
-        <v>687.43979999999999</v>
+        <v>686.96316666666655</v>
       </c>
       <c r="D28" s="2">
-        <v>687.43630000000007</v>
-      </c>
-      <c r="E28" s="2">
-        <v>687.45</v>
-      </c>
+        <v>687.44203333333337</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="5"/>
@@ -956,14 +897,12 @@
         <v>685.46799999999996</v>
       </c>
       <c r="C29" s="2">
-        <v>687.43939999999998</v>
+        <v>686.9608333333332</v>
       </c>
       <c r="D29" s="2">
-        <v>687.43290000000002</v>
-      </c>
-      <c r="E29" s="2">
-        <v>687.44799999999998</v>
-      </c>
+        <v>687.44009999999992</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="5"/>
@@ -976,14 +915,12 @@
         <v>685.47950000000003</v>
       </c>
       <c r="C30" s="2">
-        <v>687.44979999999998</v>
+        <v>686.96556666666663</v>
       </c>
       <c r="D30" s="2">
-        <v>687.44145000000003</v>
-      </c>
-      <c r="E30" s="2">
-        <v>687.45519999999999</v>
-      </c>
+        <v>687.44881666666663</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="5"/>
@@ -996,14 +933,12 @@
         <v>685.49350000000004</v>
       </c>
       <c r="C31" s="2">
-        <v>687.45799999999997</v>
+        <v>686.97783333333336</v>
       </c>
       <c r="D31" s="2">
-        <v>687.44994999999994</v>
-      </c>
-      <c r="E31" s="2">
-        <v>687.46300000000008</v>
-      </c>
+        <v>687.45698333333337</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="5"/>
@@ -1016,14 +951,12 @@
         <v>685.49249999999995</v>
       </c>
       <c r="C32" s="2">
-        <v>687.47770000000003</v>
+        <v>686.98623333333342</v>
       </c>
       <c r="D32" s="2">
-        <v>687.45802500000002</v>
-      </c>
-      <c r="E32" s="2">
-        <v>687.4778</v>
-      </c>
+        <v>687.47117500000002</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="5"/>
@@ -1036,14 +969,12 @@
         <v>685.51250000000005</v>
       </c>
       <c r="C33" s="2">
-        <v>687.47759999999994</v>
+        <v>687.00223333333327</v>
       </c>
       <c r="D33" s="2">
-        <v>687.47622499999989</v>
-      </c>
-      <c r="E33" s="2">
-        <v>687.49459999999999</v>
-      </c>
+        <v>687.4828083333332</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="5"/>
@@ -1056,14 +987,12 @@
         <v>685.52</v>
       </c>
       <c r="C34" s="2">
-        <v>687.50490000000002</v>
+        <v>687.01536666666664</v>
       </c>
       <c r="D34" s="2">
-        <v>687.48835000000008</v>
-      </c>
-      <c r="E34" s="2">
-        <v>687.50700000000006</v>
-      </c>
+        <v>687.50008333333335</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="5"/>
@@ -1076,14 +1005,12 @@
         <v>685.53599999999994</v>
       </c>
       <c r="C35" s="2">
-        <v>687.51930000000004</v>
+        <v>687.02756666666664</v>
       </c>
       <c r="D35" s="2">
-        <v>687.5060749999999</v>
-      </c>
-      <c r="E35" s="2">
-        <v>687.52240000000006</v>
-      </c>
+        <v>687.51592500000004</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="5"/>
@@ -1096,14 +1023,12 @@
         <v>685.55</v>
       </c>
       <c r="C36" s="2">
-        <v>687.53359999999998</v>
+        <v>687.0413666666667</v>
       </c>
       <c r="D36" s="2">
-        <v>687.52170000000001</v>
-      </c>
-      <c r="E36" s="2">
-        <v>687.54020000000003</v>
-      </c>
+        <v>687.53183333333334</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="5"/>
@@ -1116,14 +1041,12 @@
         <v>685.56399999999996</v>
       </c>
       <c r="C37" s="2">
-        <v>687.54130000000009</v>
+        <v>687.05333333333328</v>
       </c>
       <c r="D37" s="2">
-        <v>687.53487500000006</v>
-      </c>
-      <c r="E37" s="2">
-        <v>687.55160000000001</v>
-      </c>
+        <v>687.54259166666668</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="5"/>
@@ -1136,14 +1059,12 @@
         <v>685.57449999999994</v>
       </c>
       <c r="C38" s="2">
-        <v>687.5553000000001</v>
+        <v>687.05723333333333</v>
       </c>
       <c r="D38" s="2">
-        <v>687.54362500000002</v>
-      </c>
-      <c r="E38" s="2">
-        <v>687.56150000000002</v>
-      </c>
+        <v>687.55347500000005</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="5"/>
@@ -1156,14 +1077,12 @@
         <v>685.57749999999999</v>
       </c>
       <c r="C39" s="2">
-        <v>687.5560999999999</v>
+        <v>687.06260000000009</v>
       </c>
       <c r="D39" s="2">
-        <v>687.54597499999988</v>
-      </c>
-      <c r="E39" s="2">
-        <v>687.56629999999996</v>
-      </c>
+        <v>687.55612499999995</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="5"/>
@@ -1176,14 +1095,12 @@
         <v>685.57899999999995</v>
       </c>
       <c r="C40" s="2">
-        <v>687.55420000000015</v>
+        <v>687.05859999999996</v>
       </c>
       <c r="D40" s="2">
-        <v>687.54510000000005</v>
-      </c>
-      <c r="E40" s="2">
-        <v>687.5616</v>
-      </c>
+        <v>687.55363333333344</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="5"/>
@@ -1196,14 +1113,12 @@
         <v>685.57349999999997</v>
       </c>
       <c r="C41" s="2">
-        <v>687.54179999999997</v>
+        <v>687.05126666666672</v>
       </c>
       <c r="D41" s="2">
-        <v>687.530575</v>
-      </c>
-      <c r="E41" s="2">
-        <v>687.54719999999998</v>
-      </c>
+        <v>687.5398583333332</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="5"/>
@@ -1216,14 +1131,12 @@
         <v>685.5625</v>
       </c>
       <c r="C42" s="2">
-        <v>687.5329999999999</v>
+        <v>687.03903333333312</v>
       </c>
       <c r="D42" s="2">
-        <v>687.52074999999991</v>
-      </c>
-      <c r="E42" s="2">
-        <v>687.53610000000003</v>
-      </c>
+        <v>687.52994999999999</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="5"/>
@@ -1236,14 +1149,12 @@
         <v>685.54849999999999</v>
       </c>
       <c r="C43" s="2">
-        <v>687.52170000000001</v>
+        <v>687.03593333333322</v>
       </c>
       <c r="D43" s="2">
-        <v>687.50727499999994</v>
-      </c>
-      <c r="E43" s="2">
-        <v>687.52139999999997</v>
-      </c>
+        <v>687.51679166666656</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="5"/>
@@ -1256,14 +1167,12 @@
         <v>685.54750000000001</v>
       </c>
       <c r="C44" s="2">
-        <v>687.52320000000009</v>
+        <v>687.03463333333332</v>
       </c>
       <c r="D44" s="2">
-        <v>687.50515000000007</v>
-      </c>
-      <c r="E44" s="2">
-        <v>687.51940000000002</v>
-      </c>
+        <v>687.51591666666673</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="5"/>
@@ -1276,14 +1185,12 @@
         <v>685.54700000000003</v>
       </c>
       <c r="C45" s="2">
-        <v>687.5184999999999</v>
+        <v>687.03710000000001</v>
       </c>
       <c r="D45" s="2">
-        <v>687.51322499999992</v>
-      </c>
-      <c r="E45" s="2">
-        <v>687.53050000000007</v>
-      </c>
+        <v>687.52074166666659</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="5"/>
@@ -1296,14 +1203,12 @@
         <v>685.55600000000004</v>
       </c>
       <c r="C46" s="2">
-        <v>687.53180000000009</v>
+        <v>687.04439999999988</v>
       </c>
       <c r="D46" s="2">
-        <v>687.51582499999995</v>
-      </c>
-      <c r="E46" s="2">
-        <v>687.53449999999998</v>
-      </c>
+        <v>687.52737500000001</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="5"/>
@@ -1316,14 +1221,12 @@
         <v>685.56399999999996</v>
       </c>
       <c r="C47" s="2">
-        <v>687.53419999999983</v>
+        <v>687.05223333333345</v>
       </c>
       <c r="D47" s="2">
-        <v>687.52840000000003</v>
-      </c>
-      <c r="E47" s="2">
-        <v>687.54380000000003</v>
-      </c>
+        <v>687.53546666666659</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="5"/>
@@ -1336,14 +1239,12 @@
         <v>685.5675</v>
       </c>
       <c r="C48" s="2">
-        <v>687.53989999999999</v>
+        <v>687.05690000000004</v>
       </c>
       <c r="D48" s="2">
-        <v>687.5341249999999</v>
-      </c>
-      <c r="E48" s="2">
-        <v>687.55020000000013</v>
-      </c>
+        <v>687.54140833333338</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="5"/>
@@ -1356,14 +1257,12 @@
         <v>685.57500000000005</v>
       </c>
       <c r="C49" s="2">
-        <v>687.54589999999996</v>
+        <v>687.06550000000004</v>
       </c>
       <c r="D49" s="2">
-        <v>687.53572499999996</v>
-      </c>
-      <c r="E49" s="2">
-        <v>687.55120000000011</v>
-      </c>
+        <v>687.54427499999986</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="5"/>
@@ -1376,14 +1275,12 @@
         <v>685.57950000000005</v>
       </c>
       <c r="C50" s="2">
-        <v>687.55269999999996</v>
+        <v>687.07060000000001</v>
       </c>
       <c r="D50" s="2">
-        <v>687.54785000000004</v>
-      </c>
-      <c r="E50" s="2">
-        <v>687.56040000000007</v>
-      </c>
+        <v>687.55365000000018</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="5"/>
@@ -1396,14 +1293,12 @@
         <v>685.60050000000001</v>
       </c>
       <c r="C51" s="2">
-        <v>687.57339999999999</v>
+        <v>687.0829</v>
       </c>
       <c r="D51" s="2">
-        <v>687.55962499999998</v>
-      </c>
-      <c r="E51" s="2">
-        <v>687.5680000000001</v>
-      </c>
+        <v>687.56700833333343</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="5"/>
@@ -1416,14 +1311,12 @@
         <v>685.62450000000001</v>
       </c>
       <c r="C52" s="2">
-        <v>687.58029999999997</v>
+        <v>687.09413333333339</v>
       </c>
       <c r="D52" s="2">
-        <v>687.57297500000004</v>
-      </c>
-      <c r="E52" s="2">
-        <v>687.58400000000006</v>
-      </c>
+        <v>687.57909166666684</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="5"/>

--- a/diferenca_altimetria_clean.xlsx
+++ b/diferenca_altimetria_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobat\Documents\GitHub\Artigo-RTX-Moto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18DF0FE-4560-4F78-8432-74B84578750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50754212-56A6-4098-A092-FFF2F228AD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
+    <workbookView xWindow="-20520" yWindow="2160" windowWidth="20640" windowHeight="11160" xr2:uid="{349D031E-3E46-41B2-B993-5E9D517FC08B}"/>
   </bookViews>
   <sheets>
     <sheet name="G1xG2xG3xM1xM2xM3" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NIV</t>
   </si>
@@ -41,10 +41,22 @@
     <t>PT</t>
   </si>
   <si>
-    <t>G</t>
+    <t>G1</t>
   </si>
   <si>
-    <t>M</t>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
   </si>
 </sst>
 </file>
@@ -370,9 +382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F4EE44-6091-4A63-88C2-C87744478CAA}">
   <dimension ref="A1:H990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -398,10 +410,18 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="6">
@@ -411,15 +431,23 @@
         <v>685.35749999999996</v>
       </c>
       <c r="C2" s="2">
-        <v>686.81859999999995</v>
+        <v>686.81299999999987</v>
       </c>
       <c r="D2" s="2">
-        <v>687.31190833333346</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
+        <v>686.81319999999982</v>
+      </c>
+      <c r="E2" s="2">
+        <v>686.82959999999991</v>
+      </c>
+      <c r="F2" s="2">
+        <v>687.3128999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>687.30072499999994</v>
+      </c>
+      <c r="H2" s="5">
+        <v>687.32210000000009</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" s="6">
@@ -429,15 +457,23 @@
         <v>685.3605</v>
       </c>
       <c r="C3" s="2">
-        <v>686.83293333333347</v>
+        <v>686.83079999999995</v>
       </c>
       <c r="D3" s="2">
-        <v>687.33059166666646</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
+        <v>686.82690000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>686.8411000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>687.32619999999986</v>
+      </c>
+      <c r="G3" s="2">
+        <v>687.31927500000006</v>
+      </c>
+      <c r="H3" s="5">
+        <v>687.34629999999993</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="6">
@@ -447,15 +483,23 @@
         <v>685.37350000000004</v>
       </c>
       <c r="C4" s="2">
-        <v>686.84400000000005</v>
+        <v>686.83720000000005</v>
       </c>
       <c r="D4" s="2">
-        <v>687.33928333333336</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="5"/>
+        <v>686.83969999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>686.85509999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>687.33720000000017</v>
+      </c>
+      <c r="G4" s="2">
+        <v>687.33045000000016</v>
+      </c>
+      <c r="H4" s="5">
+        <v>687.35020000000009</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" s="6">
@@ -465,15 +509,23 @@
         <v>685.38149999999996</v>
       </c>
       <c r="C5" s="2">
-        <v>686.84956666666676</v>
+        <v>686.84360000000004</v>
       </c>
       <c r="D5" s="2">
-        <v>687.34803333333332</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
+        <v>686.84500000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>686.8601000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>687.34809999999993</v>
+      </c>
+      <c r="G5" s="2">
+        <v>687.33870000000002</v>
+      </c>
+      <c r="H5" s="5">
+        <v>687.3572999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" s="6">
@@ -483,15 +535,23 @@
         <v>685.37800000000004</v>
       </c>
       <c r="C6" s="2">
-        <v>686.84906666666666</v>
+        <v>686.8429000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>687.34627499999999</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="5"/>
+        <v>686.84640000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>686.85790000000009</v>
+      </c>
+      <c r="F6" s="2">
+        <v>687.34349999999995</v>
+      </c>
+      <c r="G6" s="2">
+        <v>687.33922499999994</v>
+      </c>
+      <c r="H6" s="5">
+        <v>687.35610000000008</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" s="6">
@@ -501,15 +561,23 @@
         <v>685.37099999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>686.84923333333336</v>
+        <v>686.84260000000006</v>
       </c>
       <c r="D7" s="2">
-        <v>687.34249166666666</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="5"/>
+        <v>686.84390000000008</v>
+      </c>
+      <c r="E7" s="2">
+        <v>686.86120000000005</v>
+      </c>
+      <c r="F7" s="2">
+        <v>687.34899999999993</v>
+      </c>
+      <c r="G7" s="2">
+        <v>687.33057500000007</v>
+      </c>
+      <c r="H7" s="5">
+        <v>687.34789999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="6">
@@ -519,15 +587,23 @@
         <v>685.37199999999996</v>
       </c>
       <c r="C8" s="2">
-        <v>686.85600000000011</v>
+        <v>686.85149999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>687.34569999999997</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5"/>
+        <v>686.85290000000009</v>
+      </c>
+      <c r="E8" s="2">
+        <v>686.86360000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>687.34749999999997</v>
+      </c>
+      <c r="G8" s="2">
+        <v>687.3365</v>
+      </c>
+      <c r="H8" s="5">
+        <v>687.35310000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9" s="6">
@@ -537,15 +613,23 @@
         <v>685.39350000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>686.86810000000014</v>
+        <v>686.86460000000011</v>
       </c>
       <c r="D9" s="2">
-        <v>687.36108333333334</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
+        <v>686.86710000000005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>686.87260000000003</v>
+      </c>
+      <c r="F9" s="2">
+        <v>687.36320000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>687.35425000000009</v>
+      </c>
+      <c r="H9" s="5">
+        <v>687.36579999999992</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10" s="6">
@@ -555,15 +639,23 @@
         <v>685.41750000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>686.88746666666668</v>
+        <v>686.88580000000002</v>
       </c>
       <c r="D10" s="2">
-        <v>687.38138333333336</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5"/>
+        <v>686.8889999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>686.88760000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>687.38550000000009</v>
+      </c>
+      <c r="G10" s="2">
+        <v>687.37555000000009</v>
+      </c>
+      <c r="H10" s="5">
+        <v>687.3830999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11" s="6">
@@ -573,15 +665,23 @@
         <v>685.42700000000002</v>
       </c>
       <c r="C11" s="2">
-        <v>686.90336666666656</v>
+        <v>686.89959999999996</v>
       </c>
       <c r="D11" s="2">
-        <v>687.39556666666658</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
+        <v>686.90520000000004</v>
+      </c>
+      <c r="E11" s="2">
+        <v>686.90530000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>687.39409999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>687.38819999999998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>687.40440000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12" s="6">
@@ -591,15 +691,23 @@
         <v>685.43349999999998</v>
       </c>
       <c r="C12" s="2">
-        <v>686.91346666666675</v>
+        <v>686.90710000000001</v>
       </c>
       <c r="D12" s="2">
-        <v>687.41094999999984</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
+        <v>686.91430000000003</v>
+      </c>
+      <c r="E12" s="2">
+        <v>686.9190000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>687.40819999999997</v>
+      </c>
+      <c r="G12" s="2">
+        <v>687.40124999999989</v>
+      </c>
+      <c r="H12" s="5">
+        <v>687.4233999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13" s="6">
@@ -609,15 +717,23 @@
         <v>685.45050000000003</v>
       </c>
       <c r="C13" s="2">
-        <v>686.92759999999998</v>
+        <v>686.92100000000005</v>
       </c>
       <c r="D13" s="2">
-        <v>687.41768333333323</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="5"/>
+        <v>686.92920000000004</v>
+      </c>
+      <c r="E13" s="2">
+        <v>686.93259999999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>687.4156999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>687.40774999999996</v>
+      </c>
+      <c r="H13" s="5">
+        <v>687.42960000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14" s="6">
@@ -627,15 +743,23 @@
         <v>685.45849999999996</v>
       </c>
       <c r="C14" s="2">
-        <v>686.93533333333335</v>
+        <v>686.92979999999989</v>
       </c>
       <c r="D14" s="2">
-        <v>687.42620833333331</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="5"/>
+        <v>686.93830000000003</v>
+      </c>
+      <c r="E14" s="2">
+        <v>686.93790000000013</v>
+      </c>
+      <c r="F14" s="2">
+        <v>687.42719999999997</v>
+      </c>
+      <c r="G14" s="2">
+        <v>687.4151250000001</v>
+      </c>
+      <c r="H14" s="5">
+        <v>687.43629999999996</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15" s="6">
@@ -645,15 +769,23 @@
         <v>685.45749999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>686.93793333333326</v>
+        <v>686.93360000000007</v>
       </c>
       <c r="D15" s="2">
-        <v>687.42558333333329</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
+        <v>686.94089999999994</v>
+      </c>
+      <c r="E15" s="2">
+        <v>686.9393</v>
+      </c>
+      <c r="F15" s="2">
+        <v>687.41880000000003</v>
+      </c>
+      <c r="G15" s="2">
+        <v>687.41814999999997</v>
+      </c>
+      <c r="H15" s="5">
+        <v>687.43979999999988</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16" s="6">
@@ -663,15 +795,23 @@
         <v>685.44550000000004</v>
       </c>
       <c r="C16" s="2">
-        <v>686.93066666666664</v>
+        <v>686.92609999999991</v>
       </c>
       <c r="D16" s="2">
-        <v>687.41869166666675</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="5"/>
+        <v>686.93409999999994</v>
+      </c>
+      <c r="E16" s="2">
+        <v>686.93179999999995</v>
+      </c>
+      <c r="F16" s="2">
+        <v>687.41930000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>687.40917500000012</v>
+      </c>
+      <c r="H16" s="5">
+        <v>687.42759999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17" s="6">
@@ -681,15 +821,23 @@
         <v>685.44299999999998</v>
       </c>
       <c r="C17" s="2">
-        <v>686.92369999999994</v>
+        <v>686.92319999999995</v>
       </c>
       <c r="D17" s="2">
-        <v>687.40390833333333</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
+        <v>686.92489999999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>686.923</v>
+      </c>
+      <c r="F17" s="2">
+        <v>687.40430000000003</v>
+      </c>
+      <c r="G17" s="2">
+        <v>687.39662500000009</v>
+      </c>
+      <c r="H17" s="5">
+        <v>687.41079999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="6">
@@ -699,15 +847,23 @@
         <v>685.428</v>
       </c>
       <c r="C18" s="2">
-        <v>686.91693333333342</v>
+        <v>686.91340000000014</v>
       </c>
       <c r="D18" s="2">
-        <v>687.39822500000002</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="5"/>
+        <v>686.91910000000007</v>
+      </c>
+      <c r="E18" s="2">
+        <v>686.91830000000004</v>
+      </c>
+      <c r="F18" s="2">
+        <v>687.40190000000007</v>
+      </c>
+      <c r="G18" s="2">
+        <v>687.39037500000006</v>
+      </c>
+      <c r="H18" s="5">
+        <v>687.40240000000006</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="6">
@@ -717,15 +873,23 @@
         <v>685.447</v>
       </c>
       <c r="C19" s="2">
-        <v>686.92496666666682</v>
+        <v>686.92250000000001</v>
       </c>
       <c r="D19" s="2">
-        <v>687.40330833333337</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="5"/>
+        <v>686.9276000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>686.9248</v>
+      </c>
+      <c r="F19" s="2">
+        <v>687.40079999999989</v>
+      </c>
+      <c r="G19" s="2">
+        <v>687.397425</v>
+      </c>
+      <c r="H19" s="5">
+        <v>687.4117</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20" s="6">
@@ -735,15 +899,23 @@
         <v>685.45150000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>686.93639999999994</v>
+        <v>686.93240000000003</v>
       </c>
       <c r="D20" s="2">
-        <v>687.42449999999997</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="5"/>
+        <v>686.93929999999989</v>
+      </c>
+      <c r="E20" s="2">
+        <v>686.9375</v>
+      </c>
+      <c r="F20" s="2">
+        <v>687.42349999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>687.42059999999992</v>
+      </c>
+      <c r="H20" s="5">
+        <v>687.42939999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21" s="6">
@@ -753,15 +925,23 @@
         <v>685.47749999999996</v>
       </c>
       <c r="C21" s="2">
-        <v>686.95859999999993</v>
+        <v>686.95660000000009</v>
       </c>
       <c r="D21" s="2">
-        <v>687.44487500000014</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="5"/>
+        <v>686.95999999999992</v>
+      </c>
+      <c r="E21" s="2">
+        <v>686.95920000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>687.44920000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <v>687.43832500000008</v>
+      </c>
+      <c r="H21" s="5">
+        <v>687.44710000000009</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22" s="6">
@@ -771,15 +951,23 @@
         <v>685.4905</v>
       </c>
       <c r="C22" s="2">
-        <v>686.9745999999999</v>
+        <v>686.96949999999993</v>
       </c>
       <c r="D22" s="2">
-        <v>687.45995833333336</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="5"/>
+        <v>686.9769</v>
+      </c>
+      <c r="E22" s="2">
+        <v>686.97739999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>687.45249999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>687.45387500000004</v>
+      </c>
+      <c r="H22" s="5">
+        <v>687.47350000000006</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="6">
@@ -789,15 +977,23 @@
         <v>685.49649999999997</v>
       </c>
       <c r="C23" s="2">
-        <v>686.98390000000006</v>
+        <v>686.97820000000013</v>
       </c>
       <c r="D23" s="2">
-        <v>687.47249166666677</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="5"/>
+        <v>686.98489999999993</v>
+      </c>
+      <c r="E23" s="2">
+        <v>686.98860000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <v>687.4692</v>
+      </c>
+      <c r="G23" s="2">
+        <v>687.46267499999999</v>
+      </c>
+      <c r="H23" s="5">
+        <v>687.48559999999998</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24" s="6">
@@ -807,15 +1003,23 @@
         <v>685.51499999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>686.9928666666666</v>
+        <v>686.98799999999994</v>
       </c>
       <c r="D24" s="2">
-        <v>687.47794166666665</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="5"/>
+        <v>686.99329999999998</v>
+      </c>
+      <c r="E24" s="2">
+        <v>686.9973</v>
+      </c>
+      <c r="F24" s="2">
+        <v>687.47569999999996</v>
+      </c>
+      <c r="G24" s="2">
+        <v>687.47002499999996</v>
+      </c>
+      <c r="H24" s="5">
+        <v>687.48810000000014</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25" s="6">
@@ -825,15 +1029,23 @@
         <v>685.51400000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>686.99189999999999</v>
+        <v>686.98849999999993</v>
       </c>
       <c r="D25" s="2">
-        <v>687.48236666666662</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="5"/>
+        <v>686.99270000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>686.9944999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>687.48289999999997</v>
+      </c>
+      <c r="G25" s="2">
+        <v>687.47559999999999</v>
+      </c>
+      <c r="H25" s="5">
+        <v>687.48860000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26" s="6">
@@ -843,15 +1055,23 @@
         <v>685.505</v>
       </c>
       <c r="C26" s="2">
-        <v>686.98566666666659</v>
+        <v>686.9833000000001</v>
       </c>
       <c r="D26" s="2">
-        <v>687.47073333333321</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="5"/>
+        <v>686.98879999999997</v>
+      </c>
+      <c r="E26" s="2">
+        <v>686.98490000000004</v>
+      </c>
+      <c r="F26" s="2">
+        <v>687.46879999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>687.46420000000012</v>
+      </c>
+      <c r="H26" s="5">
+        <v>687.47919999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27" s="6">
@@ -861,15 +1081,23 @@
         <v>685.48249999999996</v>
       </c>
       <c r="C27" s="2">
-        <v>686.97220000000004</v>
+        <v>686.96989999999994</v>
       </c>
       <c r="D27" s="2">
-        <v>687.45575833333339</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="5"/>
+        <v>686.97530000000006</v>
+      </c>
+      <c r="E27" s="2">
+        <v>686.97140000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>687.45619999999997</v>
+      </c>
+      <c r="G27" s="2">
+        <v>687.44797500000004</v>
+      </c>
+      <c r="H27" s="5">
+        <v>687.46310000000005</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28" s="6">
@@ -879,15 +1107,23 @@
         <v>685.47400000000005</v>
       </c>
       <c r="C28" s="2">
-        <v>686.96316666666655</v>
+        <v>686.96060000000011</v>
       </c>
       <c r="D28" s="2">
-        <v>687.44203333333337</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="5"/>
+        <v>686.96629999999993</v>
+      </c>
+      <c r="E28" s="2">
+        <v>686.96259999999995</v>
+      </c>
+      <c r="F28" s="2">
+        <v>687.43979999999999</v>
+      </c>
+      <c r="G28" s="2">
+        <v>687.43630000000007</v>
+      </c>
+      <c r="H28" s="5">
+        <v>687.45</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="6">
@@ -897,15 +1133,23 @@
         <v>685.46799999999996</v>
       </c>
       <c r="C29" s="2">
-        <v>686.9608333333332</v>
+        <v>686.95669999999996</v>
       </c>
       <c r="D29" s="2">
-        <v>687.44009999999992</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="5"/>
+        <v>686.96660000000008</v>
+      </c>
+      <c r="E29" s="2">
+        <v>686.95920000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>687.43939999999998</v>
+      </c>
+      <c r="G29" s="2">
+        <v>687.43290000000002</v>
+      </c>
+      <c r="H29" s="5">
+        <v>687.44799999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1">
       <c r="A30" s="6">
@@ -915,15 +1159,23 @@
         <v>685.47950000000003</v>
       </c>
       <c r="C30" s="2">
-        <v>686.96556666666663</v>
+        <v>686.96229999999991</v>
       </c>
       <c r="D30" s="2">
-        <v>687.44881666666663</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="5"/>
+        <v>686.97059999999988</v>
+      </c>
+      <c r="E30" s="2">
+        <v>686.96379999999988</v>
+      </c>
+      <c r="F30" s="2">
+        <v>687.44979999999998</v>
+      </c>
+      <c r="G30" s="2">
+        <v>687.44145000000003</v>
+      </c>
+      <c r="H30" s="5">
+        <v>687.45519999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1">
       <c r="A31" s="6">
@@ -933,15 +1185,23 @@
         <v>685.49350000000004</v>
       </c>
       <c r="C31" s="2">
-        <v>686.97783333333336</v>
+        <v>686.97450000000003</v>
       </c>
       <c r="D31" s="2">
-        <v>687.45698333333337</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="5"/>
+        <v>686.9846</v>
+      </c>
+      <c r="E31" s="2">
+        <v>686.97439999999995</v>
+      </c>
+      <c r="F31" s="2">
+        <v>687.45799999999997</v>
+      </c>
+      <c r="G31" s="2">
+        <v>687.44994999999994</v>
+      </c>
+      <c r="H31" s="5">
+        <v>687.46300000000008</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1">
       <c r="A32" s="6">
@@ -951,15 +1211,23 @@
         <v>685.49249999999995</v>
       </c>
       <c r="C32" s="2">
-        <v>686.98623333333342</v>
+        <v>686.98220000000003</v>
       </c>
       <c r="D32" s="2">
-        <v>687.47117500000002</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="5"/>
+        <v>686.9905</v>
+      </c>
+      <c r="E32" s="2">
+        <v>686.9860000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>687.47770000000003</v>
+      </c>
+      <c r="G32" s="2">
+        <v>687.45802500000002</v>
+      </c>
+      <c r="H32" s="5">
+        <v>687.4778</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1">
       <c r="A33" s="6">
@@ -969,15 +1237,23 @@
         <v>685.51250000000005</v>
       </c>
       <c r="C33" s="2">
-        <v>687.00223333333327</v>
+        <v>687.00299999999993</v>
       </c>
       <c r="D33" s="2">
-        <v>687.4828083333332</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="5"/>
+        <v>687.00440000000003</v>
+      </c>
+      <c r="E33" s="2">
+        <v>686.99930000000006</v>
+      </c>
+      <c r="F33" s="2">
+        <v>687.47759999999994</v>
+      </c>
+      <c r="G33" s="2">
+        <v>687.47622499999989</v>
+      </c>
+      <c r="H33" s="5">
+        <v>687.49459999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1">
       <c r="A34" s="6">
@@ -987,15 +1263,23 @@
         <v>685.52</v>
       </c>
       <c r="C34" s="2">
-        <v>687.01536666666664</v>
+        <v>687.01340000000005</v>
       </c>
       <c r="D34" s="2">
-        <v>687.50008333333335</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="5"/>
+        <v>687.01949999999988</v>
+      </c>
+      <c r="E34" s="2">
+        <v>687.0132000000001</v>
+      </c>
+      <c r="F34" s="2">
+        <v>687.50490000000002</v>
+      </c>
+      <c r="G34" s="2">
+        <v>687.48835000000008</v>
+      </c>
+      <c r="H34" s="5">
+        <v>687.50700000000006</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" customHeight="1">
       <c r="A35" s="6">
@@ -1005,15 +1289,23 @@
         <v>685.53599999999994</v>
       </c>
       <c r="C35" s="2">
-        <v>687.02756666666664</v>
+        <v>687.02790000000005</v>
       </c>
       <c r="D35" s="2">
-        <v>687.51592500000004</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="5"/>
+        <v>687.03039999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>687.0243999999999</v>
+      </c>
+      <c r="F35" s="2">
+        <v>687.51930000000004</v>
+      </c>
+      <c r="G35" s="2">
+        <v>687.5060749999999</v>
+      </c>
+      <c r="H35" s="5">
+        <v>687.52240000000006</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36" s="6">
@@ -1023,15 +1315,23 @@
         <v>685.55</v>
       </c>
       <c r="C36" s="2">
-        <v>687.0413666666667</v>
+        <v>687.04269999999997</v>
       </c>
       <c r="D36" s="2">
-        <v>687.53183333333334</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="5"/>
+        <v>687.04499999999985</v>
+      </c>
+      <c r="E36" s="2">
+        <v>687.03639999999996</v>
+      </c>
+      <c r="F36" s="2">
+        <v>687.53359999999998</v>
+      </c>
+      <c r="G36" s="2">
+        <v>687.52170000000001</v>
+      </c>
+      <c r="H36" s="5">
+        <v>687.54020000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1">
       <c r="A37" s="6">
@@ -1041,15 +1341,23 @@
         <v>685.56399999999996</v>
       </c>
       <c r="C37" s="2">
-        <v>687.05333333333328</v>
+        <v>687.05349999999987</v>
       </c>
       <c r="D37" s="2">
-        <v>687.54259166666668</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="5"/>
+        <v>687.05640000000017</v>
+      </c>
+      <c r="E37" s="2">
+        <v>687.05010000000004</v>
+      </c>
+      <c r="F37" s="2">
+        <v>687.54130000000009</v>
+      </c>
+      <c r="G37" s="2">
+        <v>687.53487500000006</v>
+      </c>
+      <c r="H37" s="5">
+        <v>687.55160000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38" s="6">
@@ -1059,15 +1367,23 @@
         <v>685.57449999999994</v>
       </c>
       <c r="C38" s="2">
-        <v>687.05723333333333</v>
+        <v>687.05500000000006</v>
       </c>
       <c r="D38" s="2">
-        <v>687.55347500000005</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="5"/>
+        <v>687.06000000000006</v>
+      </c>
+      <c r="E38" s="2">
+        <v>687.05669999999986</v>
+      </c>
+      <c r="F38" s="2">
+        <v>687.5553000000001</v>
+      </c>
+      <c r="G38" s="2">
+        <v>687.54362500000002</v>
+      </c>
+      <c r="H38" s="5">
+        <v>687.56150000000002</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1">
       <c r="A39" s="6">
@@ -1077,15 +1393,23 @@
         <v>685.57749999999999</v>
       </c>
       <c r="C39" s="2">
-        <v>687.06260000000009</v>
+        <v>687.06060000000002</v>
       </c>
       <c r="D39" s="2">
-        <v>687.55612499999995</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="5"/>
+        <v>687.06610000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>687.06110000000012</v>
+      </c>
+      <c r="F39" s="2">
+        <v>687.5560999999999</v>
+      </c>
+      <c r="G39" s="2">
+        <v>687.54597499999988</v>
+      </c>
+      <c r="H39" s="5">
+        <v>687.56629999999996</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1">
       <c r="A40" s="6">
@@ -1095,15 +1419,23 @@
         <v>685.57899999999995</v>
       </c>
       <c r="C40" s="2">
-        <v>687.05859999999996</v>
+        <v>687.0571000000001</v>
       </c>
       <c r="D40" s="2">
-        <v>687.55363333333344</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="5"/>
+        <v>687.06200000000013</v>
+      </c>
+      <c r="E40" s="2">
+        <v>687.05669999999986</v>
+      </c>
+      <c r="F40" s="2">
+        <v>687.55420000000015</v>
+      </c>
+      <c r="G40" s="2">
+        <v>687.54510000000005</v>
+      </c>
+      <c r="H40" s="5">
+        <v>687.5616</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" customHeight="1">
       <c r="A41" s="6">
@@ -1113,15 +1445,23 @@
         <v>685.57349999999997</v>
       </c>
       <c r="C41" s="2">
-        <v>687.05126666666672</v>
+        <v>687.04910000000007</v>
       </c>
       <c r="D41" s="2">
-        <v>687.5398583333332</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="5"/>
+        <v>687.05560000000003</v>
+      </c>
+      <c r="E41" s="2">
+        <v>687.04909999999995</v>
+      </c>
+      <c r="F41" s="2">
+        <v>687.54179999999997</v>
+      </c>
+      <c r="G41" s="2">
+        <v>687.530575</v>
+      </c>
+      <c r="H41" s="5">
+        <v>687.54719999999998</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" customHeight="1">
       <c r="A42" s="6">
@@ -1131,15 +1471,23 @@
         <v>685.5625</v>
       </c>
       <c r="C42" s="2">
-        <v>687.03903333333312</v>
+        <v>687.03709999999978</v>
       </c>
       <c r="D42" s="2">
-        <v>687.52994999999999</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="5"/>
+        <v>687.04409999999996</v>
+      </c>
+      <c r="E42" s="2">
+        <v>687.03590000000008</v>
+      </c>
+      <c r="F42" s="2">
+        <v>687.5329999999999</v>
+      </c>
+      <c r="G42" s="2">
+        <v>687.52074999999991</v>
+      </c>
+      <c r="H42" s="5">
+        <v>687.53610000000003</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1">
       <c r="A43" s="6">
@@ -1149,15 +1497,23 @@
         <v>685.54849999999999</v>
       </c>
       <c r="C43" s="2">
-        <v>687.03593333333322</v>
+        <v>687.03290000000004</v>
       </c>
       <c r="D43" s="2">
-        <v>687.51679166666656</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="5"/>
+        <v>687.04310000000009</v>
+      </c>
+      <c r="E43" s="2">
+        <v>687.03179999999998</v>
+      </c>
+      <c r="F43" s="2">
+        <v>687.52170000000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>687.50727499999994</v>
+      </c>
+      <c r="H43" s="5">
+        <v>687.52139999999997</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="A44" s="6">
@@ -1167,15 +1523,23 @@
         <v>685.54750000000001</v>
       </c>
       <c r="C44" s="2">
-        <v>687.03463333333332</v>
+        <v>687.02980000000002</v>
       </c>
       <c r="D44" s="2">
-        <v>687.51591666666673</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="5"/>
+        <v>687.04150000000004</v>
+      </c>
+      <c r="E44" s="2">
+        <v>687.0326</v>
+      </c>
+      <c r="F44" s="2">
+        <v>687.52320000000009</v>
+      </c>
+      <c r="G44" s="2">
+        <v>687.50515000000007</v>
+      </c>
+      <c r="H44" s="5">
+        <v>687.51940000000002</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" customHeight="1">
       <c r="A45" s="6">
@@ -1185,15 +1549,23 @@
         <v>685.54700000000003</v>
       </c>
       <c r="C45" s="2">
-        <v>687.03710000000001</v>
+        <v>687.03189999999995</v>
       </c>
       <c r="D45" s="2">
-        <v>687.52074166666659</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="5"/>
+        <v>687.04499999999996</v>
+      </c>
+      <c r="E45" s="2">
+        <v>687.03439999999989</v>
+      </c>
+      <c r="F45" s="2">
+        <v>687.5184999999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>687.51322499999992</v>
+      </c>
+      <c r="H45" s="5">
+        <v>687.53050000000007</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" customHeight="1">
       <c r="A46" s="6">
@@ -1203,15 +1575,23 @@
         <v>685.55600000000004</v>
       </c>
       <c r="C46" s="2">
-        <v>687.04439999999988</v>
+        <v>687.03779999999995</v>
       </c>
       <c r="D46" s="2">
-        <v>687.52737500000001</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="5"/>
+        <v>687.05089999999996</v>
+      </c>
+      <c r="E46" s="2">
+        <v>687.04450000000008</v>
+      </c>
+      <c r="F46" s="2">
+        <v>687.53180000000009</v>
+      </c>
+      <c r="G46" s="2">
+        <v>687.51582499999995</v>
+      </c>
+      <c r="H46" s="5">
+        <v>687.53449999999998</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" customHeight="1">
       <c r="A47" s="6">
@@ -1221,15 +1601,23 @@
         <v>685.56399999999996</v>
       </c>
       <c r="C47" s="2">
-        <v>687.05223333333345</v>
+        <v>687.04729999999995</v>
       </c>
       <c r="D47" s="2">
-        <v>687.53546666666659</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="5"/>
+        <v>687.05800000000022</v>
+      </c>
+      <c r="E47" s="2">
+        <v>687.05140000000006</v>
+      </c>
+      <c r="F47" s="2">
+        <v>687.53419999999983</v>
+      </c>
+      <c r="G47" s="2">
+        <v>687.52840000000003</v>
+      </c>
+      <c r="H47" s="5">
+        <v>687.54380000000003</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" customHeight="1">
       <c r="A48" s="6">
@@ -1239,15 +1627,23 @@
         <v>685.5675</v>
       </c>
       <c r="C48" s="2">
-        <v>687.05690000000004</v>
+        <v>687.05080000000009</v>
       </c>
       <c r="D48" s="2">
-        <v>687.54140833333338</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="5"/>
+        <v>687.06220000000008</v>
+      </c>
+      <c r="E48" s="2">
+        <v>687.05769999999995</v>
+      </c>
+      <c r="F48" s="2">
+        <v>687.53989999999999</v>
+      </c>
+      <c r="G48" s="2">
+        <v>687.5341249999999</v>
+      </c>
+      <c r="H48" s="5">
+        <v>687.55020000000013</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" customHeight="1">
       <c r="A49" s="6">
@@ -1257,15 +1653,23 @@
         <v>685.57500000000005</v>
       </c>
       <c r="C49" s="2">
-        <v>687.06550000000004</v>
+        <v>687.06090000000006</v>
       </c>
       <c r="D49" s="2">
-        <v>687.54427499999986</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="5"/>
+        <v>687.06999999999994</v>
+      </c>
+      <c r="E49" s="2">
+        <v>687.0655999999999</v>
+      </c>
+      <c r="F49" s="2">
+        <v>687.54589999999996</v>
+      </c>
+      <c r="G49" s="2">
+        <v>687.53572499999996</v>
+      </c>
+      <c r="H49" s="5">
+        <v>687.55120000000011</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" customHeight="1">
       <c r="A50" s="6">
@@ -1275,15 +1679,23 @@
         <v>685.57950000000005</v>
       </c>
       <c r="C50" s="2">
+        <v>687.06570000000011</v>
+      </c>
+      <c r="D50" s="2">
+        <v>687.07550000000015</v>
+      </c>
+      <c r="E50" s="2">
         <v>687.07060000000001</v>
       </c>
-      <c r="D50" s="2">
-        <v>687.55365000000018</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="5"/>
+      <c r="F50" s="2">
+        <v>687.55269999999996</v>
+      </c>
+      <c r="G50" s="2">
+        <v>687.54785000000004</v>
+      </c>
+      <c r="H50" s="5">
+        <v>687.56040000000007</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" customHeight="1">
       <c r="A51" s="6">
@@ -1293,15 +1705,23 @@
         <v>685.60050000000001</v>
       </c>
       <c r="C51" s="2">
+        <v>687.0784000000001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>687.0874</v>
+      </c>
+      <c r="E51" s="2">
         <v>687.0829</v>
       </c>
-      <c r="D51" s="2">
-        <v>687.56700833333343</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="5"/>
+      <c r="F51" s="2">
+        <v>687.57339999999999</v>
+      </c>
+      <c r="G51" s="2">
+        <v>687.55962499999998</v>
+      </c>
+      <c r="H51" s="5">
+        <v>687.5680000000001</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" customHeight="1">
       <c r="A52" s="6">
@@ -1311,15 +1731,23 @@
         <v>685.62450000000001</v>
       </c>
       <c r="C52" s="2">
-        <v>687.09413333333339</v>
+        <v>687.08960000000002</v>
       </c>
       <c r="D52" s="2">
-        <v>687.57909166666684</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="5"/>
+        <v>687.09820000000002</v>
+      </c>
+      <c r="E52" s="2">
+        <v>687.09460000000013</v>
+      </c>
+      <c r="F52" s="2">
+        <v>687.58029999999997</v>
+      </c>
+      <c r="G52" s="2">
+        <v>687.57297500000004</v>
+      </c>
+      <c r="H52" s="5">
+        <v>687.58400000000006</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
